--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AF499B-5A34-4322-B86F-C26E4DAD6E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5DA92B-CBD4-4C91-8FC8-3B8216A0B507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="178">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -388,27 +388,6 @@
     <t>Solar auf reling</t>
   </si>
   <si>
-    <t>a0014</t>
-  </si>
-  <si>
-    <t>a0015</t>
-  </si>
-  <si>
-    <t>a0016</t>
-  </si>
-  <si>
-    <t>a0017</t>
-  </si>
-  <si>
-    <t>a0018</t>
-  </si>
-  <si>
-    <t>a0019</t>
-  </si>
-  <si>
-    <t>a0020</t>
-  </si>
-  <si>
     <t>NAME</t>
   </si>
   <si>
@@ -443,6 +422,153 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>p1001</t>
+  </si>
+  <si>
+    <t>p1002</t>
+  </si>
+  <si>
+    <t>p1003</t>
+  </si>
+  <si>
+    <t>p1004</t>
+  </si>
+  <si>
+    <t>p1005</t>
+  </si>
+  <si>
+    <t>p1006</t>
+  </si>
+  <si>
+    <t>p1007</t>
+  </si>
+  <si>
+    <t>p1008</t>
+  </si>
+  <si>
+    <t>p1009</t>
+  </si>
+  <si>
+    <t>p1010</t>
+  </si>
+  <si>
+    <t>p1011</t>
+  </si>
+  <si>
+    <t>p1012</t>
+  </si>
+  <si>
+    <t>p1013</t>
+  </si>
+  <si>
+    <t>p1014</t>
+  </si>
+  <si>
+    <t>p1015</t>
+  </si>
+  <si>
+    <t>p1016</t>
+  </si>
+  <si>
+    <t>a1001</t>
+  </si>
+  <si>
+    <t>a1002</t>
+  </si>
+  <si>
+    <t>a1003</t>
+  </si>
+  <si>
+    <t>a1004</t>
+  </si>
+  <si>
+    <t>a1005</t>
+  </si>
+  <si>
+    <t>a1006</t>
+  </si>
+  <si>
+    <t>a1007</t>
+  </si>
+  <si>
+    <t>a1008</t>
+  </si>
+  <si>
+    <t>a1009</t>
+  </si>
+  <si>
+    <t>a1010</t>
+  </si>
+  <si>
+    <t>a1011</t>
+  </si>
+  <si>
+    <t>a1012</t>
+  </si>
+  <si>
+    <t>a1013</t>
+  </si>
+  <si>
+    <t>a1014</t>
+  </si>
+  <si>
+    <t>a1015</t>
+  </si>
+  <si>
+    <t>a1016</t>
+  </si>
+  <si>
+    <t>ECKE_ROHR_LAGER</t>
+  </si>
+  <si>
+    <t>ECKE_ROHR_DECKEL</t>
+  </si>
+  <si>
+    <t>MITTE_RELINGZUG_LAGER</t>
+  </si>
+  <si>
+    <t>MITTE_RELINGZUG_DECKEL</t>
+  </si>
+  <si>
+    <t>ECKE_RELINGZUG_LAGER</t>
+  </si>
+  <si>
+    <t>ECKE_RELINGZUG_DECKEL</t>
+  </si>
+  <si>
+    <t>BLECH_FIXIERUNG</t>
+  </si>
+  <si>
+    <t>HALTER_SOLAR_ZYLI</t>
+  </si>
+  <si>
+    <t>HALTEBLECH_UNTEN</t>
+  </si>
+  <si>
+    <t>BOLZEN_SOLAR</t>
+  </si>
+  <si>
+    <t>Halterung_Mitte</t>
+  </si>
+  <si>
+    <t>Halterung_Ecke_Seil</t>
+  </si>
+  <si>
+    <t>Halterung_Ecke_Rohr</t>
+  </si>
+  <si>
+    <t>Zylinder</t>
+  </si>
+  <si>
+    <t>Auszieher</t>
+  </si>
+  <si>
+    <t>Auszieher Rohr innen</t>
+  </si>
+  <si>
+    <t>Auszieher Rohr aussen</t>
   </si>
 </sst>
 </file>
@@ -937,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,7 +1238,7 @@
         <v>37</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>111</v>
@@ -1121,7 +1247,7 @@
         <v>38</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>111</v>
@@ -1130,7 +1256,7 @@
         <v>113</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>111</v>
@@ -1139,7 +1265,7 @@
         <v>112</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="M26" s="10" t="s">
         <v>111</v>
@@ -1182,7 +1308,7 @@
         <v>85</v>
       </c>
       <c r="I28" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" t="s">
@@ -1219,7 +1345,7 @@
         <v>86</v>
       </c>
       <c r="I29" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" t="s">
@@ -1256,7 +1382,7 @@
         <v>114</v>
       </c>
       <c r="I30" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" t="s">
@@ -1632,7 +1758,7 @@
         <v>33</v>
       </c>
       <c r="L45" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>46</v>
@@ -1667,7 +1793,7 @@
         <v>34</v>
       </c>
       <c r="L47" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="M47" s="4"/>
     </row>
@@ -1680,7 +1806,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="H48" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="L48" t="s">
         <v>80</v>
@@ -1699,7 +1825,7 @@
         <v>35</v>
       </c>
       <c r="L49" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>46</v>
@@ -1714,7 +1840,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="L50" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="M50" s="4"/>
     </row>
@@ -1730,19 +1856,19 @@
         <v>36</v>
       </c>
       <c r="L51" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M51" s="4"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="I52" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="L52" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="M52" s="4"/>
     </row>
@@ -1819,295 +1945,262 @@
       <c r="M61" s="7"/>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>161</v>
+      </c>
       <c r="C62" t="s">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="D62" s="11"/>
+      <c r="E62" t="s">
+        <v>171</v>
+      </c>
       <c r="F62" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="G62" s="11"/>
       <c r="J62" s="11"/>
-      <c r="L62" t="s">
-        <v>2</v>
-      </c>
       <c r="M62" s="11"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>162</v>
+      </c>
       <c r="C63" t="s">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="D63" s="11"/>
+      <c r="E63" t="s">
+        <v>172</v>
+      </c>
       <c r="F63" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="G63" s="11"/>
       <c r="J63" s="11"/>
-      <c r="L63" t="s">
-        <v>3</v>
-      </c>
       <c r="M63" s="11"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>163</v>
+      </c>
       <c r="C64" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="D64" s="11"/>
+      <c r="E64" t="s">
+        <v>173</v>
+      </c>
       <c r="F64" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="G64" s="11"/>
       <c r="J64" s="11"/>
-      <c r="L64" t="s">
-        <v>4</v>
-      </c>
       <c r="M64" s="11"/>
     </row>
-    <row r="65" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>164</v>
+      </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="D65" s="11"/>
+      <c r="E65" t="s">
+        <v>174</v>
+      </c>
       <c r="F65" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="G65" s="11"/>
       <c r="J65" s="11"/>
-      <c r="L65" t="s">
-        <v>5</v>
-      </c>
       <c r="M65" s="11"/>
     </row>
-    <row r="66" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>165</v>
+      </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="D66" s="11"/>
+      <c r="E66" t="s">
+        <v>175</v>
+      </c>
       <c r="F66" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="G66" s="11"/>
       <c r="J66" s="11"/>
-      <c r="L66" t="s">
-        <v>6</v>
-      </c>
       <c r="M66" s="11"/>
     </row>
-    <row r="67" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>166</v>
+      </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="D67" s="11"/>
       <c r="F67" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="G67" s="11"/>
-      <c r="L67" t="s">
-        <v>11</v>
-      </c>
       <c r="M67" s="11"/>
     </row>
-    <row r="68" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>167</v>
+      </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="D68" s="11"/>
       <c r="F68" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="G68" s="11"/>
-      <c r="L68" t="s">
-        <v>13</v>
-      </c>
       <c r="M68" s="11"/>
     </row>
-    <row r="69" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>168</v>
+      </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D69" s="11"/>
       <c r="F69" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="G69" s="11"/>
-      <c r="L69" t="s">
-        <v>14</v>
-      </c>
       <c r="M69" s="11"/>
     </row>
-    <row r="70" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>169</v>
+      </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="D70" s="11"/>
       <c r="F70" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="G70" s="11"/>
-      <c r="L70" t="s">
-        <v>15</v>
-      </c>
       <c r="M70" s="11"/>
     </row>
-    <row r="71" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>170</v>
+      </c>
       <c r="C71" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="D71" s="11"/>
       <c r="F71" t="s">
-        <v>74</v>
-      </c>
-      <c r="L71" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="M71" s="11"/>
     </row>
-    <row r="72" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>176</v>
+      </c>
       <c r="C72" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="D72" s="11"/>
       <c r="F72" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="G72" s="11"/>
-      <c r="L72" t="s">
-        <v>16</v>
-      </c>
       <c r="M72" s="11"/>
     </row>
-    <row r="73" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>177</v>
+      </c>
       <c r="C73" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="D73" s="11"/>
       <c r="F73" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="G73" s="11"/>
-      <c r="L73" t="s">
-        <v>17</v>
-      </c>
       <c r="M73" s="11"/>
     </row>
-    <row r="74" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D74" s="11"/>
       <c r="F74" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G74" s="11"/>
-      <c r="L74" t="s">
-        <v>18</v>
-      </c>
       <c r="M74" s="11"/>
     </row>
-    <row r="75" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="D75" s="11"/>
       <c r="F75" t="s">
-        <v>117</v>
-      </c>
-      <c r="L75" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="M75" s="11"/>
     </row>
-    <row r="76" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="D76" s="11"/>
       <c r="F76" t="s">
-        <v>118</v>
-      </c>
-      <c r="L76" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="M76" s="11"/>
     </row>
-    <row r="77" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="D77" s="11"/>
       <c r="F77" t="s">
-        <v>119</v>
-      </c>
-      <c r="L77" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="M77" s="11"/>
     </row>
-    <row r="78" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
-        <v>22</v>
-      </c>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D78" s="11"/>
-      <c r="F78" t="s">
-        <v>120</v>
-      </c>
-      <c r="L78" t="s">
-        <v>22</v>
-      </c>
       <c r="M78" s="11"/>
     </row>
-    <row r="79" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
-        <v>23</v>
-      </c>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D79" s="11"/>
-      <c r="F79" t="s">
-        <v>121</v>
-      </c>
-      <c r="L79" t="s">
-        <v>23</v>
-      </c>
       <c r="M79" s="11"/>
     </row>
-    <row r="80" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
-        <v>24</v>
-      </c>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D80" s="11"/>
-      <c r="F80" t="s">
-        <v>122</v>
-      </c>
-      <c r="L80" t="s">
-        <v>24</v>
-      </c>
       <c r="M80" s="11"/>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C81" t="s">
-        <v>25</v>
-      </c>
+    <row r="81" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D81" s="11"/>
-      <c r="F81" t="s">
-        <v>123</v>
-      </c>
-      <c r="L81" t="s">
-        <v>25</v>
-      </c>
       <c r="M81" s="11"/>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D82" s="11"/>
       <c r="M82" s="11"/>
     </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D83" s="11"/>
       <c r="M83" s="11"/>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D84" s="11"/>
       <c r="M84" s="11"/>
     </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D85" s="11"/>
       <c r="M85" s="11"/>
     </row>

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5DA92B-CBD4-4C91-8FC8-3B8216A0B507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1879EA1-47DF-46CD-8249-8BCDDD4B3703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="185">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -520,22 +520,55 @@
     <t>a1016</t>
   </si>
   <si>
-    <t>ECKE_ROHR_LAGER</t>
+    <t>Alles_SB</t>
+  </si>
+  <si>
+    <t>Alles_BB</t>
+  </si>
+  <si>
+    <t>ECKE_ROHR_LAGER_BB</t>
+  </si>
+  <si>
+    <t>ECKE_RELINGZUG_LAGER_BB</t>
+  </si>
+  <si>
+    <t>Halterung_Ecke_Seil_BB</t>
+  </si>
+  <si>
+    <t>Halterung_Ecke_Rohr_BB</t>
+  </si>
+  <si>
+    <t>Zylinder</t>
+  </si>
+  <si>
+    <t>Auszieher</t>
+  </si>
+  <si>
+    <t>Halterung Solar</t>
+  </si>
+  <si>
+    <t>Halterung_Mitte</t>
+  </si>
+  <si>
+    <t>MITTE_RELINGZUG_LAGER</t>
+  </si>
+  <si>
+    <t>MITTE_RELINGZUG_DECKEL</t>
+  </si>
+  <si>
+    <t>ECKE_RELINGZUG_DECKEL</t>
   </si>
   <si>
     <t>ECKE_ROHR_DECKEL</t>
   </si>
   <si>
-    <t>MITTE_RELINGZUG_LAGER</t>
-  </si>
-  <si>
-    <t>MITTE_RELINGZUG_DECKEL</t>
-  </si>
-  <si>
-    <t>ECKE_RELINGZUG_LAGER</t>
-  </si>
-  <si>
-    <t>ECKE_RELINGZUG_DECKEL</t>
+    <t>Auszieher Rohr aussen</t>
+  </si>
+  <si>
+    <t>Auszieher Rohr innen</t>
+  </si>
+  <si>
+    <t>BOLZEN_SOLAR</t>
   </si>
   <si>
     <t>BLECH_FIXIERUNG</t>
@@ -547,28 +580,16 @@
     <t>HALTEBLECH_UNTEN</t>
   </si>
   <si>
-    <t>BOLZEN_SOLAR</t>
-  </si>
-  <si>
-    <t>Halterung_Mitte</t>
-  </si>
-  <si>
-    <t>Halterung_Ecke_Seil</t>
-  </si>
-  <si>
-    <t>Halterung_Ecke_Rohr</t>
-  </si>
-  <si>
-    <t>Zylinder</t>
-  </si>
-  <si>
-    <t>Auszieher</t>
-  </si>
-  <si>
-    <t>Auszieher Rohr innen</t>
-  </si>
-  <si>
-    <t>Auszieher Rohr aussen</t>
+    <t>Ecke Relingszug Lager SB</t>
+  </si>
+  <si>
+    <t>Ecke rohr Lager SB</t>
+  </si>
+  <si>
+    <t>Halterung_Ecke_Seil_SB</t>
+  </si>
+  <si>
+    <t>Halterung_Ecke_Rohr_SB</t>
   </si>
 </sst>
 </file>
@@ -1063,16 +1084,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" customWidth="1"/>
     <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
@@ -1946,14 +1967,14 @@
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C62" t="s">
         <v>129</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F62" t="s">
         <v>145</v>
@@ -1964,14 +1985,14 @@
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="C63" t="s">
         <v>130</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F63" t="s">
         <v>146</v>
@@ -1982,14 +2003,14 @@
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C64" t="s">
         <v>131</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F64" t="s">
         <v>147</v>
@@ -2000,14 +2021,14 @@
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C65" t="s">
         <v>132</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F65" t="s">
         <v>148</v>
@@ -2018,14 +2039,14 @@
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C66" t="s">
         <v>133</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F66" t="s">
         <v>149</v>
@@ -2036,12 +2057,15 @@
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C67" t="s">
         <v>134</v>
       </c>
       <c r="D67" s="11"/>
+      <c r="E67" t="s">
+        <v>169</v>
+      </c>
       <c r="F67" t="s">
         <v>150</v>
       </c>
@@ -2050,12 +2074,15 @@
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C68" t="s">
         <v>135</v>
       </c>
       <c r="D68" s="11"/>
+      <c r="E68" t="s">
+        <v>162</v>
+      </c>
       <c r="F68" t="s">
         <v>151</v>
       </c>
@@ -2064,12 +2091,15 @@
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C69" t="s">
         <v>136</v>
       </c>
       <c r="D69" s="11"/>
+      <c r="E69" t="s">
+        <v>161</v>
+      </c>
       <c r="F69" t="s">
         <v>152</v>
       </c>
@@ -2078,12 +2108,15 @@
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C70" t="s">
         <v>137</v>
       </c>
       <c r="D70" s="11"/>
+      <c r="E70" t="s">
+        <v>183</v>
+      </c>
       <c r="F70" t="s">
         <v>153</v>
       </c>
@@ -2092,12 +2125,15 @@
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C71" t="s">
         <v>138</v>
       </c>
       <c r="D71" s="11"/>
+      <c r="E71" t="s">
+        <v>184</v>
+      </c>
       <c r="F71" t="s">
         <v>154</v>
       </c>
@@ -2119,7 +2155,7 @@
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C73" t="s">
         <v>140</v>
@@ -2132,6 +2168,9 @@
       <c r="M73" s="11"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>181</v>
+      </c>
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -2143,6 +2182,9 @@
       <c r="M74" s="11"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>182</v>
+      </c>
       <c r="C75" t="s">
         <v>142</v>
       </c>

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1879EA1-47DF-46CD-8249-8BCDDD4B3703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650799A4-61C2-4392-B105-7302867F7FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1084,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K72" sqref="K72"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650799A4-61C2-4392-B105-7302867F7FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55315454-BA68-439F-8E86-7D773FDB87AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="202">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -466,12 +466,6 @@
     <t>p1014</t>
   </si>
   <si>
-    <t>p1015</t>
-  </si>
-  <si>
-    <t>p1016</t>
-  </si>
-  <si>
     <t>a1001</t>
   </si>
   <si>
@@ -502,24 +496,6 @@
     <t>a1010</t>
   </si>
   <si>
-    <t>a1011</t>
-  </si>
-  <si>
-    <t>a1012</t>
-  </si>
-  <si>
-    <t>a1013</t>
-  </si>
-  <si>
-    <t>a1014</t>
-  </si>
-  <si>
-    <t>a1015</t>
-  </si>
-  <si>
-    <t>a1016</t>
-  </si>
-  <si>
     <t>Alles_SB</t>
   </si>
   <si>
@@ -577,9 +553,6 @@
     <t>HALTER_SOLAR_ZYLI</t>
   </si>
   <si>
-    <t>HALTEBLECH_UNTEN</t>
-  </si>
-  <si>
     <t>Ecke Relingszug Lager SB</t>
   </si>
   <si>
@@ -590,6 +563,84 @@
   </si>
   <si>
     <t>Halterung_Ecke_Rohr_SB</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Stunden</t>
+  </si>
+  <si>
+    <t>Uhrzeit</t>
+  </si>
+  <si>
+    <t>Tätigkeit</t>
+  </si>
+  <si>
+    <t>Schauer Alexander</t>
+  </si>
+  <si>
+    <t>von</t>
+  </si>
+  <si>
+    <t>bis</t>
+  </si>
+  <si>
+    <t>Gesammt Stunden:</t>
+  </si>
+  <si>
+    <t>p1001_D</t>
+  </si>
+  <si>
+    <t>p1002_D</t>
+  </si>
+  <si>
+    <t>p1003_D</t>
+  </si>
+  <si>
+    <t>p1004_D</t>
+  </si>
+  <si>
+    <t>p1005_D</t>
+  </si>
+  <si>
+    <t>p1006_D</t>
+  </si>
+  <si>
+    <t>p1008_D</t>
+  </si>
+  <si>
+    <t>p1009_D</t>
+  </si>
+  <si>
+    <t>p1010_D</t>
+  </si>
+  <si>
+    <t>p1011_D</t>
+  </si>
+  <si>
+    <t>p1012_D</t>
+  </si>
+  <si>
+    <t>p1013_D</t>
+  </si>
+  <si>
+    <t>p1014_D</t>
+  </si>
+  <si>
+    <t>p1007_D_L</t>
+  </si>
+  <si>
+    <t>p1007_D_K</t>
+  </si>
+  <si>
+    <t>p1007_D_B</t>
+  </si>
+  <si>
+    <t>Zukaufteil</t>
+  </si>
+  <si>
+    <t>Bodenahlterung</t>
   </si>
 </sst>
 </file>
@@ -611,7 +662,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -666,8 +717,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -742,11 +811,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -768,6 +911,42 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1082,10 +1261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
-  <dimension ref="B3:N85"/>
+  <dimension ref="B3:X85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,29 +1283,121 @@
     <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.28515625" customWidth="1"/>
     <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="62.140625" customWidth="1"/>
+    <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q6" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="W6" s="40">
+        <f>SUM(T9:T20)</f>
+        <v>52.833333333333329</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="Q7" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="R7" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="S7" s="29"/>
+      <c r="T7" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="U7" s="27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q8" s="31"/>
+      <c r="R8" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="S8" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="T8" s="32"/>
+      <c r="U8" s="30"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Q9" s="22">
+        <v>44828</v>
+      </c>
+      <c r="R9" s="34">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="S9" s="34">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="T9" s="35">
+        <f>(S9-R9)*24</f>
+        <v>5.4166666666666687</v>
+      </c>
+      <c r="U9" s="21"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Q10" s="23">
+        <v>44829</v>
+      </c>
+      <c r="R10" s="33">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="S10" s="33">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="T10" s="38">
+        <f>(S10-R10)*24</f>
+        <v>3.9166666666666661</v>
+      </c>
+      <c r="U10" s="20"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Q11" s="24">
+        <v>44831</v>
+      </c>
+      <c r="R11" s="25">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="S11" s="25">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="T11" s="35">
+        <f t="shared" ref="T11:T20" si="0">(S11-R11)*24</f>
+        <v>7.9999999999999982</v>
+      </c>
+      <c r="U11" s="19"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>39</v>
       </c>
@@ -1136,8 +1407,22 @@
       <c r="D12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="Q12" s="23">
+        <v>44833</v>
+      </c>
+      <c r="R12" s="33">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="S12" s="33">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="T12" s="38">
+        <f t="shared" si="0"/>
+        <v>6.1666666666666661</v>
+      </c>
+      <c r="U12" s="20"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>42</v>
       </c>
@@ -1147,8 +1432,23 @@
       <c r="D13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="Q13" s="24">
+        <v>44834</v>
+      </c>
+      <c r="R13" s="25">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="S13" s="25">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="T13" s="35">
+        <f t="shared" si="0"/>
+        <v>1.1666666666666652</v>
+      </c>
+      <c r="U13" s="19"/>
+      <c r="X13" s="37"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>45</v>
       </c>
@@ -1162,8 +1462,22 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="Q14" s="23">
+        <v>44834</v>
+      </c>
+      <c r="R14" s="33">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="S14" s="33">
+        <v>0.96875</v>
+      </c>
+      <c r="T14" s="38">
+        <f t="shared" si="0"/>
+        <v>2.5833333333333321</v>
+      </c>
+      <c r="U14" s="20"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>47</v>
       </c>
@@ -1175,8 +1489,22 @@
       </c>
       <c r="J15" s="5"/>
       <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="Q15" s="24">
+        <v>44836</v>
+      </c>
+      <c r="R15" s="25">
+        <v>0.40625</v>
+      </c>
+      <c r="S15" s="25">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="T15" s="35">
+        <f t="shared" si="0"/>
+        <v>2.8333333333333339</v>
+      </c>
+      <c r="U15" s="19"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>46</v>
       </c>
@@ -1188,8 +1516,22 @@
       </c>
       <c r="J16" s="5"/>
       <c r="M16" s="5"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="Q16" s="23">
+        <v>44836</v>
+      </c>
+      <c r="R16" s="33">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="S16" s="33">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="T16" s="38">
+        <f t="shared" si="0"/>
+        <v>7.5833333333333304</v>
+      </c>
+      <c r="U16" s="20"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>55</v>
       </c>
@@ -1201,8 +1543,22 @@
       </c>
       <c r="J17" s="5"/>
       <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="Q17" s="24">
+        <v>44837</v>
+      </c>
+      <c r="R17" s="25">
+        <v>0.78125</v>
+      </c>
+      <c r="S17" s="25">
+        <v>0.99652777777777779</v>
+      </c>
+      <c r="T17" s="35">
+        <f t="shared" si="0"/>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="U17" s="19"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>56</v>
       </c>
@@ -1216,29 +1572,95 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="Q18" s="23">
+        <v>44838</v>
+      </c>
+      <c r="R18" s="33">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="S18" s="33">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="T18" s="38">
+        <f t="shared" si="0"/>
+        <v>2.2499999999999973</v>
+      </c>
+      <c r="U18" s="20"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q19" s="24">
+        <v>44838</v>
+      </c>
+      <c r="R19" s="25">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="S19" s="25">
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="T19" s="35">
+        <f t="shared" si="0"/>
+        <v>3.8333333333333357</v>
+      </c>
+      <c r="U19" s="19"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E20" s="3"/>
       <c r="F20" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="Q20" s="23">
+        <v>44839</v>
+      </c>
+      <c r="R20" s="33">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="S20" s="33">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="T20" s="38">
+        <f t="shared" si="0"/>
+        <v>3.9166666666666687</v>
+      </c>
+      <c r="U20" s="36"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E21" s="2"/>
       <c r="F21" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="Q21" s="24"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E22" s="4"/>
       <c r="F22" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q22" s="23"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q23" s="24"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+    </row>
+    <row r="24" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N24" s="6"/>
-    </row>
-    <row r="25" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q24" s="23"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+    </row>
+    <row r="25" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>115</v>
       </c>
@@ -1253,8 +1675,13 @@
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
       <c r="M25" s="14"/>
-    </row>
-    <row r="26" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q25" s="24"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+    </row>
+    <row r="26" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>37</v>
       </c>
@@ -1291,8 +1718,13 @@
       <c r="M26" s="10" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="Q26" s="23"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1305,8 +1737,13 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="Q27" s="24"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>83</v>
       </c>
@@ -1342,8 +1779,13 @@
       <c r="N28" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="Q28" s="23"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>84</v>
       </c>
@@ -1379,8 +1821,13 @@
       <c r="N29" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="Q29" s="24"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="19"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>8</v>
       </c>
@@ -1415,8 +1862,13 @@
       <c r="M30" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="Q30" s="23"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="20"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>10</v>
       </c>
@@ -1445,7 +1897,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>9</v>
       </c>
@@ -1966,253 +2418,374 @@
       <c r="M61" s="7"/>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J62" s="11"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J63" s="11"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C62" t="s">
-        <v>129</v>
-      </c>
-      <c r="D62" s="11"/>
-      <c r="E62" t="s">
+      <c r="C64" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J64" s="11"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J65" s="11"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J66" s="11"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F62" t="s">
-        <v>145</v>
-      </c>
-      <c r="G62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="M62" s="11"/>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+      <c r="C68" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C63" t="s">
-        <v>130</v>
-      </c>
-      <c r="D63" s="11"/>
-      <c r="E63" t="s">
-        <v>165</v>
-      </c>
-      <c r="F63" t="s">
-        <v>146</v>
-      </c>
-      <c r="G63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="M63" s="11"/>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>171</v>
-      </c>
-      <c r="C64" t="s">
-        <v>131</v>
-      </c>
-      <c r="D64" s="11"/>
-      <c r="E64" t="s">
-        <v>166</v>
-      </c>
-      <c r="F64" t="s">
-        <v>147</v>
-      </c>
-      <c r="G64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="M64" s="11"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+      <c r="F70" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G72" s="11"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G73" s="11"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C65" t="s">
-        <v>132</v>
-      </c>
-      <c r="D65" s="11"/>
-      <c r="E65" t="s">
-        <v>167</v>
-      </c>
-      <c r="F65" t="s">
-        <v>148</v>
-      </c>
-      <c r="G65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="M65" s="11"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>164</v>
-      </c>
-      <c r="C66" t="s">
-        <v>133</v>
-      </c>
-      <c r="D66" s="11"/>
-      <c r="E66" t="s">
-        <v>168</v>
-      </c>
-      <c r="F66" t="s">
-        <v>149</v>
-      </c>
-      <c r="G66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="M66" s="11"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+      <c r="C74" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G74" s="11"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C67" t="s">
-        <v>134</v>
-      </c>
-      <c r="D67" s="11"/>
-      <c r="E67" t="s">
-        <v>169</v>
-      </c>
-      <c r="F67" t="s">
-        <v>150</v>
-      </c>
-      <c r="G67" s="11"/>
-      <c r="M67" s="11"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>178</v>
-      </c>
-      <c r="C68" t="s">
-        <v>135</v>
-      </c>
-      <c r="D68" s="11"/>
-      <c r="E68" t="s">
-        <v>162</v>
-      </c>
-      <c r="F68" t="s">
-        <v>151</v>
-      </c>
-      <c r="G68" s="11"/>
-      <c r="M68" s="11"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>179</v>
-      </c>
-      <c r="C69" t="s">
-        <v>136</v>
-      </c>
-      <c r="D69" s="11"/>
-      <c r="E69" t="s">
-        <v>161</v>
-      </c>
-      <c r="F69" t="s">
-        <v>152</v>
-      </c>
-      <c r="G69" s="11"/>
-      <c r="M69" s="11"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>180</v>
-      </c>
-      <c r="C70" t="s">
-        <v>137</v>
-      </c>
-      <c r="D70" s="11"/>
-      <c r="E70" t="s">
-        <v>183</v>
-      </c>
-      <c r="F70" t="s">
-        <v>153</v>
-      </c>
-      <c r="G70" s="11"/>
-      <c r="M70" s="11"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>177</v>
-      </c>
-      <c r="C71" t="s">
-        <v>138</v>
-      </c>
-      <c r="D71" s="11"/>
-      <c r="E71" t="s">
-        <v>184</v>
-      </c>
-      <c r="F71" t="s">
-        <v>154</v>
-      </c>
-      <c r="M71" s="11"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>176</v>
-      </c>
-      <c r="C72" t="s">
-        <v>139</v>
-      </c>
-      <c r="D72" s="11"/>
-      <c r="F72" t="s">
-        <v>155</v>
-      </c>
-      <c r="G72" s="11"/>
-      <c r="M72" s="11"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>175</v>
-      </c>
-      <c r="C73" t="s">
-        <v>140</v>
-      </c>
-      <c r="D73" s="11"/>
-      <c r="F73" t="s">
-        <v>156</v>
-      </c>
-      <c r="G73" s="11"/>
-      <c r="M73" s="11"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>181</v>
-      </c>
-      <c r="C74" t="s">
-        <v>141</v>
-      </c>
-      <c r="D74" s="11"/>
-      <c r="F74" t="s">
-        <v>157</v>
-      </c>
-      <c r="G74" s="11"/>
-      <c r="M74" s="11"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>182</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="C75" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D75" s="11"/>
-      <c r="F75" t="s">
-        <v>158</v>
-      </c>
-      <c r="M75" s="11"/>
+      <c r="D75" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
-        <v>143</v>
-      </c>
       <c r="D76" s="11"/>
-      <c r="F76" t="s">
-        <v>159</v>
-      </c>
-      <c r="M76" s="11"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
-        <v>144</v>
-      </c>
       <c r="D77" s="11"/>
-      <c r="F77" t="s">
-        <v>160</v>
-      </c>
-      <c r="M77" s="11"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D78" s="11"/>
@@ -2247,11 +2820,14 @@
       <c r="M85" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B25:M25"/>
     <mergeCell ref="B59:M59"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="Q6:U6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55315454-BA68-439F-8E86-7D773FDB87AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED70926E-67CB-4DEE-8718-9DD28A118087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="204">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -641,6 +641,12 @@
   </si>
   <si>
     <t>Bodenahlterung</t>
+  </si>
+  <si>
+    <t>Klemmhebel</t>
+  </si>
+  <si>
+    <t>p1015</t>
   </si>
 </sst>
 </file>
@@ -889,7 +895,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -902,6 +908,27 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -909,6 +936,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -920,33 +953,8 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1263,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:X85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,6 +1292,7 @@
     <col min="15" max="15" width="10.28515625" customWidth="1"/>
     <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="62.140625" customWidth="1"/>
     <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.85546875" customWidth="1"/>
@@ -1305,97 +1314,97 @@
       </c>
     </row>
     <row r="6" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="39" t="s">
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="W6" s="40">
-        <f>SUM(T9:T20)</f>
-        <v>52.833333333333329</v>
+      <c r="W6" s="32">
+        <f>SUM(T9:T21)</f>
+        <v>58.083333333333329</v>
       </c>
     </row>
     <row r="7" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="27" t="s">
+      <c r="Q7" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="R7" s="28" t="s">
+      <c r="R7" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="S7" s="29"/>
-      <c r="T7" s="27" t="s">
+      <c r="S7" s="37"/>
+      <c r="T7" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="U7" s="27" t="s">
+      <c r="U7" s="21" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="8" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q8" s="31"/>
-      <c r="R8" s="26" t="s">
+      <c r="Q8" s="23"/>
+      <c r="R8" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="S8" s="26" t="s">
+      <c r="S8" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="T8" s="32"/>
-      <c r="U8" s="30"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="22"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="Q9" s="22">
+      <c r="Q9" s="16">
         <v>44828</v>
       </c>
-      <c r="R9" s="34">
+      <c r="R9" s="26">
         <v>0.38194444444444442</v>
       </c>
-      <c r="S9" s="34">
+      <c r="S9" s="26">
         <v>0.60763888888888895</v>
       </c>
-      <c r="T9" s="35">
+      <c r="T9" s="27">
         <f>(S9-R9)*24</f>
         <v>5.4166666666666687</v>
       </c>
-      <c r="U9" s="21"/>
+      <c r="U9" s="15"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="Q10" s="23">
+      <c r="Q10" s="17">
         <v>44829</v>
       </c>
-      <c r="R10" s="33">
+      <c r="R10" s="25">
         <v>0.63194444444444442</v>
       </c>
-      <c r="S10" s="33">
+      <c r="S10" s="25">
         <v>0.79513888888888884</v>
       </c>
-      <c r="T10" s="38">
+      <c r="T10" s="30">
         <f>(S10-R10)*24</f>
         <v>3.9166666666666661</v>
       </c>
-      <c r="U10" s="20"/>
+      <c r="U10" s="14"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="Q11" s="24">
+      <c r="Q11" s="18">
         <v>44831</v>
       </c>
-      <c r="R11" s="25">
+      <c r="R11" s="19">
         <v>0.55555555555555558</v>
       </c>
-      <c r="S11" s="25">
+      <c r="S11" s="19">
         <v>0.88888888888888884</v>
       </c>
-      <c r="T11" s="35">
-        <f t="shared" ref="T11:T20" si="0">(S11-R11)*24</f>
+      <c r="T11" s="27">
+        <f t="shared" ref="T11:T21" si="0">(S11-R11)*24</f>
         <v>7.9999999999999982</v>
       </c>
-      <c r="U11" s="19"/>
+      <c r="U11" s="13"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -1407,20 +1416,20 @@
       <c r="D12" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" s="23">
+      <c r="Q12" s="17">
         <v>44833</v>
       </c>
-      <c r="R12" s="33">
+      <c r="R12" s="25">
         <v>0.62847222222222221</v>
       </c>
-      <c r="S12" s="33">
+      <c r="S12" s="25">
         <v>0.88541666666666663</v>
       </c>
-      <c r="T12" s="38">
+      <c r="T12" s="30">
         <f t="shared" si="0"/>
         <v>6.1666666666666661</v>
       </c>
-      <c r="U12" s="20"/>
+      <c r="U12" s="14"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -1432,21 +1441,21 @@
       <c r="D13" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" s="24">
+      <c r="Q13" s="18">
         <v>44834</v>
       </c>
-      <c r="R13" s="25">
+      <c r="R13" s="19">
         <v>0.71527777777777779</v>
       </c>
-      <c r="S13" s="25">
+      <c r="S13" s="19">
         <v>0.76388888888888884</v>
       </c>
-      <c r="T13" s="35">
+      <c r="T13" s="27">
         <f t="shared" si="0"/>
         <v>1.1666666666666652</v>
       </c>
-      <c r="U13" s="19"/>
-      <c r="X13" s="37"/>
+      <c r="U13" s="13"/>
+      <c r="X13" s="29"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -1460,22 +1469,21 @@
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="Q14" s="23">
+      <c r="Q14" s="17">
         <v>44834</v>
       </c>
-      <c r="R14" s="33">
+      <c r="R14" s="25">
         <v>0.86111111111111116</v>
       </c>
-      <c r="S14" s="33">
+      <c r="S14" s="25">
         <v>0.96875</v>
       </c>
-      <c r="T14" s="38">
+      <c r="T14" s="30">
         <f t="shared" si="0"/>
         <v>2.5833333333333321</v>
       </c>
-      <c r="U14" s="20"/>
+      <c r="U14" s="14"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -1489,20 +1497,20 @@
       </c>
       <c r="J15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="Q15" s="24">
+      <c r="Q15" s="18">
         <v>44836</v>
       </c>
-      <c r="R15" s="25">
+      <c r="R15" s="19">
         <v>0.40625</v>
       </c>
-      <c r="S15" s="25">
+      <c r="S15" s="19">
         <v>0.52430555555555558</v>
       </c>
-      <c r="T15" s="35">
+      <c r="T15" s="27">
         <f t="shared" si="0"/>
         <v>2.8333333333333339</v>
       </c>
-      <c r="U15" s="19"/>
+      <c r="U15" s="13"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -1514,22 +1522,21 @@
       <c r="D16" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="5"/>
       <c r="M16" s="5"/>
-      <c r="Q16" s="23">
+      <c r="Q16" s="17">
         <v>44836</v>
       </c>
-      <c r="R16" s="33">
+      <c r="R16" s="25">
         <v>0.67708333333333337</v>
       </c>
-      <c r="S16" s="33">
+      <c r="S16" s="25">
         <v>0.99305555555555547</v>
       </c>
-      <c r="T16" s="38">
+      <c r="T16" s="30">
         <f t="shared" si="0"/>
         <v>7.5833333333333304</v>
       </c>
-      <c r="U16" s="20"/>
+      <c r="U16" s="14"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -1541,22 +1548,20 @@
       <c r="D17" t="s">
         <v>53</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="Q17" s="24">
+      <c r="Q17" s="18">
         <v>44837</v>
       </c>
-      <c r="R17" s="25">
+      <c r="R17" s="19">
         <v>0.78125</v>
       </c>
-      <c r="S17" s="25">
+      <c r="S17" s="19">
         <v>0.99652777777777779</v>
       </c>
-      <c r="T17" s="35">
+      <c r="T17" s="27">
         <f t="shared" si="0"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="U17" s="19"/>
+      <c r="U17" s="13"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
@@ -1571,115 +1576,124 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="Q18" s="23">
+      <c r="O18" s="5"/>
+      <c r="Q18" s="17">
         <v>44838</v>
       </c>
-      <c r="R18" s="33">
+      <c r="R18" s="25">
         <v>0.63888888888888895</v>
       </c>
-      <c r="S18" s="33">
+      <c r="S18" s="25">
         <v>0.73263888888888884</v>
       </c>
-      <c r="T18" s="38">
+      <c r="T18" s="30">
         <f t="shared" si="0"/>
         <v>2.2499999999999973</v>
       </c>
-      <c r="U18" s="20"/>
+      <c r="U18" s="14"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="Q19" s="24">
+      <c r="Q19" s="18">
         <v>44838</v>
       </c>
-      <c r="R19" s="25">
+      <c r="R19" s="19">
         <v>0.80555555555555547</v>
       </c>
-      <c r="S19" s="25">
+      <c r="S19" s="19">
         <v>0.96527777777777779</v>
       </c>
-      <c r="T19" s="35">
+      <c r="T19" s="27">
         <f t="shared" si="0"/>
         <v>3.8333333333333357</v>
       </c>
-      <c r="U19" s="19"/>
+      <c r="U19" s="13"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E20" s="3"/>
       <c r="F20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Q20" s="23">
+      <c r="Q20" s="17">
         <v>44839</v>
       </c>
-      <c r="R20" s="33">
+      <c r="R20" s="25">
         <v>0.35069444444444442</v>
       </c>
-      <c r="S20" s="33">
+      <c r="S20" s="25">
         <v>0.51388888888888895</v>
       </c>
-      <c r="T20" s="38">
+      <c r="T20" s="30">
         <f t="shared" si="0"/>
         <v>3.9166666666666687</v>
       </c>
-      <c r="U20" s="36"/>
+      <c r="U20" s="28"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E21" s="2"/>
       <c r="F21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
+      <c r="Q21" s="18">
+        <v>44839</v>
+      </c>
+      <c r="R21" s="19">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="S21" s="19">
+        <v>0.99652777777777779</v>
+      </c>
+      <c r="T21" s="42">
+        <f t="shared" si="0"/>
+        <v>5.25</v>
+      </c>
+      <c r="U21" s="13"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E22" s="4"/>
       <c r="F22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="Q23" s="24"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
     </row>
     <row r="24" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N24" s="6"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
     </row>
     <row r="25" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="14"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="35"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
     </row>
     <row r="26" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
@@ -1718,11 +1732,11 @@
       <c r="M26" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
@@ -1737,160 +1751,163 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="1" t="s">
         <v>118</v>
       </c>
       <c r="J28" s="4"/>
-      <c r="K28" t="s">
+      <c r="K28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" t="s">
         <v>108</v>
       </c>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>66</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="1" t="s">
         <v>119</v>
       </c>
       <c r="J29" s="4"/>
-      <c r="K29" t="s">
+      <c r="K29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" t="s">
         <v>108</v>
       </c>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="19"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="13"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="1" t="s">
         <v>120</v>
       </c>
       <c r="J30" s="4"/>
-      <c r="K30" t="s">
+      <c r="K30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="20"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="14"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K31" t="s">
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="1" t="s">
         <v>57</v>
       </c>
       <c r="M31" s="2" t="s">
@@ -1898,25 +1915,29 @@
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L32" t="s">
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1" t="s">
         <v>58</v>
       </c>
       <c r="M32" s="2" t="s">
@@ -1924,25 +1945,29 @@
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L33" t="s">
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1" t="s">
         <v>109</v>
       </c>
       <c r="M33" s="2" t="s">
@@ -1950,28 +1975,31 @@
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K34" t="s">
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="1" t="s">
         <v>59</v>
       </c>
       <c r="M34" s="2" t="s">
@@ -1979,25 +2007,29 @@
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L35" t="s">
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1" t="s">
         <v>60</v>
       </c>
       <c r="M35" s="2" t="s">
@@ -2005,25 +2037,29 @@
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>73</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L36" t="s">
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1" t="s">
         <v>110</v>
       </c>
       <c r="M36" s="2" t="s">
@@ -2031,26 +2067,29 @@
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>105</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="1" t="s">
         <v>74</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K37" t="s">
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M37" s="2" t="s">
@@ -2059,28 +2098,31 @@
       <c r="N37" s="6"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="1" t="s">
         <v>75</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K38" t="s">
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M38" s="2" t="s">
@@ -2088,28 +2130,31 @@
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K39" t="s">
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M39" s="2" t="s">
@@ -2117,26 +2162,29 @@
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="1" t="s">
         <v>107</v>
       </c>
       <c r="G40" s="2"/>
-      <c r="K40" t="s">
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" s="1" t="s">
         <v>77</v>
       </c>
       <c r="M40" s="2" t="s">
@@ -2144,19 +2192,25 @@
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K41" t="s">
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" s="1" t="s">
         <v>79</v>
       </c>
       <c r="M41" s="2" t="s">
@@ -2164,16 +2218,23 @@
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L42" t="s">
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1" t="s">
         <v>80</v>
       </c>
       <c r="M42" s="2" t="s">
@@ -2181,19 +2242,25 @@
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K43" t="s">
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" s="1" t="s">
         <v>61</v>
       </c>
       <c r="M43" s="2" t="s">
@@ -2201,16 +2268,23 @@
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L44" t="s">
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1" t="s">
         <v>62</v>
       </c>
       <c r="M44" s="2" t="s">
@@ -2218,19 +2292,25 @@
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K45" t="s">
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45" s="1" t="s">
         <v>121</v>
       </c>
       <c r="M45" s="2" t="s">
@@ -2238,66 +2318,91 @@
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L46" t="s">
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1" t="s">
         <v>80</v>
       </c>
       <c r="M46" s="4"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K47" t="s">
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L47" s="1" t="s">
         <v>122</v>
       </c>
       <c r="M47" s="4"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D48" s="2"/>
-      <c r="H48" t="s">
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="L48" t="s">
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1" t="s">
         <v>80</v>
       </c>
       <c r="M48" s="4"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D49" s="2"/>
-      <c r="K49" t="s">
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L49" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M49" s="2" t="s">
@@ -2305,51 +2410,81 @@
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D50" s="2"/>
-      <c r="L50" t="s">
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1" t="s">
         <v>124</v>
       </c>
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D51" s="2"/>
-      <c r="K51" t="s">
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L51" s="1" t="s">
         <v>125</v>
       </c>
       <c r="M51" s="4"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H52" t="s">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="L52" t="s">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M52" s="4"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K53" t="s">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L53" s="1" t="s">
         <v>82</v>
       </c>
       <c r="M53" s="2" t="s">
@@ -2358,20 +2493,20 @@
     </row>
     <row r="58" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="14"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="35"/>
     </row>
     <row r="60" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
@@ -2436,7 +2571,9 @@
       <c r="G62" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J62" s="11"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="41"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1" t="s">
         <v>184</v>
@@ -2464,7 +2601,9 @@
       <c r="G63" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J63" s="11"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="41"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1" t="s">
         <v>185</v>
@@ -2492,7 +2631,9 @@
       <c r="G64" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J64" s="11"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="41"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1" t="s">
         <v>186</v>
@@ -2520,7 +2661,9 @@
       <c r="G65" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J65" s="11"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="41"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1" t="s">
         <v>187</v>
@@ -2548,7 +2691,9 @@
       <c r="G66" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J66" s="11"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="41"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1" t="s">
         <v>188</v>
@@ -2576,6 +2721,9 @@
       <c r="G67" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1" t="s">
         <v>189</v>
@@ -2603,6 +2751,9 @@
       <c r="G68" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1" t="s">
         <v>199</v>
@@ -2630,6 +2781,9 @@
       <c r="G69" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1" t="s">
         <v>197</v>
@@ -2657,6 +2811,9 @@
       <c r="G70" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1" t="s">
         <v>198</v>
@@ -2684,6 +2841,9 @@
       <c r="G71" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1" t="s">
         <v>190</v>
@@ -2702,7 +2862,12 @@
       <c r="D72" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G72" s="11"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1" t="s">
         <v>191</v>
@@ -2721,7 +2886,12 @@
       <c r="D73" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G73" s="11"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1" t="s">
         <v>192</v>
@@ -2740,7 +2910,12 @@
       <c r="D74" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G74" s="11"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1" t="s">
         <v>193</v>
@@ -2759,6 +2934,12 @@
       <c r="D75" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1" t="s">
         <v>194</v>
@@ -2768,7 +2949,21 @@
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D76" s="11"/>
+      <c r="B76" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1" t="s">
         <v>195</v>
@@ -2778,7 +2973,15 @@
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D77" s="11"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1" t="s">
         <v>196</v>

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED70926E-67CB-4DEE-8718-9DD28A118087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DCC35F-B791-4C6B-81C3-A94418699C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
@@ -929,6 +929,8 @@
     <xf numFmtId="2" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -953,8 +955,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1271,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:X85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1314,13 +1314,13 @@
       </c>
     </row>
     <row r="6" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q6" s="38" t="s">
+      <c r="Q6" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="40"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="42"/>
       <c r="V6" s="31" t="s">
         <v>183</v>
       </c>
@@ -1336,10 +1336,10 @@
       <c r="Q7" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="R7" s="36" t="s">
+      <c r="R7" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="S7" s="37"/>
+      <c r="S7" s="39"/>
       <c r="T7" s="21" t="s">
         <v>177</v>
       </c>
@@ -1642,7 +1642,7 @@
       <c r="S21" s="19">
         <v>0.99652777777777779</v>
       </c>
-      <c r="T21" s="42">
+      <c r="T21" s="34">
         <f t="shared" si="0"/>
         <v>5.25</v>
       </c>
@@ -1675,20 +1675,20 @@
       <c r="U24" s="14"/>
     </row>
     <row r="25" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="37"/>
       <c r="Q25" s="18"/>
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
@@ -2187,7 +2187,7 @@
       <c r="L40" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2493,20 +2493,20 @@
     </row>
     <row r="58" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="33" t="s">
+      <c r="B59" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="34"/>
-      <c r="L59" s="34"/>
-      <c r="M59" s="35"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="37"/>
     </row>
     <row r="60" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="41"/>
+      <c r="J62" s="33"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1" t="s">
         <v>184</v>
@@ -2603,7 +2603,7 @@
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="41"/>
+      <c r="J63" s="33"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1" t="s">
         <v>185</v>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="41"/>
+      <c r="J64" s="33"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1" t="s">
         <v>186</v>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="41"/>
+      <c r="J65" s="33"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1" t="s">
         <v>187</v>
@@ -2693,7 +2693,7 @@
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="41"/>
+      <c r="J66" s="33"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1" t="s">
         <v>188</v>
@@ -2864,7 +2864,7 @@
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="41"/>
+      <c r="G72" s="33"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="41"/>
+      <c r="G73" s="33"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="41"/>
+      <c r="G74" s="33"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -2975,7 +2975,7 @@
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="41"/>
+      <c r="D77" s="33"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\Endgültiges\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasKonrad\Documents\GitHub\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED70926E-67CB-4DEE-8718-9DD28A118087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F0840D-8EFA-4B72-8DFB-DCCA6796AE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
+    <workbookView xWindow="-57720" yWindow="-3855" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="240">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -647,13 +647,121 @@
   </si>
   <si>
     <t>p1015</t>
+  </si>
+  <si>
+    <t>Solar auf Davits (Papamobil)</t>
+  </si>
+  <si>
+    <t>p2001</t>
+  </si>
+  <si>
+    <t>p2002</t>
+  </si>
+  <si>
+    <t>p2003</t>
+  </si>
+  <si>
+    <t>p2004</t>
+  </si>
+  <si>
+    <t>p2005</t>
+  </si>
+  <si>
+    <t>p2006</t>
+  </si>
+  <si>
+    <t>p2007</t>
+  </si>
+  <si>
+    <t>p2008</t>
+  </si>
+  <si>
+    <t>p2009</t>
+  </si>
+  <si>
+    <t>p2010</t>
+  </si>
+  <si>
+    <t>p2011</t>
+  </si>
+  <si>
+    <t>p2012</t>
+  </si>
+  <si>
+    <t>p2013</t>
+  </si>
+  <si>
+    <t>p2014</t>
+  </si>
+  <si>
+    <t>p2015</t>
+  </si>
+  <si>
+    <t>a2001</t>
+  </si>
+  <si>
+    <t>a2002</t>
+  </si>
+  <si>
+    <t>a2003</t>
+  </si>
+  <si>
+    <t>a2004</t>
+  </si>
+  <si>
+    <t>a2005</t>
+  </si>
+  <si>
+    <t>a2006</t>
+  </si>
+  <si>
+    <t>a2007</t>
+  </si>
+  <si>
+    <t>a2008</t>
+  </si>
+  <si>
+    <t>a2009</t>
+  </si>
+  <si>
+    <t>a2010</t>
+  </si>
+  <si>
+    <t>a2011</t>
+  </si>
+  <si>
+    <t>a2012</t>
+  </si>
+  <si>
+    <t>a2013</t>
+  </si>
+  <si>
+    <t>a2014</t>
+  </si>
+  <si>
+    <t>a2015</t>
+  </si>
+  <si>
+    <t>HauptBauGruppe</t>
+  </si>
+  <si>
+    <t>Grundplatte Steher vorne</t>
+  </si>
+  <si>
+    <t>Vertikaler Steher vorne/hinten</t>
+  </si>
+  <si>
+    <t>Horizontale Strebe</t>
+  </si>
+  <si>
+    <t>Befestigung hinten</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,6 +771,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -895,7 +1010,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -929,6 +1044,8 @@
     <xf numFmtId="2" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -953,8 +1070,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1269,10 +1385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
-  <dimension ref="B3:X85"/>
+  <dimension ref="B3:X101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1314,13 +1430,13 @@
       </c>
     </row>
     <row r="6" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q6" s="38" t="s">
+      <c r="Q6" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="40"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="42"/>
       <c r="V6" s="31" t="s">
         <v>183</v>
       </c>
@@ -1336,10 +1452,10 @@
       <c r="Q7" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="R7" s="36" t="s">
+      <c r="R7" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="S7" s="37"/>
+      <c r="S7" s="39"/>
       <c r="T7" s="21" t="s">
         <v>177</v>
       </c>
@@ -1642,7 +1758,7 @@
       <c r="S21" s="19">
         <v>0.99652777777777779</v>
       </c>
-      <c r="T21" s="42">
+      <c r="T21" s="34">
         <f t="shared" si="0"/>
         <v>5.25</v>
       </c>
@@ -1675,20 +1791,20 @@
       <c r="U24" s="14"/>
     </row>
     <row r="25" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="37"/>
       <c r="Q25" s="18"/>
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
@@ -2493,20 +2609,20 @@
     </row>
     <row r="58" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="33" t="s">
+      <c r="B59" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="34"/>
-      <c r="L59" s="34"/>
-      <c r="M59" s="35"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="37"/>
     </row>
     <row r="60" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
@@ -2573,7 +2689,7 @@
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="41"/>
+      <c r="J62" s="33"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1" t="s">
         <v>184</v>
@@ -2603,7 +2719,7 @@
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="41"/>
+      <c r="J63" s="33"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1" t="s">
         <v>185</v>
@@ -2633,7 +2749,7 @@
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="41"/>
+      <c r="J64" s="33"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1" t="s">
         <v>186</v>
@@ -2663,7 +2779,7 @@
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="41"/>
+      <c r="J65" s="33"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1" t="s">
         <v>187</v>
@@ -2693,7 +2809,7 @@
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="41"/>
+      <c r="J66" s="33"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1" t="s">
         <v>188</v>
@@ -2864,7 +2980,7 @@
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="41"/>
+      <c r="G72" s="33"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -2888,7 +3004,7 @@
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="41"/>
+      <c r="G73" s="33"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -2912,7 +3028,7 @@
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="41"/>
+      <c r="G74" s="33"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -2975,7 +3091,7 @@
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="41"/>
+      <c r="D77" s="33"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -3002,32 +3118,368 @@
       <c r="D80" s="11"/>
       <c r="M80" s="11"/>
     </row>
-    <row r="81" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D81" s="11"/>
-      <c r="M81" s="11"/>
-    </row>
-    <row r="82" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D82" s="11"/>
-      <c r="M82" s="11"/>
-    </row>
-    <row r="83" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D83" s="11"/>
-      <c r="M83" s="11"/>
-    </row>
-    <row r="84" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D84" s="11"/>
-      <c r="M84" s="11"/>
-    </row>
-    <row r="85" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D85" s="11"/>
-      <c r="M85" s="11"/>
+    <row r="82" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="37"/>
+    </row>
+    <row r="84" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K84" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L84" s="9"/>
+      <c r="M84" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D86" s="43"/>
+      <c r="E86" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G86" s="33"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="33"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="33"/>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D87" s="43"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G87" s="33"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="33"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="33"/>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D88" s="43"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G88" s="33"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="33"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="33"/>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D89" s="43"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G89" s="33"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="33"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="33"/>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D90" s="43"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G90" s="33"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="33"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="33"/>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D91" s="43"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G91" s="33"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="33"/>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D92" s="43"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G92" s="33"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="33"/>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D93" s="43"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G93" s="33"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="33"/>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D94" s="43"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G94" s="33"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="33"/>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D95" s="43"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G95" s="33"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="33"/>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D96" s="43"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G96" s="33"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="33"/>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D97" s="43"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G97" s="33"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="33"/>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D98" s="43"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G98" s="33"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="33"/>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D99" s="43"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="33"/>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D100" s="43"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="33"/>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B25:M25"/>
     <mergeCell ref="B59:M59"/>
     <mergeCell ref="R7:S7"/>
     <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="B83:M83"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\Endgültiges\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasKonrad\Documents\GitHub\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DCC35F-B791-4C6B-81C3-A94418699C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1B34D9-D13F-4862-A55F-301F9B5A9403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
+    <workbookView xWindow="-57720" yWindow="-3855" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="230">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -647,6 +647,84 @@
   </si>
   <si>
     <t>p1015</t>
+  </si>
+  <si>
+    <t>p2001</t>
+  </si>
+  <si>
+    <t>p2002</t>
+  </si>
+  <si>
+    <t>p2003</t>
+  </si>
+  <si>
+    <t>p2004</t>
+  </si>
+  <si>
+    <t>p2005</t>
+  </si>
+  <si>
+    <t>p2006</t>
+  </si>
+  <si>
+    <t>p2007</t>
+  </si>
+  <si>
+    <t>p2008</t>
+  </si>
+  <si>
+    <t>p2009</t>
+  </si>
+  <si>
+    <t>p2010</t>
+  </si>
+  <si>
+    <t>p2011</t>
+  </si>
+  <si>
+    <t>p2012</t>
+  </si>
+  <si>
+    <t>p2013</t>
+  </si>
+  <si>
+    <t>p2014</t>
+  </si>
+  <si>
+    <t>p2015</t>
+  </si>
+  <si>
+    <t>a2001</t>
+  </si>
+  <si>
+    <t>a2002</t>
+  </si>
+  <si>
+    <t>a2003</t>
+  </si>
+  <si>
+    <t>a2004</t>
+  </si>
+  <si>
+    <t>a2005</t>
+  </si>
+  <si>
+    <t>a2006</t>
+  </si>
+  <si>
+    <t>a2007</t>
+  </si>
+  <si>
+    <t>a2008</t>
+  </si>
+  <si>
+    <t>a2009</t>
+  </si>
+  <si>
+    <t>a2010</t>
+  </si>
+  <si>
+    <t>Solar auf Davits (Papamobil)</t>
   </si>
 </sst>
 </file>
@@ -1269,10 +1347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
-  <dimension ref="B3:X85"/>
+  <dimension ref="B3:X101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3002,32 +3080,355 @@
       <c r="D80" s="11"/>
       <c r="M80" s="11"/>
     </row>
-    <row r="81" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D81" s="11"/>
       <c r="M81" s="11"/>
     </row>
-    <row r="82" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="11"/>
       <c r="M82" s="11"/>
     </row>
-    <row r="83" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D83" s="11"/>
-      <c r="M83" s="11"/>
-    </row>
-    <row r="84" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D84" s="11"/>
-      <c r="M84" s="11"/>
-    </row>
-    <row r="85" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D85" s="11"/>
-      <c r="M85" s="11"/>
+    <row r="83" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="37"/>
+    </row>
+    <row r="84" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K84" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L84" s="9"/>
+      <c r="M84" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D86" s="33"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G86" s="33"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="33"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="33"/>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D87" s="33"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G87" s="33"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="33"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="33"/>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D88" s="33"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G88" s="33"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="33"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="33"/>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D89" s="33"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G89" s="33"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="33"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="33"/>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D90" s="33"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G90" s="33"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="33"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="33"/>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D91" s="33"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G91" s="33"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="33"/>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D92" s="33"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G92" s="33"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="33"/>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D93" s="33"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G93" s="33"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="33"/>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D94" s="33"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G94" s="33"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="33"/>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D95" s="33"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G95" s="33"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="33"/>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D96" s="33"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="33"/>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D97" s="33"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="33"/>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D98" s="33"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="33"/>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D99" s="33"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="33"/>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D100" s="33"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="33"/>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B25:M25"/>
     <mergeCell ref="B59:M59"/>
     <mergeCell ref="R7:S7"/>
     <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="B83:M83"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasKonrad\Documents\GitHub\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1B34D9-D13F-4862-A55F-301F9B5A9403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29A4A81-1CD8-42AE-9390-D4C6E86A4CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-3855" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="235">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -725,6 +725,21 @@
   </si>
   <si>
     <t>Solar auf Davits (Papamobil)</t>
+  </si>
+  <si>
+    <t>HauptBauGruppe</t>
+  </si>
+  <si>
+    <t>Vertikaler Steher vorne/hinten</t>
+  </si>
+  <si>
+    <t>Grundplatte vorne</t>
+  </si>
+  <si>
+    <t>Horizontale Strebe</t>
+  </si>
+  <si>
+    <t>Fixierung hinten Blechteil</t>
   </si>
 </sst>
 </file>
@@ -1349,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:X101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3149,12 +3164,16 @@
       <c r="M85" s="7"/>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="B86" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="C86" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D86" s="33"/>
-      <c r="E86" s="1"/>
+      <c r="E86" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="F86" s="1" t="s">
         <v>219</v>
       </c>
@@ -3167,7 +3186,9 @@
       <c r="M86" s="33"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="B87" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="C87" s="1" t="s">
         <v>205</v>
       </c>
@@ -3185,7 +3206,9 @@
       <c r="M87" s="33"/>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="B88" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="C88" s="1" t="s">
         <v>206</v>
       </c>
@@ -3203,7 +3226,9 @@
       <c r="M88" s="33"/>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="B89" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="C89" s="1" t="s">
         <v>207</v>
       </c>

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasKonrad\Documents\GitHub\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29A4A81-1CD8-42AE-9390-D4C6E86A4CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2CA9BE-AF26-4B1E-9D65-86269C2E4758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-3855" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasKonrad\Documents\GitHub\Maturaprojekt\Endgültiges\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2CA9BE-AF26-4B1E-9D65-86269C2E4758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426BFF54-BA07-4BB8-92CC-5DB8CC8CB2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-3855" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="236">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -740,6 +740,9 @@
   </si>
   <si>
     <t>Fixierung hinten Blechteil</t>
+  </si>
+  <si>
+    <t>asdasd</t>
   </si>
 </sst>
 </file>
@@ -1364,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:X101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P59" sqref="P59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2478,7 +2481,7 @@
       </c>
       <c r="M48" s="4"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>101</v>
       </c>
@@ -2502,7 +2505,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>102</v>
       </c>
@@ -2522,7 +2525,7 @@
       </c>
       <c r="M50" s="4"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>103</v>
       </c>
@@ -2544,7 +2547,7 @@
       </c>
       <c r="M51" s="4"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2564,7 +2567,7 @@
       </c>
       <c r="M52" s="4"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2584,8 +2587,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="35" t="s">
         <v>116</v>
       </c>
@@ -2601,7 +2609,7 @@
       <c r="L59" s="36"/>
       <c r="M59" s="37"/>
     </row>
-    <row r="60" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>37</v>
       </c>
@@ -2631,7 +2639,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2645,7 +2653,7 @@
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>155</v>
       </c>
@@ -2675,7 +2683,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>166</v>
       </c>
@@ -2705,7 +2713,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>163</v>
       </c>

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasKonrad\Documents\GitHub\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2CA9BE-AF26-4B1E-9D65-86269C2E4758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BA564E-7D8B-4648-A242-B234247D33F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-3855" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
+    <workbookView xWindow="-28920" yWindow="-5565" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="236">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -740,6 +740,9 @@
   </si>
   <si>
     <t>Fixierung hinten Blechteil</t>
+  </si>
+  <si>
+    <t>jjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjj</t>
   </si>
 </sst>
 </file>
@@ -1362,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
-  <dimension ref="B3:X101"/>
+  <dimension ref="B3:X106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J113" sqref="J113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3447,6 +3450,11 @@
       <c r="L101" s="1"/>
       <c r="M101" s="33"/>
     </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H106" t="s">
+        <v>235</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B25:M25"/>

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasKonrad\Documents\GitHub\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BA564E-7D8B-4648-A242-B234247D33F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0B6F0E-DE12-48B2-97F5-7D74631E7029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-5565" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
+    <workbookView xWindow="-57720" yWindow="-3855" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="237">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -730,9 +730,6 @@
     <t>HauptBauGruppe</t>
   </si>
   <si>
-    <t>Vertikaler Steher vorne/hinten</t>
-  </si>
-  <si>
     <t>Grundplatte vorne</t>
   </si>
   <si>
@@ -742,7 +739,13 @@
     <t>Fixierung hinten Blechteil</t>
   </si>
   <si>
-    <t>jjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjjj</t>
+    <t>BG_unten_geschweißt</t>
+  </si>
+  <si>
+    <t>Vertikaler Steher vorne</t>
+  </si>
+  <si>
+    <t>Vertikaler Steher hinten</t>
   </si>
 </sst>
 </file>
@@ -1365,10 +1368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
-  <dimension ref="B3:X106"/>
+  <dimension ref="B3:X101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J113" sqref="J113"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3168,7 +3171,7 @@
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>204</v>
@@ -3190,13 +3193,15 @@
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>205</v>
       </c>
       <c r="D87" s="33"/>
-      <c r="E87" s="1"/>
+      <c r="E87" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="F87" s="1" t="s">
         <v>220</v>
       </c>
@@ -3210,7 +3215,7 @@
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>206</v>
@@ -3230,7 +3235,7 @@
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>207</v>
@@ -3249,7 +3254,9 @@
       <c r="M89" s="33"/>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="B90" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="C90" s="1" t="s">
         <v>208</v>
       </c>
@@ -3450,11 +3457,6 @@
       <c r="L101" s="1"/>
       <c r="M101" s="33"/>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H106" t="s">
-        <v>235</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B25:M25"/>

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasKonrad\Documents\GitHub\Maturaprojekt\Endgültiges\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0B6F0E-DE12-48B2-97F5-7D74631E7029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EEF6CF-0F64-452E-8F4E-F1263EBAC842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-3855" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="278">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -746,6 +746,129 @@
   </si>
   <si>
     <t>Vertikaler Steher hinten</t>
+  </si>
+  <si>
+    <t>Silentwind</t>
+  </si>
+  <si>
+    <t>Halteblech_Windgenerator</t>
+  </si>
+  <si>
+    <t>p3001</t>
+  </si>
+  <si>
+    <t>Alles SB</t>
+  </si>
+  <si>
+    <t>a3001</t>
+  </si>
+  <si>
+    <t>p3001_d_L</t>
+  </si>
+  <si>
+    <t>Flansch unten Hauptstange</t>
+  </si>
+  <si>
+    <t>p3002</t>
+  </si>
+  <si>
+    <t>Alles BB</t>
+  </si>
+  <si>
+    <t>a3002</t>
+  </si>
+  <si>
+    <t>sb noch spiegeln</t>
+  </si>
+  <si>
+    <t>p3001_d_K</t>
+  </si>
+  <si>
+    <t>hauptstange</t>
+  </si>
+  <si>
+    <t>p3003</t>
+  </si>
+  <si>
+    <t>Silentwind 400+</t>
+  </si>
+  <si>
+    <t>a3003</t>
+  </si>
+  <si>
+    <t>Windgenerator body</t>
+  </si>
+  <si>
+    <t>p3004</t>
+  </si>
+  <si>
+    <t>Stange und Flansch</t>
+  </si>
+  <si>
+    <t>a3004</t>
+  </si>
+  <si>
+    <t>Windgenerator kopf</t>
+  </si>
+  <si>
+    <t>p3005</t>
+  </si>
+  <si>
+    <t>a3005</t>
+  </si>
+  <si>
+    <t>p3006</t>
+  </si>
+  <si>
+    <t>a3006</t>
+  </si>
+  <si>
+    <t>p3007</t>
+  </si>
+  <si>
+    <t>a3007</t>
+  </si>
+  <si>
+    <t>p3008</t>
+  </si>
+  <si>
+    <t>a3008</t>
+  </si>
+  <si>
+    <t>p3009</t>
+  </si>
+  <si>
+    <t>a3009</t>
+  </si>
+  <si>
+    <t>p3010</t>
+  </si>
+  <si>
+    <t>a3010</t>
+  </si>
+  <si>
+    <t>p3011</t>
+  </si>
+  <si>
+    <t>a3011</t>
+  </si>
+  <si>
+    <t>p3012</t>
+  </si>
+  <si>
+    <t>a3012</t>
+  </si>
+  <si>
+    <t>p3013</t>
+  </si>
+  <si>
+    <t>a3013</t>
+  </si>
+  <si>
+    <t>p3014</t>
+  </si>
+  <si>
+    <t>a3014</t>
   </si>
 </sst>
 </file>
@@ -1368,10 +1491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
-  <dimension ref="B3:X101"/>
+  <dimension ref="B3:X126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+      <selection activeCell="G81" activeCellId="1" sqref="O102 G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3457,8 +3580,416 @@
       <c r="L101" s="1"/>
       <c r="M101" s="33"/>
     </row>
+    <row r="107" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="108" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="C108" s="36"/>
+      <c r="D108" s="36"/>
+      <c r="E108" s="36"/>
+      <c r="F108" s="36"/>
+      <c r="G108" s="36"/>
+      <c r="H108" s="36"/>
+      <c r="I108" s="36"/>
+      <c r="J108" s="36"/>
+      <c r="K108" s="36"/>
+      <c r="L108" s="36"/>
+      <c r="M108" s="37"/>
+    </row>
+    <row r="109" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K109" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L109" s="9"/>
+      <c r="M109" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="7"/>
+      <c r="M110" s="7"/>
+    </row>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="M111" s="4"/>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E112" t="s">
+        <v>245</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" t="s">
+        <v>248</v>
+      </c>
+      <c r="M112" s="4"/>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M113" s="1"/>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B114" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M114" s="1"/>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="M115" s="1"/>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B116" s="1"/>
+      <c r="C116" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="M116" s="1"/>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B117" s="1"/>
+      <c r="C117" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="M117" s="1"/>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B118" s="1"/>
+      <c r="C118" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M118" s="1"/>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B119" s="1"/>
+      <c r="C119" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M119" s="1"/>
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B120" s="1"/>
+      <c r="C120" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="M120" s="1"/>
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B121" s="1"/>
+      <c r="C121" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="M121" s="1"/>
+    </row>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B122" s="1"/>
+      <c r="C122" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="M122" s="1"/>
+    </row>
+    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B123" s="1"/>
+      <c r="C123" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="M123" s="1"/>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B124" s="1"/>
+      <c r="C124" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="M124" s="1"/>
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="M125" s="1"/>
+    </row>
+    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B108:M108"/>
     <mergeCell ref="B25:M25"/>
     <mergeCell ref="B59:M59"/>
     <mergeCell ref="R7:S7"/>

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EEF6CF-0F64-452E-8F4E-F1263EBAC842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF5B794-283D-4CBC-BD1E-B0480A73F525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="280">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -869,6 +869,12 @@
   </si>
   <si>
     <t>a3014</t>
+  </si>
+  <si>
+    <t>cre</t>
+  </si>
+  <si>
+    <t>p3001_d_S</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1177,6 +1183,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1493,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:X126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G81" activeCellId="1" sqref="O102 G81"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1547,8 +1554,8 @@
         <v>183</v>
       </c>
       <c r="W6" s="32">
-        <f>SUM(T9:T21)</f>
-        <v>58.083333333333329</v>
+        <f>SUM(T9:T27)</f>
+        <v>77.166666666666657</v>
       </c>
     </row>
     <row r="7" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1623,7 +1630,7 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="T11" s="27">
-        <f t="shared" ref="T11:T21" si="0">(S11-R11)*24</f>
+        <f t="shared" ref="T11:T27" si="0">(S11-R11)*24</f>
         <v>7.9999999999999982</v>
       </c>
       <c r="U11" s="13"/>
@@ -1760,7 +1767,7 @@
       </c>
       <c r="U16" s="14"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>55</v>
       </c>
@@ -1784,8 +1791,11 @@
         <v>5.166666666666667</v>
       </c>
       <c r="U17" s="13"/>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="X17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>56</v>
       </c>
@@ -1814,7 +1824,7 @@
       </c>
       <c r="U18" s="14"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="Q19" s="18">
         <v>44838</v>
       </c>
@@ -1830,7 +1840,7 @@
       </c>
       <c r="U19" s="13"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="E20" s="3"/>
       <c r="F20" s="1" t="s">
         <v>63</v>
@@ -1850,7 +1860,7 @@
       </c>
       <c r="U20" s="28"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="E21" s="2"/>
       <c r="F21" s="1" t="s">
         <v>65</v>
@@ -1870,33 +1880,60 @@
       </c>
       <c r="U21" s="13"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="E22" s="4"/>
       <c r="F22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
+      <c r="Q22" s="17">
+        <v>44840</v>
+      </c>
+      <c r="R22" s="25">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="S22" s="25">
+        <v>0.98263888888888884</v>
+      </c>
+      <c r="T22" s="30">
+        <f t="shared" si="0"/>
+        <v>3.4166666666666652</v>
+      </c>
       <c r="U22" s="14"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="Q23" s="18"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Q23" s="18">
+        <v>44841</v>
+      </c>
+      <c r="R23" s="19">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="S23" s="19">
+        <v>0.98958333333333337</v>
+      </c>
+      <c r="T23" s="34">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000018</v>
+      </c>
       <c r="U23" s="13"/>
     </row>
-    <row r="24" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N24" s="6"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
+      <c r="Q24" s="17">
+        <v>44842</v>
+      </c>
+      <c r="R24" s="25">
+        <v>0.34375</v>
+      </c>
+      <c r="S24" s="25">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="T24" s="30">
+        <f t="shared" si="0"/>
+        <v>3.6666666666666656</v>
+      </c>
       <c r="U24" s="14"/>
     </row>
-    <row r="25" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="35" t="s">
         <v>115</v>
       </c>
@@ -1911,13 +1948,22 @@
       <c r="K25" s="36"/>
       <c r="L25" s="36"/>
       <c r="M25" s="37"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
+      <c r="Q25" s="18">
+        <v>44842</v>
+      </c>
+      <c r="R25" s="19">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="S25" s="19">
+        <v>0.94444444444444453</v>
+      </c>
+      <c r="T25" s="34">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
       <c r="U25" s="13"/>
     </row>
-    <row r="26" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>37</v>
       </c>
@@ -1954,13 +2000,22 @@
       <c r="M26" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
+      <c r="Q26" s="17">
+        <v>44843</v>
+      </c>
+      <c r="R26" s="25">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="S26" s="25">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="T26" s="30">
+        <f t="shared" si="0"/>
+        <v>2.9166666666666696</v>
+      </c>
       <c r="U26" s="14"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1973,13 +2028,22 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
+      <c r="Q27" s="18">
+        <v>44844</v>
+      </c>
+      <c r="R27" s="19">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="S27" s="19">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="T27" s="34">
+        <f t="shared" si="0"/>
+        <v>2.8333333333333339</v>
+      </c>
       <c r="U27" s="13"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>83</v>
       </c>
@@ -2021,7 +2085,7 @@
       <c r="T28" s="14"/>
       <c r="U28" s="14"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>84</v>
       </c>
@@ -2063,7 +2127,7 @@
       <c r="T29" s="12"/>
       <c r="U29" s="13"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
@@ -2104,7 +2168,7 @@
       <c r="T30" s="25"/>
       <c r="U30" s="14"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
@@ -2136,7 +2200,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>9</v>
       </c>
@@ -3720,10 +3784,10 @@
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
-      <c r="L113" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="M113" s="1"/>
+      <c r="L113" t="s">
+        <v>279</v>
+      </c>
+      <c r="M113" s="43"/>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
@@ -3749,9 +3813,9 @@
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="M114" s="1"/>
+        <v>244</v>
+      </c>
+      <c r="M114" s="4"/>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
@@ -3773,9 +3837,9 @@
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="M115" s="1"/>
+        <v>250</v>
+      </c>
+      <c r="M115" s="4"/>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
@@ -3793,9 +3857,11 @@
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="M116" s="1"/>
+        <v>254</v>
+      </c>
+      <c r="M116" s="4" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
@@ -3813,9 +3879,11 @@
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="M117" s="1"/>
+        <v>258</v>
+      </c>
+      <c r="M117" s="4" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
@@ -3833,7 +3901,7 @@
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M118" s="1"/>
     </row>
@@ -3853,7 +3921,7 @@
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M119" s="1"/>
     </row>
@@ -3873,7 +3941,7 @@
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M120" s="1"/>
     </row>
@@ -3893,7 +3961,7 @@
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M121" s="1"/>
     </row>
@@ -3913,7 +3981,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M122" s="1"/>
     </row>
@@ -3933,7 +4001,7 @@
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M123" s="1"/>
     </row>
@@ -3953,7 +4021,7 @@
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M124" s="1"/>
     </row>
@@ -3969,7 +4037,7 @@
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M125" s="1"/>
     </row>
@@ -3984,7 +4052,9 @@
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
-      <c r="L126" s="1"/>
+      <c r="L126" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="M126" s="1"/>
     </row>
   </sheetData>

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF5B794-283D-4CBC-BD1E-B0480A73F525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71DF791-BBD4-4599-A396-BC73A9642BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="285">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -376,9 +376,6 @@
     <t>EINZELTEIL ZEICHNUNG</t>
   </si>
   <si>
-    <t>BAUGRUPPEN ZEICHNUNG</t>
-  </si>
-  <si>
     <t>Auflageblech Stange</t>
   </si>
   <si>
@@ -391,15 +388,6 @@
     <t>NAME</t>
   </si>
   <si>
-    <t>s0001</t>
-  </si>
-  <si>
-    <t>s0002</t>
-  </si>
-  <si>
-    <t>s0003</t>
-  </si>
-  <si>
     <t>p0014_D_L</t>
   </si>
   <si>
@@ -871,10 +859,37 @@
     <t>a3014</t>
   </si>
   <si>
-    <t>cre</t>
-  </si>
-  <si>
-    <t>p3001_d_S</t>
+    <t>einsatz für stange</t>
+  </si>
+  <si>
+    <t>p0025</t>
+  </si>
+  <si>
+    <t>p3002_d_l</t>
+  </si>
+  <si>
+    <t>Halteblech geschweißt</t>
+  </si>
+  <si>
+    <t>BAUGRUPPEN ZEICHNUNG (SCHWEIßEN)</t>
+  </si>
+  <si>
+    <t>a0014</t>
+  </si>
+  <si>
+    <t>a0005_d_s</t>
+  </si>
+  <si>
+    <t>a0006_d_s</t>
+  </si>
+  <si>
+    <t>a0014_d_s</t>
+  </si>
+  <si>
+    <t>a3004_d_s</t>
+  </si>
+  <si>
+    <t>p3001_d_s</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1183,7 +1198,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1500,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:X126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H104" sqref="H104"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O115" sqref="O115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,8 +1525,9 @@
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
@@ -1544,14 +1559,14 @@
     </row>
     <row r="6" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q6" s="40" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="R6" s="41"/>
       <c r="S6" s="41"/>
       <c r="T6" s="41"/>
       <c r="U6" s="42"/>
       <c r="V6" s="31" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="W6" s="32">
         <f>SUM(T9:T27)</f>
@@ -1563,26 +1578,26 @@
         <v>51</v>
       </c>
       <c r="Q7" s="21" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="R7" s="38" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="S7" s="39"/>
       <c r="T7" s="21" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="U7" s="21" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q8" s="23"/>
       <c r="R8" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="S8" s="20" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T8" s="24"/>
       <c r="U8" s="22"/>
@@ -1767,7 +1782,7 @@
       </c>
       <c r="U16" s="14"/>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>55</v>
       </c>
@@ -1791,11 +1806,8 @@
         <v>5.166666666666667</v>
       </c>
       <c r="U17" s="13"/>
-      <c r="X17" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>56</v>
       </c>
@@ -1824,7 +1836,7 @@
       </c>
       <c r="U18" s="14"/>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="Q19" s="18">
         <v>44838</v>
       </c>
@@ -1840,7 +1852,7 @@
       </c>
       <c r="U19" s="13"/>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E20" s="3"/>
       <c r="F20" s="1" t="s">
         <v>63</v>
@@ -1860,7 +1872,7 @@
       </c>
       <c r="U20" s="28"/>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E21" s="2"/>
       <c r="F21" s="1" t="s">
         <v>65</v>
@@ -1880,7 +1892,7 @@
       </c>
       <c r="U21" s="13"/>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E22" s="4"/>
       <c r="F22" s="1" t="s">
         <v>64</v>
@@ -1900,7 +1912,7 @@
       </c>
       <c r="U22" s="14"/>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="Q23" s="18">
         <v>44841</v>
       </c>
@@ -1916,7 +1928,7 @@
       </c>
       <c r="U23" s="13"/>
     </row>
-    <row r="24" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N24" s="6"/>
       <c r="Q24" s="17">
         <v>44842</v>
@@ -1933,9 +1945,9 @@
       </c>
       <c r="U24" s="14"/>
     </row>
-    <row r="25" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
@@ -1963,12 +1975,12 @@
       </c>
       <c r="U25" s="13"/>
     </row>
-    <row r="26" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>111</v>
@@ -1977,16 +1989,16 @@
         <v>38</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>111</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>113</v>
+        <v>278</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>111</v>
@@ -1995,7 +2007,7 @@
         <v>112</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M26" s="10" t="s">
         <v>111</v>
@@ -2015,7 +2027,7 @@
       </c>
       <c r="U26" s="14"/>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -2043,7 +2055,7 @@
       </c>
       <c r="U27" s="13"/>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>83</v>
       </c>
@@ -2066,7 +2078,7 @@
         <v>85</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>118</v>
+        <v>280</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="1" t="s">
@@ -2085,7 +2097,7 @@
       <c r="T28" s="14"/>
       <c r="U28" s="14"/>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>84</v>
       </c>
@@ -2108,7 +2120,7 @@
         <v>86</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>119</v>
+        <v>281</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="1" t="s">
@@ -2127,7 +2139,7 @@
       <c r="T29" s="12"/>
       <c r="U29" s="13"/>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
@@ -2147,10 +2159,10 @@
         <v>46</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>120</v>
+        <v>282</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="1" t="s">
@@ -2168,7 +2180,7 @@
       <c r="T30" s="25"/>
       <c r="U30" s="14"/>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
@@ -2200,7 +2212,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>9</v>
       </c>
@@ -2463,7 +2475,9 @@
       <c r="F40" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G40" s="2"/>
+      <c r="G40" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -2473,7 +2487,7 @@
       <c r="L40" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M40" s="4" t="s">
+      <c r="M40" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2487,9 +2501,15 @@
       <c r="D41" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -2597,7 +2617,7 @@
         <v>33</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>46</v>
@@ -2645,7 +2665,7 @@
         <v>34</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M47" s="4"/>
     </row>
@@ -2661,7 +2681,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -2689,7 +2709,7 @@
         <v>35</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>46</v>
@@ -2711,7 +2731,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M50" s="4"/>
     </row>
@@ -2733,27 +2753,33 @@
         <v>36</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M51" s="4"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M52" s="4"/>
     </row>
@@ -2777,10 +2803,13 @@
         <v>46</v>
       </c>
     </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H56" s="11"/>
+    </row>
     <row r="58" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C59" s="36"/>
       <c r="D59" s="36"/>
@@ -2810,7 +2839,7 @@
         <v>111</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>113</v>
+        <v>278</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9" t="s">
@@ -2840,19 +2869,19 @@
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>46</v>
@@ -2862,7 +2891,7 @@
       <c r="J62" s="33"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>46</v>
@@ -2870,19 +2899,19 @@
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>46</v>
@@ -2892,7 +2921,7 @@
       <c r="J63" s="33"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>46</v>
@@ -2900,19 +2929,19 @@
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>46</v>
@@ -2922,7 +2951,7 @@
       <c r="J64" s="33"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>46</v>
@@ -2930,19 +2959,19 @@
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>46</v>
@@ -2952,7 +2981,7 @@
       <c r="J65" s="33"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>46</v>
@@ -2960,19 +2989,19 @@
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="F66" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>46</v>
@@ -2982,7 +3011,7 @@
       <c r="J66" s="33"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>46</v>
@@ -2990,19 +3019,19 @@
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>46</v>
@@ -3012,7 +3041,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>46</v>
@@ -3020,19 +3049,19 @@
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>46</v>
@@ -3042,7 +3071,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>46</v>
@@ -3050,19 +3079,19 @@
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>46</v>
@@ -3072,7 +3101,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M69" s="2" t="s">
         <v>46</v>
@@ -3080,19 +3109,19 @@
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>46</v>
@@ -3102,7 +3131,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M70" s="2" t="s">
         <v>46</v>
@@ -3110,19 +3139,19 @@
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>46</v>
@@ -3132,7 +3161,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>46</v>
@@ -3140,10 +3169,10 @@
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>46</v>
@@ -3156,7 +3185,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M72" s="2" t="s">
         <v>46</v>
@@ -3164,10 +3193,10 @@
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>46</v>
@@ -3180,7 +3209,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M73" s="2" t="s">
         <v>46</v>
@@ -3188,10 +3217,10 @@
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>46</v>
@@ -3204,18 +3233,18 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>46</v>
@@ -3228,18 +3257,18 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>46</v>
@@ -3252,7 +3281,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M76" s="2" t="s">
         <v>46</v>
@@ -3270,7 +3299,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M77" s="2" t="s">
         <v>46</v>
@@ -3298,7 +3327,7 @@
     </row>
     <row r="83" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="35" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C83" s="36"/>
       <c r="D83" s="36"/>
@@ -3328,7 +3357,7 @@
         <v>111</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>113</v>
+        <v>278</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9" t="s">
@@ -3358,17 +3387,17 @@
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D86" s="33"/>
       <c r="E86" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G86" s="33"/>
       <c r="H86" s="1"/>
@@ -3380,17 +3409,17 @@
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D87" s="33"/>
       <c r="E87" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G87" s="33"/>
       <c r="H87" s="1"/>
@@ -3402,15 +3431,15 @@
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D88" s="33"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G88" s="33"/>
       <c r="H88" s="1"/>
@@ -3422,15 +3451,15 @@
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D89" s="33"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G89" s="33"/>
       <c r="H89" s="1"/>
@@ -3442,15 +3471,15 @@
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D90" s="33"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G90" s="33"/>
       <c r="H90" s="1"/>
@@ -3463,12 +3492,12 @@
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D91" s="33"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G91" s="33"/>
       <c r="H91" s="1"/>
@@ -3481,12 +3510,12 @@
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D92" s="33"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G92" s="33"/>
       <c r="H92" s="1"/>
@@ -3499,12 +3528,12 @@
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D93" s="33"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G93" s="33"/>
       <c r="H93" s="1"/>
@@ -3517,12 +3546,12 @@
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D94" s="33"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G94" s="33"/>
       <c r="H94" s="1"/>
@@ -3535,12 +3564,12 @@
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D95" s="33"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G95" s="33"/>
       <c r="H95" s="1"/>
@@ -3553,7 +3582,7 @@
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D96" s="33"/>
       <c r="E96" s="1"/>
@@ -3569,7 +3598,7 @@
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D97" s="33"/>
       <c r="E97" s="1"/>
@@ -3585,7 +3614,7 @@
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D98" s="33"/>
       <c r="E98" s="1"/>
@@ -3601,7 +3630,7 @@
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D99" s="33"/>
       <c r="E99" s="1"/>
@@ -3617,7 +3646,7 @@
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D100" s="33"/>
       <c r="E100" s="1"/>
@@ -3647,7 +3676,7 @@
     <row r="107" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="108" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="35" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C108" s="36"/>
       <c r="D108" s="36"/>
@@ -3677,7 +3706,7 @@
         <v>111</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>113</v>
+        <v>278</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9" t="s">
@@ -3707,75 +3736,83 @@
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
+      <c r="H111" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M111" s="4"/>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E112" t="s">
+        <v>241</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G112" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E112" t="s">
-        <v>245</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
+      <c r="H112" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="L112" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M112" s="4"/>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>46</v>
@@ -3784,26 +3821,28 @@
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
-      <c r="L113" t="s">
-        <v>279</v>
-      </c>
-      <c r="M113" s="43"/>
+      <c r="L113" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>46</v>
@@ -3813,23 +3852,23 @@
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M114" s="4"/>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -3839,17 +3878,19 @@
       <c r="L115" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="M115" s="4"/>
+      <c r="M115" s="4" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
@@ -3860,18 +3901,18 @@
         <v>254</v>
       </c>
       <c r="M116" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -3879,21 +3920,19 @@
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="M117" s="4" t="s">
-        <v>200</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="M117" s="1"/>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -3901,19 +3940,19 @@
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M118" s="1"/>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -3921,19 +3960,19 @@
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M119" s="1"/>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -3941,19 +3980,19 @@
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M120" s="1"/>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
@@ -3961,19 +4000,19 @@
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M121" s="1"/>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
@@ -3981,19 +4020,19 @@
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M122" s="1"/>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
@@ -4001,19 +4040,19 @@
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M123" s="1"/>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -4021,7 +4060,7 @@
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M124" s="1"/>
     </row>
@@ -4037,7 +4076,7 @@
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M125" s="1"/>
     </row>
@@ -4052,9 +4091,7 @@
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
-      <c r="L126" s="1" t="s">
-        <v>276</v>
-      </c>
+      <c r="L126" s="1"/>
       <c r="M126" s="1"/>
     </row>
   </sheetData>

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71DF791-BBD4-4599-A396-BC73A9642BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDAF8EA-1773-4C65-84C1-699F677A111F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="285">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -1514,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:X126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O115" sqref="O115"/>
+    <sheetView tabSelected="1" topLeftCell="E54" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,13 +1523,13 @@
     <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -2889,7 +2889,9 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="33"/>
-      <c r="K62" s="1"/>
+      <c r="K62" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="L62" s="1" t="s">
         <v>180</v>
       </c>
@@ -2919,7 +2921,9 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="33"/>
-      <c r="K63" s="1"/>
+      <c r="K63" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="L63" s="1" t="s">
         <v>181</v>
       </c>
@@ -2949,7 +2953,9 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="33"/>
-      <c r="K64" s="1"/>
+      <c r="K64" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="L64" s="1" t="s">
         <v>182</v>
       </c>
@@ -2979,7 +2985,9 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="33"/>
-      <c r="K65" s="1"/>
+      <c r="K65" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="L65" s="1" t="s">
         <v>183</v>
       </c>
@@ -3009,7 +3017,9 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="33"/>
-      <c r="K66" s="1"/>
+      <c r="K66" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="L66" s="1" t="s">
         <v>184</v>
       </c>
@@ -3039,7 +3049,9 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
+      <c r="K67" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="L67" s="1" t="s">
         <v>185</v>
       </c>
@@ -3069,7 +3081,9 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
+      <c r="K68" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="L68" s="1" t="s">
         <v>195</v>
       </c>
@@ -3099,7 +3113,9 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
+      <c r="K69" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="L69" s="1" t="s">
         <v>193</v>
       </c>
@@ -3129,7 +3145,9 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
+      <c r="K70" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="L70" s="1" t="s">
         <v>194</v>
       </c>
@@ -3159,7 +3177,9 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
+      <c r="K71" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="L71" s="1" t="s">
         <v>186</v>
       </c>
@@ -3183,7 +3203,9 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
+      <c r="K72" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="L72" s="1" t="s">
         <v>187</v>
       </c>
@@ -3207,7 +3229,9 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
+      <c r="K73" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="L73" s="1" t="s">
         <v>188</v>
       </c>
@@ -3231,7 +3255,9 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
+      <c r="K74" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="L74" s="1" t="s">
         <v>189</v>
       </c>
@@ -3255,7 +3281,9 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
+      <c r="K75" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="L75" s="1" t="s">
         <v>190</v>
       </c>
@@ -3279,7 +3307,9 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
+      <c r="K76" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="L76" s="1" t="s">
         <v>191</v>
       </c>
@@ -3297,7 +3327,9 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
+      <c r="K77" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="L77" s="1" t="s">
         <v>192</v>
       </c>
@@ -3306,8 +3338,20 @@
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D78" s="11"/>
-      <c r="M78" s="11"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="33"/>
+      <c r="J78" s="33"/>
+      <c r="K78" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="L78" s="33"/>
+      <c r="M78" s="33"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D79" s="11"/>

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDAF8EA-1773-4C65-84C1-699F677A111F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7B0738-CAEA-4C93-83DD-82FA80090610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="277">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -551,30 +551,6 @@
   </si>
   <si>
     <t>Halterung_Ecke_Rohr_SB</t>
-  </si>
-  <si>
-    <t>Datum</t>
-  </si>
-  <si>
-    <t>Stunden</t>
-  </si>
-  <si>
-    <t>Uhrzeit</t>
-  </si>
-  <si>
-    <t>Tätigkeit</t>
-  </si>
-  <si>
-    <t>Schauer Alexander</t>
-  </si>
-  <si>
-    <t>von</t>
-  </si>
-  <si>
-    <t>bis</t>
-  </si>
-  <si>
-    <t>Gesammt Stunden:</t>
   </si>
   <si>
     <t>p1001_D</t>
@@ -911,7 +887,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -966,26 +942,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1060,85 +1018,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1151,29 +1035,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1183,21 +1046,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1514,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:X126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E54" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,103 +1404,67 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q6" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="W6" s="32">
-        <f>SUM(T9:T27)</f>
-        <v>77.166666666666657</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="17"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="R7" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="S7" s="39"/>
-      <c r="T7" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="U7" s="21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q8" s="23"/>
-      <c r="R8" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="S8" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="T8" s="24"/>
-      <c r="U8" s="22"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="Q9" s="16">
-        <v>44828</v>
-      </c>
-      <c r="R9" s="26">
-        <v>0.38194444444444442</v>
-      </c>
-      <c r="S9" s="26">
-        <v>0.60763888888888895</v>
-      </c>
-      <c r="T9" s="27">
-        <f>(S9-R9)*24</f>
-        <v>5.4166666666666687</v>
-      </c>
-      <c r="U9" s="15"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="Q10" s="17">
-        <v>44829</v>
-      </c>
-      <c r="R10" s="25">
-        <v>0.63194444444444442</v>
-      </c>
-      <c r="S10" s="25">
-        <v>0.79513888888888884</v>
-      </c>
-      <c r="T10" s="30">
-        <f>(S10-R10)*24</f>
-        <v>3.9166666666666661</v>
-      </c>
-      <c r="U10" s="14"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="Q11" s="18">
-        <v>44831</v>
-      </c>
-      <c r="R11" s="19">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="S11" s="19">
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="T11" s="27">
-        <f t="shared" ref="T11:T27" si="0">(S11-R11)*24</f>
-        <v>7.9999999999999982</v>
-      </c>
-      <c r="U11" s="13"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -1660,20 +1476,13 @@
       <c r="D12" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" s="17">
-        <v>44833</v>
-      </c>
-      <c r="R12" s="25">
-        <v>0.62847222222222221</v>
-      </c>
-      <c r="S12" s="25">
-        <v>0.88541666666666663</v>
-      </c>
-      <c r="T12" s="30">
-        <f t="shared" si="0"/>
-        <v>6.1666666666666661</v>
-      </c>
-      <c r="U12" s="14"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -1685,21 +1494,14 @@
       <c r="D13" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" s="18">
-        <v>44834</v>
-      </c>
-      <c r="R13" s="19">
-        <v>0.71527777777777779</v>
-      </c>
-      <c r="S13" s="19">
-        <v>0.76388888888888884</v>
-      </c>
-      <c r="T13" s="27">
-        <f t="shared" si="0"/>
-        <v>1.1666666666666652</v>
-      </c>
-      <c r="U13" s="13"/>
-      <c r="X13" s="29"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="12"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -1714,20 +1516,13 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="Q14" s="17">
-        <v>44834</v>
-      </c>
-      <c r="R14" s="25">
-        <v>0.86111111111111116</v>
-      </c>
-      <c r="S14" s="25">
-        <v>0.96875</v>
-      </c>
-      <c r="T14" s="30">
-        <f t="shared" si="0"/>
-        <v>2.5833333333333321</v>
-      </c>
-      <c r="U14" s="14"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -1741,20 +1536,13 @@
       </c>
       <c r="J15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="Q15" s="18">
-        <v>44836</v>
-      </c>
-      <c r="R15" s="19">
-        <v>0.40625</v>
-      </c>
-      <c r="S15" s="19">
-        <v>0.52430555555555558</v>
-      </c>
-      <c r="T15" s="27">
-        <f t="shared" si="0"/>
-        <v>2.8333333333333339</v>
-      </c>
-      <c r="U15" s="13"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -1767,22 +1555,15 @@
         <v>49</v>
       </c>
       <c r="M16" s="5"/>
-      <c r="Q16" s="17">
-        <v>44836</v>
-      </c>
-      <c r="R16" s="25">
-        <v>0.67708333333333337</v>
-      </c>
-      <c r="S16" s="25">
-        <v>0.99305555555555547</v>
-      </c>
-      <c r="T16" s="30">
-        <f t="shared" si="0"/>
-        <v>7.5833333333333304</v>
-      </c>
-      <c r="U16" s="14"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q16" s="18"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>55</v>
       </c>
@@ -1792,22 +1573,15 @@
       <c r="D17" t="s">
         <v>53</v>
       </c>
-      <c r="Q17" s="18">
-        <v>44837</v>
-      </c>
-      <c r="R17" s="19">
-        <v>0.78125</v>
-      </c>
-      <c r="S17" s="19">
-        <v>0.99652777777777779</v>
-      </c>
-      <c r="T17" s="27">
-        <f t="shared" si="0"/>
-        <v>5.166666666666667</v>
-      </c>
-      <c r="U17" s="13"/>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q17" s="18"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>56</v>
       </c>
@@ -1821,161 +1595,105 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="O18" s="5"/>
-      <c r="Q18" s="17">
-        <v>44838</v>
-      </c>
-      <c r="R18" s="25">
-        <v>0.63888888888888895</v>
-      </c>
-      <c r="S18" s="25">
-        <v>0.73263888888888884</v>
-      </c>
-      <c r="T18" s="30">
-        <f t="shared" si="0"/>
-        <v>2.2499999999999973</v>
-      </c>
-      <c r="U18" s="14"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="Q19" s="18">
-        <v>44838</v>
-      </c>
-      <c r="R19" s="19">
-        <v>0.80555555555555547</v>
-      </c>
-      <c r="S19" s="19">
-        <v>0.96527777777777779</v>
-      </c>
-      <c r="T19" s="27">
-        <f t="shared" si="0"/>
-        <v>3.8333333333333357</v>
-      </c>
-      <c r="U19" s="13"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q18" s="18"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Q19" s="18"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="E20" s="3"/>
       <c r="F20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Q20" s="17">
-        <v>44839</v>
-      </c>
-      <c r="R20" s="25">
-        <v>0.35069444444444442</v>
-      </c>
-      <c r="S20" s="25">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="T20" s="30">
-        <f t="shared" si="0"/>
-        <v>3.9166666666666687</v>
-      </c>
-      <c r="U20" s="28"/>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q20" s="18"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="E21" s="2"/>
       <c r="F21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Q21" s="18">
-        <v>44839</v>
-      </c>
-      <c r="R21" s="19">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="S21" s="19">
-        <v>0.99652777777777779</v>
-      </c>
-      <c r="T21" s="34">
-        <f t="shared" si="0"/>
-        <v>5.25</v>
-      </c>
-      <c r="U21" s="13"/>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q21" s="18"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="E22" s="4"/>
       <c r="F22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Q22" s="17">
-        <v>44840</v>
-      </c>
-      <c r="R22" s="25">
-        <v>0.84027777777777779</v>
-      </c>
-      <c r="S22" s="25">
-        <v>0.98263888888888884</v>
-      </c>
-      <c r="T22" s="30">
-        <f t="shared" si="0"/>
-        <v>3.4166666666666652</v>
-      </c>
-      <c r="U22" s="14"/>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="Q23" s="18">
-        <v>44841</v>
-      </c>
-      <c r="R23" s="19">
-        <v>0.88541666666666663</v>
-      </c>
-      <c r="S23" s="19">
-        <v>0.98958333333333337</v>
-      </c>
-      <c r="T23" s="34">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000018</v>
-      </c>
-      <c r="U23" s="13"/>
-    </row>
-    <row r="24" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q22" s="18"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Q23" s="18"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+    </row>
+    <row r="24" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N24" s="6"/>
-      <c r="Q24" s="17">
-        <v>44842</v>
-      </c>
-      <c r="R24" s="25">
-        <v>0.34375</v>
-      </c>
-      <c r="S24" s="25">
-        <v>0.49652777777777773</v>
-      </c>
-      <c r="T24" s="30">
-        <f t="shared" si="0"/>
-        <v>3.6666666666666656</v>
-      </c>
-      <c r="U24" s="14"/>
-    </row>
-    <row r="25" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="35" t="s">
+      <c r="Q24" s="18"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+    </row>
+    <row r="25" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="37"/>
-      <c r="Q25" s="18">
-        <v>44842</v>
-      </c>
-      <c r="R25" s="19">
-        <v>0.78819444444444453</v>
-      </c>
-      <c r="S25" s="19">
-        <v>0.94444444444444453</v>
-      </c>
-      <c r="T25" s="34">
-        <f t="shared" si="0"/>
-        <v>3.75</v>
-      </c>
-      <c r="U25" s="13"/>
-    </row>
-    <row r="26" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="16"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+    </row>
+    <row r="26" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>37</v>
       </c>
@@ -1995,7 +1713,7 @@
         <v>111</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>116</v>
@@ -2012,22 +1730,15 @@
       <c r="M26" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="Q26" s="17">
-        <v>44843</v>
-      </c>
-      <c r="R26" s="25">
-        <v>0.80555555555555547</v>
-      </c>
-      <c r="S26" s="25">
-        <v>0.92708333333333337</v>
-      </c>
-      <c r="T26" s="30">
-        <f t="shared" si="0"/>
-        <v>2.9166666666666696</v>
-      </c>
-      <c r="U26" s="14"/>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q26" s="18"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -2040,22 +1751,15 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="Q27" s="18">
-        <v>44844</v>
-      </c>
-      <c r="R27" s="19">
-        <v>0.32291666666666669</v>
-      </c>
-      <c r="S27" s="19">
-        <v>0.44097222222222227</v>
-      </c>
-      <c r="T27" s="34">
-        <f t="shared" si="0"/>
-        <v>2.8333333333333339</v>
-      </c>
-      <c r="U27" s="13"/>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q27" s="18"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>83</v>
       </c>
@@ -2078,7 +1782,7 @@
         <v>85</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="1" t="s">
@@ -2091,13 +1795,15 @@
       <c r="N28" t="s">
         <v>108</v>
       </c>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q28" s="18"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>84</v>
       </c>
@@ -2120,7 +1826,7 @@
         <v>86</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="1" t="s">
@@ -2134,12 +1840,14 @@
         <v>108</v>
       </c>
       <c r="Q29" s="18"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="13"/>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
@@ -2162,7 +1870,7 @@
         <v>113</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="1" t="s">
@@ -2174,13 +1882,15 @@
       <c r="M30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="14"/>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q30" s="18"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
@@ -2212,7 +1922,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>9</v>
       </c>
@@ -2505,7 +2215,7 @@
         <v>113</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>46</v>
@@ -2759,10 +2469,10 @@
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>46</v>
@@ -2808,20 +2518,20 @@
     </row>
     <row r="58" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="37"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="16"/>
     </row>
     <row r="60" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
@@ -2839,7 +2549,7 @@
         <v>111</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9" t="s">
@@ -2888,12 +2598,12 @@
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="33"/>
+      <c r="J62" s="13"/>
       <c r="K62" s="1" t="s">
         <v>151</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>46</v>
@@ -2920,12 +2630,12 @@
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="33"/>
+      <c r="J63" s="13"/>
       <c r="K63" s="1" t="s">
         <v>162</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>46</v>
@@ -2952,12 +2662,12 @@
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="33"/>
+      <c r="J64" s="13"/>
       <c r="K64" s="1" t="s">
         <v>159</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>46</v>
@@ -2984,12 +2694,12 @@
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="33"/>
+      <c r="J65" s="13"/>
       <c r="K65" s="1" t="s">
         <v>160</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>46</v>
@@ -3016,12 +2726,12 @@
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="33"/>
+      <c r="J66" s="13"/>
       <c r="K66" s="1" t="s">
         <v>152</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>46</v>
@@ -3053,7 +2763,7 @@
         <v>161</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>46</v>
@@ -3085,7 +2795,7 @@
         <v>166</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>46</v>
@@ -3117,7 +2827,7 @@
         <v>166</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="M69" s="2" t="s">
         <v>46</v>
@@ -3125,7 +2835,7 @@
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>133</v>
@@ -3149,7 +2859,7 @@
         <v>166</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="M70" s="2" t="s">
         <v>46</v>
@@ -3181,7 +2891,7 @@
         <v>167</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>46</v>
@@ -3199,15 +2909,15 @@
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="33"/>
+      <c r="G72" s="13"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="M72" s="2" t="s">
         <v>46</v>
@@ -3225,7 +2935,7 @@
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="33"/>
+      <c r="G73" s="13"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -3233,7 +2943,7 @@
         <v>165</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="M73" s="2" t="s">
         <v>46</v>
@@ -3251,7 +2961,7 @@
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="33"/>
+      <c r="G74" s="13"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -3259,10 +2969,10 @@
         <v>164</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
@@ -3285,18 +2995,18 @@
         <v>163</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>46</v>
@@ -3311,7 +3021,7 @@
         <v>168</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="M76" s="2" t="s">
         <v>46</v>
@@ -3320,7 +3030,7 @@
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="33"/>
+      <c r="D77" s="13"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -3331,27 +3041,27 @@
         <v>169</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="M77" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="33"/>
-      <c r="I78" s="33"/>
-      <c r="J78" s="33"/>
-      <c r="K78" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="L78" s="33"/>
-      <c r="M78" s="33"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D79" s="11"/>
@@ -3370,20 +3080,20 @@
       <c r="M82" s="11"/>
     </row>
     <row r="83" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="C83" s="36"/>
-      <c r="D83" s="36"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="36"/>
-      <c r="G83" s="36"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
-      <c r="J83" s="36"/>
-      <c r="K83" s="36"/>
-      <c r="L83" s="36"/>
-      <c r="M83" s="37"/>
+      <c r="B83" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="16"/>
     </row>
     <row r="84" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
@@ -3401,7 +3111,7 @@
         <v>111</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9" t="s">
@@ -3431,252 +3141,252 @@
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D86" s="33"/>
+        <v>192</v>
+      </c>
+      <c r="D86" s="13"/>
       <c r="E86" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G86" s="33"/>
+        <v>207</v>
+      </c>
+      <c r="G86" s="13"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="33"/>
+      <c r="J86" s="13"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
-      <c r="M86" s="33"/>
+      <c r="M86" s="13"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D87" s="33"/>
+        <v>193</v>
+      </c>
+      <c r="D87" s="13"/>
       <c r="E87" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G87" s="33"/>
+        <v>208</v>
+      </c>
+      <c r="G87" s="13"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="33"/>
+      <c r="J87" s="13"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
-      <c r="M87" s="33"/>
+      <c r="M87" s="13"/>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D88" s="33"/>
+        <v>194</v>
+      </c>
+      <c r="D88" s="13"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G88" s="33"/>
+        <v>209</v>
+      </c>
+      <c r="G88" s="13"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="33"/>
+      <c r="J88" s="13"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
-      <c r="M88" s="33"/>
+      <c r="M88" s="13"/>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D89" s="33"/>
+        <v>195</v>
+      </c>
+      <c r="D89" s="13"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G89" s="33"/>
+        <v>210</v>
+      </c>
+      <c r="G89" s="13"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="33"/>
+      <c r="J89" s="13"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
-      <c r="M89" s="33"/>
+      <c r="M89" s="13"/>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D90" s="33"/>
+        <v>196</v>
+      </c>
+      <c r="D90" s="13"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G90" s="33"/>
+        <v>211</v>
+      </c>
+      <c r="G90" s="13"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="33"/>
+      <c r="J90" s="13"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
-      <c r="M90" s="33"/>
+      <c r="M90" s="13"/>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D91" s="33"/>
+        <v>197</v>
+      </c>
+      <c r="D91" s="13"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G91" s="33"/>
+        <v>212</v>
+      </c>
+      <c r="G91" s="13"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
-      <c r="M91" s="33"/>
+      <c r="M91" s="13"/>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D92" s="33"/>
+        <v>198</v>
+      </c>
+      <c r="D92" s="13"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G92" s="33"/>
+        <v>213</v>
+      </c>
+      <c r="G92" s="13"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
-      <c r="M92" s="33"/>
+      <c r="M92" s="13"/>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D93" s="33"/>
+        <v>199</v>
+      </c>
+      <c r="D93" s="13"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G93" s="33"/>
+        <v>214</v>
+      </c>
+      <c r="G93" s="13"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
-      <c r="M93" s="33"/>
+      <c r="M93" s="13"/>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D94" s="33"/>
+        <v>200</v>
+      </c>
+      <c r="D94" s="13"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G94" s="33"/>
+        <v>215</v>
+      </c>
+      <c r="G94" s="13"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
-      <c r="M94" s="33"/>
+      <c r="M94" s="13"/>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D95" s="33"/>
+        <v>201</v>
+      </c>
+      <c r="D95" s="13"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G95" s="33"/>
+        <v>216</v>
+      </c>
+      <c r="G95" s="13"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
-      <c r="M95" s="33"/>
+      <c r="M95" s="13"/>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D96" s="33"/>
+        <v>202</v>
+      </c>
+      <c r="D96" s="13"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-      <c r="G96" s="33"/>
+      <c r="G96" s="13"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
-      <c r="M96" s="33"/>
+      <c r="M96" s="13"/>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D97" s="33"/>
+        <v>203</v>
+      </c>
+      <c r="D97" s="13"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-      <c r="G97" s="33"/>
+      <c r="G97" s="13"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
-      <c r="M97" s="33"/>
+      <c r="M97" s="13"/>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D98" s="33"/>
+        <v>204</v>
+      </c>
+      <c r="D98" s="13"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-      <c r="G98" s="33"/>
+      <c r="G98" s="13"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
-      <c r="M98" s="33"/>
+      <c r="M98" s="13"/>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D99" s="33"/>
+        <v>205</v>
+      </c>
+      <c r="D99" s="13"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -3685,14 +3395,14 @@
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
-      <c r="M99" s="33"/>
+      <c r="M99" s="13"/>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D100" s="33"/>
+        <v>206</v>
+      </c>
+      <c r="D100" s="13"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -3701,12 +3411,12 @@
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
-      <c r="M100" s="33"/>
+      <c r="M100" s="13"/>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="33"/>
+      <c r="D101" s="13"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -3715,24 +3425,24 @@
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
-      <c r="M101" s="33"/>
+      <c r="M101" s="13"/>
     </row>
     <row r="107" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="108" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="C108" s="36"/>
-      <c r="D108" s="36"/>
-      <c r="E108" s="36"/>
-      <c r="F108" s="36"/>
-      <c r="G108" s="36"/>
-      <c r="H108" s="36"/>
-      <c r="I108" s="36"/>
-      <c r="J108" s="36"/>
-      <c r="K108" s="36"/>
-      <c r="L108" s="36"/>
-      <c r="M108" s="37"/>
+      <c r="B108" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="15"/>
+      <c r="K108" s="15"/>
+      <c r="L108" s="15"/>
+      <c r="M108" s="16"/>
     </row>
     <row r="109" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
@@ -3750,7 +3460,7 @@
         <v>111</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9" t="s">
@@ -3780,83 +3490,83 @@
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="M111" s="4"/>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E112" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G112" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H112" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H112" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="I112" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="L112" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="M112" s="4"/>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>46</v>
@@ -3866,7 +3576,7 @@
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="M113" s="2" t="s">
         <v>46</v>
@@ -3874,19 +3584,19 @@
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>46</v>
@@ -3896,23 +3606,23 @@
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="M114" s="4"/>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -3920,21 +3630,21 @@
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="M115" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
@@ -3942,21 +3652,21 @@
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="M116" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -3964,19 +3674,19 @@
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="M117" s="1"/>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -3984,19 +3694,19 @@
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="M118" s="1"/>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -4004,19 +3714,19 @@
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="M119" s="1"/>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -4024,19 +3734,19 @@
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="M120" s="1"/>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
@@ -4044,19 +3754,19 @@
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="M121" s="1"/>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
@@ -4064,19 +3774,19 @@
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="M122" s="1"/>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
@@ -4084,19 +3794,19 @@
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="M123" s="1"/>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -4104,7 +3814,7 @@
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="M124" s="1"/>
     </row>
@@ -4120,7 +3830,7 @@
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="M125" s="1"/>
     </row>
@@ -4139,12 +3849,10 @@
       <c r="M126" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="B108:M108"/>
     <mergeCell ref="B25:M25"/>
     <mergeCell ref="B59:M59"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="Q6:U6"/>
     <mergeCell ref="B83:M83"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7B0738-CAEA-4C93-83DD-82FA80090610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0341DA40-3683-4046-B865-DD3D3DFCBAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
@@ -1037,6 +1037,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1046,10 +1050,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1366,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:X126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P117" sqref="P117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,21 +1410,21 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
       <c r="V6" s="11"/>
-      <c r="W6" s="17"/>
+      <c r="W6" s="14"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="Q7" s="11"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
@@ -1440,28 +1440,28 @@
       <c r="W8" s="11"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="Q9" s="18"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="17"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="14"/>
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="Q10" s="18"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="17"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="14"/>
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="Q11" s="18"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="17"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="14"/>
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
@@ -1476,10 +1476,10 @@
       <c r="D12" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="17"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="14"/>
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
@@ -1494,10 +1494,10 @@
       <c r="D13" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="17"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="14"/>
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
@@ -1516,10 +1516,10 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="17"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="14"/>
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
@@ -1536,10 +1536,10 @@
       </c>
       <c r="J15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="17"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="14"/>
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
@@ -1555,10 +1555,10 @@
         <v>49</v>
       </c>
       <c r="M16" s="5"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="17"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="14"/>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
@@ -1573,10 +1573,10 @@
       <c r="D17" t="s">
         <v>53</v>
       </c>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="17"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="14"/>
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
@@ -1595,19 +1595,19 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="O18" s="5"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="17"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="14"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="Q19" s="18"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="17"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="14"/>
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
@@ -1617,11 +1617,11 @@
       <c r="F20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
     </row>
@@ -1630,10 +1630,10 @@
       <c r="F21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="17"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="14"/>
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
@@ -1643,52 +1643,52 @@
       <c r="F22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="17"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="14"/>
       <c r="U22" s="11"/>
       <c r="V22" s="11"/>
       <c r="W22" s="11"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="Q23" s="18"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="17"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="14"/>
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
     </row>
     <row r="24" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N24" s="6"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="17"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="14"/>
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
       <c r="W24" s="11"/>
     </row>
     <row r="25" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="16"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="17"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="20"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="14"/>
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
       <c r="W25" s="11"/>
@@ -1730,10 +1730,10 @@
       <c r="M26" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="17"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="14"/>
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
       <c r="W26" s="11"/>
@@ -1751,10 +1751,10 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="17"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="14"/>
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
@@ -1795,10 +1795,10 @@
       <c r="N28" t="s">
         <v>108</v>
       </c>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="17"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="14"/>
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
@@ -1839,10 +1839,10 @@
       <c r="N29" t="s">
         <v>108</v>
       </c>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="17"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="14"/>
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
       <c r="W29" s="11"/>
@@ -1882,10 +1882,10 @@
       <c r="M30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="17"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="14"/>
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
       <c r="W30" s="11"/>
@@ -2518,20 +2518,20 @@
     </row>
     <row r="58" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="16"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="20"/>
     </row>
     <row r="60" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
@@ -3080,20 +3080,20 @@
       <c r="M82" s="11"/>
     </row>
     <row r="83" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="15"/>
-      <c r="L83" s="15"/>
-      <c r="M83" s="16"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="19"/>
+      <c r="K83" s="19"/>
+      <c r="L83" s="19"/>
+      <c r="M83" s="20"/>
     </row>
     <row r="84" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
@@ -3429,20 +3429,20 @@
     </row>
     <row r="107" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="108" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="14" t="s">
+      <c r="B108" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="15"/>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="15"/>
-      <c r="K108" s="15"/>
-      <c r="L108" s="15"/>
-      <c r="M108" s="16"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="19"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="19"/>
+      <c r="K108" s="19"/>
+      <c r="L108" s="19"/>
+      <c r="M108" s="20"/>
     </row>
     <row r="109" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0341DA40-3683-4046-B865-DD3D3DFCBAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121AD0D7-8992-4BE9-9A81-A2D8D0CB3BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="279">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -866,6 +866,12 @@
   </si>
   <si>
     <t>p3001_d_s</t>
+  </si>
+  <si>
+    <t>p0014_D_K</t>
+  </si>
+  <si>
+    <t>p0015_D_K</t>
   </si>
 </sst>
 </file>
@@ -1366,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:X126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P117" sqref="P117"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55:E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1766,7 +1772,7 @@
       <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -1775,7 +1781,7 @@
       <c r="F28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H28" s="1" t="s">
@@ -1810,7 +1816,7 @@
       <c r="C29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -1819,7 +1825,7 @@
       <c r="F29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -1854,7 +1860,7 @@
       <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -1863,7 +1869,7 @@
       <c r="F30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -1879,7 +1885,7 @@
       <c r="L30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Q30" s="15"/>
@@ -1897,7 +1903,7 @@
       <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -1906,7 +1912,7 @@
       <c r="F31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H31" s="1"/>
@@ -1918,7 +1924,7 @@
       <c r="L31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1929,7 +1935,7 @@
       <c r="C32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -1938,7 +1944,7 @@
       <c r="F32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H32" s="1"/>
@@ -1948,7 +1954,7 @@
       <c r="L32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1959,7 +1965,7 @@
       <c r="C33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -1968,7 +1974,7 @@
       <c r="F33" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H33" s="1"/>
@@ -1978,7 +1984,7 @@
       <c r="L33" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1989,7 +1995,7 @@
       <c r="C34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -1998,7 +2004,7 @@
       <c r="F34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H34" s="1"/>
@@ -2010,7 +2016,7 @@
       <c r="L34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2021,7 +2027,7 @@
       <c r="C35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -2030,7 +2036,7 @@
       <c r="F35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H35" s="1"/>
@@ -2040,7 +2046,7 @@
       <c r="L35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2051,7 +2057,7 @@
       <c r="C36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -2060,7 +2066,7 @@
       <c r="F36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H36" s="1"/>
@@ -2070,7 +2076,7 @@
       <c r="L36" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2081,14 +2087,16 @@
       <c r="C37" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="E37" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H37" s="1"/>
@@ -2100,7 +2108,7 @@
       <c r="L37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N37" s="6"/>
@@ -2112,7 +2120,7 @@
       <c r="C38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -2121,7 +2129,7 @@
       <c r="F38" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H38" s="1"/>
@@ -2133,7 +2141,7 @@
       <c r="L38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2144,7 +2152,7 @@
       <c r="C39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -2153,7 +2161,7 @@
       <c r="F39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H39" s="1"/>
@@ -2165,7 +2173,7 @@
       <c r="L39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2176,7 +2184,7 @@
       <c r="C40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -2185,7 +2193,7 @@
       <c r="F40" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H40" s="1"/>
@@ -2197,7 +2205,7 @@
       <c r="L40" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2208,7 +2216,7 @@
       <c r="C41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -2217,7 +2225,7 @@
       <c r="F41" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H41" s="1"/>
@@ -2229,7 +2237,7 @@
       <c r="L41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2240,7 +2248,7 @@
       <c r="C42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E42" s="1"/>
@@ -2253,7 +2261,7 @@
       <c r="L42" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2264,7 +2272,7 @@
       <c r="C43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E43" s="1"/>
@@ -2279,7 +2287,7 @@
       <c r="L43" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2290,7 +2298,7 @@
       <c r="C44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E44" s="1"/>
@@ -2303,7 +2311,7 @@
       <c r="L44" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M44" s="2" t="s">
+      <c r="M44" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2314,7 +2322,7 @@
       <c r="C45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E45" s="1"/>
@@ -2329,7 +2337,7 @@
       <c r="L45" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2340,7 +2348,7 @@
       <c r="C46" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E46" s="1"/>
@@ -2351,9 +2359,11 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M46" s="4"/>
+        <v>277</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
@@ -2362,7 +2372,7 @@
       <c r="C47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E47" s="1"/>
@@ -2377,7 +2387,9 @@
       <c r="L47" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="M47" s="4"/>
+      <c r="M47" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
@@ -2386,7 +2398,9 @@
       <c r="C48" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="2"/>
+      <c r="D48" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -2397,9 +2411,11 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M48" s="4"/>
+        <v>278</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
@@ -2408,7 +2424,9 @@
       <c r="C49" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="2"/>
+      <c r="D49" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -2421,7 +2439,7 @@
       <c r="L49" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2432,7 +2450,9 @@
       <c r="C50" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D50" s="2"/>
+      <c r="D50" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -2443,7 +2463,9 @@
       <c r="L50" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="M50" s="4"/>
+      <c r="M50" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
@@ -2452,7 +2474,9 @@
       <c r="C51" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="2"/>
+      <c r="D51" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2465,7 +2489,9 @@
       <c r="L51" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="M51" s="4"/>
+      <c r="M51" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
@@ -2474,7 +2500,7 @@
       <c r="C52" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E52" s="1"/>
@@ -2491,7 +2517,9 @@
       <c r="L52" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="M52" s="4"/>
+      <c r="M52" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
@@ -2509,7 +2537,7 @@
       <c r="L53" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2584,7 +2612,7 @@
       <c r="C62" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -2593,7 +2621,7 @@
       <c r="F62" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H62" s="1"/>
@@ -2605,7 +2633,7 @@
       <c r="L62" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2616,7 +2644,7 @@
       <c r="C63" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -2625,7 +2653,7 @@
       <c r="F63" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G63" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H63" s="1"/>
@@ -2637,7 +2665,7 @@
       <c r="L63" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2648,7 +2676,7 @@
       <c r="C64" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E64" s="1" t="s">
@@ -2657,7 +2685,7 @@
       <c r="F64" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G64" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H64" s="1"/>
@@ -2669,7 +2697,7 @@
       <c r="L64" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2680,7 +2708,7 @@
       <c r="C65" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -2689,7 +2717,7 @@
       <c r="F65" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G65" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H65" s="1"/>
@@ -2701,7 +2729,7 @@
       <c r="L65" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2712,7 +2740,7 @@
       <c r="C66" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -2721,7 +2749,7 @@
       <c r="F66" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G66" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H66" s="1"/>
@@ -2733,7 +2761,7 @@
       <c r="L66" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2744,7 +2772,7 @@
       <c r="C67" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -2753,7 +2781,7 @@
       <c r="F67" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G67" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H67" s="1"/>
@@ -2765,7 +2793,7 @@
       <c r="L67" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2776,7 +2804,7 @@
       <c r="C68" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -2785,7 +2813,7 @@
       <c r="F68" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="G68" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H68" s="1"/>
@@ -2797,7 +2825,7 @@
       <c r="L68" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2808,7 +2836,7 @@
       <c r="C69" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E69" s="1" t="s">
@@ -2817,7 +2845,7 @@
       <c r="F69" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="G69" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H69" s="1"/>
@@ -2829,7 +2857,7 @@
       <c r="L69" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2840,7 +2868,7 @@
       <c r="C70" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E70" s="1" t="s">
@@ -2849,7 +2877,7 @@
       <c r="F70" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="G70" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H70" s="1"/>
@@ -2861,7 +2889,7 @@
       <c r="L70" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2872,7 +2900,7 @@
       <c r="C71" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -2881,7 +2909,7 @@
       <c r="F71" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="G71" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H71" s="1"/>
@@ -2893,7 +2921,7 @@
       <c r="L71" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2904,7 +2932,7 @@
       <c r="C72" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E72" s="1"/>
@@ -2919,7 +2947,7 @@
       <c r="L72" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2930,7 +2958,7 @@
       <c r="C73" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E73" s="1"/>
@@ -2945,7 +2973,7 @@
       <c r="L73" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2956,7 +2984,7 @@
       <c r="C74" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E74" s="1"/>
@@ -2982,7 +3010,7 @@
       <c r="C75" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E75" s="1"/>
@@ -3008,7 +3036,7 @@
       <c r="C76" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E76" s="1"/>
@@ -3023,7 +3051,7 @@
       <c r="L76" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3043,7 +3071,7 @@
       <c r="L77" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3061,7 +3089,9 @@
         <v>190</v>
       </c>
       <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
+      <c r="M78" s="4" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D79" s="11"/>

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121AD0D7-8992-4BE9-9A81-A2D8D0CB3BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8321C9F7-BA49-4B90-92F5-77F6C11AC590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="279">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -712,9 +712,6 @@
     <t>Vertikaler Steher hinten</t>
   </si>
   <si>
-    <t>Silentwind</t>
-  </si>
-  <si>
     <t>Halteblech_Windgenerator</t>
   </si>
   <si>
@@ -872,6 +869,9 @@
   </si>
   <si>
     <t>p0015_D_K</t>
+  </si>
+  <si>
+    <t>Silentwind 400 +</t>
   </si>
 </sst>
 </file>
@@ -1372,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:X126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55:E56"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1719,7 +1719,7 @@
         <v>111</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>116</v>
@@ -1788,7 +1788,7 @@
         <v>85</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="1" t="s">
@@ -1832,7 +1832,7 @@
         <v>86</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="1" t="s">
@@ -1876,7 +1876,7 @@
         <v>113</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="1" t="s">
@@ -2223,7 +2223,7 @@
         <v>113</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>46</v>
@@ -2359,7 +2359,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>46</v>
@@ -2411,7 +2411,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>46</v>
@@ -2495,10 +2495,10 @@
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>46</v>
@@ -2541,9 +2541,6 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H56" s="11"/>
-    </row>
     <row r="58" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="18" t="s">
@@ -2577,7 +2574,7 @@
         <v>111</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9" t="s">
@@ -3099,6 +3096,9 @@
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D80" s="11"/>
+      <c r="G80" t="s">
+        <v>123</v>
+      </c>
       <c r="M80" s="11"/>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
@@ -3141,7 +3141,7 @@
         <v>111</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9" t="s">
@@ -3460,7 +3460,7 @@
     <row r="107" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="108" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="18" t="s">
-        <v>225</v>
+        <v>278</v>
       </c>
       <c r="C108" s="19"/>
       <c r="D108" s="19"/>
@@ -3490,7 +3490,7 @@
         <v>111</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9" t="s">
@@ -3520,83 +3520,83 @@
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="D111" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E111" s="1" t="s">
+      <c r="F111" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="G111" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M111" s="4"/>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="D112" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E112" t="s">
         <v>232</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E112" t="s">
+      <c r="F112" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="G112" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="G112" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H112" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="L112" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M112" s="4"/>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="D113" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E113" s="1" t="s">
+      <c r="F113" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>46</v>
@@ -3606,7 +3606,7 @@
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M113" s="2" t="s">
         <v>46</v>
@@ -3614,19 +3614,19 @@
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="D114" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E114" s="1" t="s">
+      <c r="F114" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>46</v>
@@ -3636,23 +3636,23 @@
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M114" s="4"/>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -3660,7 +3660,7 @@
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M115" s="4" t="s">
         <v>188</v>
@@ -3669,12 +3669,12 @@
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
@@ -3682,7 +3682,7 @@
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M116" s="4" t="s">
         <v>188</v>
@@ -3691,12 +3691,12 @@
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -3704,19 +3704,19 @@
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M117" s="1"/>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -3724,19 +3724,19 @@
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M118" s="1"/>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -3744,19 +3744,19 @@
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M119" s="1"/>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -3764,19 +3764,19 @@
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M120" s="1"/>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
@@ -3784,19 +3784,19 @@
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M121" s="1"/>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
@@ -3804,19 +3804,19 @@
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M122" s="1"/>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
@@ -3824,19 +3824,19 @@
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M123" s="1"/>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -3844,7 +3844,7 @@
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M124" s="1"/>
     </row>
@@ -3860,7 +3860,7 @@
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M125" s="1"/>
     </row>

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8321C9F7-BA49-4B90-92F5-77F6C11AC590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752D6498-BA57-416E-9F05-6153FF59CBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
@@ -1372,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:X126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2970,7 +2970,7 @@
       <c r="L73" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="M73" s="3" t="s">
+      <c r="M73" s="2" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\Endgültiges\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasKonrad\Documents\GitHub\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752D6498-BA57-416E-9F05-6153FF59CBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D50B4A0-9567-481B-994C-AF2732C711DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
+    <workbookView xWindow="28680" yWindow="5325" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="301">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -694,24 +694,6 @@
     <t>HauptBauGruppe</t>
   </si>
   <si>
-    <t>Grundplatte vorne</t>
-  </si>
-  <si>
-    <t>Horizontale Strebe</t>
-  </si>
-  <si>
-    <t>Fixierung hinten Blechteil</t>
-  </si>
-  <si>
-    <t>BG_unten_geschweißt</t>
-  </si>
-  <si>
-    <t>Vertikaler Steher vorne</t>
-  </si>
-  <si>
-    <t>Vertikaler Steher hinten</t>
-  </si>
-  <si>
     <t>Halteblech_Windgenerator</t>
   </si>
   <si>
@@ -872,6 +854,90 @@
   </si>
   <si>
     <t>Silentwind 400 +</t>
+  </si>
+  <si>
+    <t>BAUGRUPPEN ZEICHNUNG</t>
+  </si>
+  <si>
+    <t>vertikale stange vorne</t>
+  </si>
+  <si>
+    <t>Grundplatte</t>
+  </si>
+  <si>
+    <t>untere BG</t>
+  </si>
+  <si>
+    <t>horizontale stange</t>
+  </si>
+  <si>
+    <t>obere BG</t>
+  </si>
+  <si>
+    <t>vertikale stange hinten</t>
+  </si>
+  <si>
+    <t>obere/untere BG</t>
+  </si>
+  <si>
+    <t>befestigung davits hinten U-Bl.</t>
+  </si>
+  <si>
+    <t>BG links/rechts auf Davits</t>
+  </si>
+  <si>
+    <t>vertikale stange vorne ausfahr.</t>
+  </si>
+  <si>
+    <t>horizontale stange ausfahrbar</t>
+  </si>
+  <si>
+    <t>vertikale stange hinten ausfah.</t>
+  </si>
+  <si>
+    <t>verbindung zw. Davits hinten</t>
+  </si>
+  <si>
+    <t>verbindung zw. Davits vorne</t>
+  </si>
+  <si>
+    <t>Solar-aufbau befest. Hinten_1 (unterer teil)</t>
+  </si>
+  <si>
+    <t>Solar-aufbau befest. Hinten_2 (oberer Teil)</t>
+  </si>
+  <si>
+    <t>Richtige Dateinamen</t>
+  </si>
+  <si>
+    <t>gleitbuchse1</t>
+  </si>
+  <si>
+    <t>gleitbuchse 2</t>
+  </si>
+  <si>
+    <t>Solarpanel_1</t>
+  </si>
+  <si>
+    <t>m8x16_1</t>
+  </si>
+  <si>
+    <t>m6x16_1</t>
+  </si>
+  <si>
+    <t>m16x30_1</t>
+  </si>
+  <si>
+    <t>m6_mutter</t>
+  </si>
+  <si>
+    <t>Solar-aufbau befest. Vorne_1 (unterer Teil)</t>
+  </si>
+  <si>
+    <t>Solar-aufbau befest. Vorne_2 (oberer Teil)</t>
+  </si>
+  <si>
+    <t>spiegelteil p2014</t>
   </si>
 </sst>
 </file>
@@ -949,7 +1015,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1024,11 +1090,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1047,6 +1150,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1370,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
-  <dimension ref="B3:X126"/>
+  <dimension ref="B3:Z141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1677,20 +1784,20 @@
       <c r="W24" s="11"/>
     </row>
     <row r="25" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="20"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="24"/>
       <c r="Q25" s="15"/>
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
@@ -1719,7 +1826,7 @@
         <v>111</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>116</v>
@@ -1788,7 +1895,7 @@
         <v>85</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="1" t="s">
@@ -1832,7 +1939,7 @@
         <v>86</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="1" t="s">
@@ -1876,7 +1983,7 @@
         <v>113</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="1" t="s">
@@ -2223,7 +2330,7 @@
         <v>113</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>46</v>
@@ -2359,7 +2466,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>46</v>
@@ -2411,7 +2518,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>46</v>
@@ -2495,10 +2602,10 @@
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>46</v>
@@ -2543,20 +2650,20 @@
     </row>
     <row r="58" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="20"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="24"/>
     </row>
     <row r="60" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
@@ -2574,7 +2681,7 @@
         <v>111</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9" t="s">
@@ -3101,789 +3208,1190 @@
       </c>
       <c r="M80" s="11"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D81" s="11"/>
       <c r="M81" s="11"/>
     </row>
-    <row r="82" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D82" s="11"/>
       <c r="M82" s="11"/>
     </row>
-    <row r="83" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="18" t="s">
+    <row r="83" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="19"/>
-      <c r="K83" s="19"/>
-      <c r="L83" s="19"/>
-      <c r="M83" s="20"/>
-    </row>
-    <row r="84" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="8" t="s">
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="23"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="23"/>
+      <c r="M84" s="24"/>
+    </row>
+    <row r="85" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9" t="s">
+      <c r="C85" s="9"/>
+      <c r="D85" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E85" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9" t="s">
+      <c r="F85" s="9"/>
+      <c r="G85" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="H84" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="I84" s="9"/>
-      <c r="J84" s="9" t="s">
+      <c r="H85" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K84" s="8" t="s">
+      <c r="K85" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="L84" s="9"/>
-      <c r="M84" s="10" t="s">
+      <c r="L85" s="9"/>
+      <c r="M85" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="7"/>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C86" s="1" t="s">
+    <row r="86" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+    </row>
+    <row r="87" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D86" s="13"/>
-      <c r="E86" s="1" t="s">
+      <c r="D87" s="2"/>
+      <c r="E87" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F87" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G86" s="13"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="13"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="13"/>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="G87" s="2"/>
+      <c r="H87" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J87" s="4"/>
+      <c r="K87" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M87" s="4"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
+      <c r="R87" s="17"/>
+      <c r="S87" s="17"/>
+      <c r="T87" s="17"/>
+      <c r="U87" s="17"/>
+      <c r="V87" s="17"/>
+      <c r="W87" s="17"/>
+      <c r="X87" s="17"/>
+      <c r="Y87" s="17"/>
+      <c r="Z87" s="17"/>
+    </row>
+    <row r="88" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D87" s="13"/>
-      <c r="E87" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F87" s="1" t="s">
+      <c r="D88" s="2"/>
+      <c r="E88" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G87" s="13"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="13"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="13"/>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B88" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C88" s="1" t="s">
+      <c r="G88" s="2"/>
+      <c r="H88" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J88" s="4"/>
+      <c r="K88" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="M88" s="4"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="11"/>
+      <c r="Q88" s="11"/>
+      <c r="R88" s="11"/>
+      <c r="S88" s="11"/>
+      <c r="T88" s="11"/>
+      <c r="U88" s="11"/>
+      <c r="V88" s="11"/>
+      <c r="W88" s="11"/>
+      <c r="X88" s="11"/>
+      <c r="Y88" s="11"/>
+      <c r="Z88" s="11"/>
+    </row>
+    <row r="89" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D88" s="13"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1" t="s">
+      <c r="D89" s="2"/>
+      <c r="E89" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G88" s="13"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="13"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="13"/>
-    </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B89" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C89" s="1" t="s">
+      <c r="G89" s="2"/>
+      <c r="H89" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J89" s="4"/>
+      <c r="K89" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="M89" s="4"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="11"/>
+      <c r="Q89" s="11"/>
+      <c r="R89" s="11"/>
+      <c r="S89" s="11"/>
+      <c r="T89" s="11"/>
+      <c r="U89" s="11"/>
+      <c r="V89" s="11"/>
+      <c r="W89" s="11"/>
+      <c r="X89" s="11"/>
+      <c r="Y89" s="11"/>
+      <c r="Z89" s="11"/>
+    </row>
+    <row r="90" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D89" s="13"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1" t="s">
+      <c r="D90" s="2"/>
+      <c r="E90" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G89" s="13"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="13"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="13"/>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B90" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C90" s="1" t="s">
+      <c r="G90" s="2"/>
+      <c r="H90" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J90" s="4"/>
+      <c r="K90" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M90" s="4"/>
+      <c r="O90" s="11"/>
+      <c r="P90" s="11"/>
+      <c r="Q90" s="11"/>
+      <c r="R90" s="11"/>
+      <c r="S90" s="11"/>
+      <c r="T90" s="11"/>
+      <c r="U90" s="11"/>
+      <c r="V90" s="11"/>
+      <c r="W90" s="11"/>
+      <c r="X90" s="11"/>
+      <c r="Y90" s="11"/>
+      <c r="Z90" s="11"/>
+    </row>
+    <row r="91" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D90" s="13"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1" t="s">
+      <c r="D91" s="2"/>
+      <c r="E91" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G90" s="13"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="13"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
-      <c r="M90" s="13"/>
-    </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
-      <c r="C91" s="1" t="s">
+      <c r="G91" s="2"/>
+      <c r="H91" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J91" s="4"/>
+      <c r="K91" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="M91" s="4"/>
+      <c r="O91" s="11"/>
+      <c r="P91" s="11"/>
+      <c r="Q91" s="11"/>
+      <c r="R91" s="11"/>
+      <c r="S91" s="11"/>
+      <c r="T91" s="11"/>
+      <c r="U91" s="11"/>
+      <c r="V91" s="11"/>
+      <c r="W91" s="11"/>
+      <c r="X91" s="11"/>
+      <c r="Y91" s="11"/>
+      <c r="Z91" s="11"/>
+    </row>
+    <row r="92" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D91" s="13"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G91" s="13"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
-      <c r="M91" s="13"/>
-    </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
-      <c r="C92" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D92" s="13"/>
+      <c r="D92" s="2"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G92" s="13"/>
+        <v>212</v>
+      </c>
+      <c r="G92" s="1"/>
       <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
+      <c r="I92" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="13"/>
-    </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="K92" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M92" s="4"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+      <c r="Q92" s="11"/>
+      <c r="R92" s="11"/>
+      <c r="S92" s="11"/>
+      <c r="T92" s="11"/>
+      <c r="U92" s="11"/>
+      <c r="V92" s="11"/>
+      <c r="W92" s="11"/>
+      <c r="X92" s="11"/>
+      <c r="Y92" s="11"/>
+      <c r="Z92" s="11"/>
+    </row>
+    <row r="93" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="C93" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D93" s="13"/>
+        <v>198</v>
+      </c>
+      <c r="D93" s="2"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G93" s="13"/>
+        <v>213</v>
+      </c>
+      <c r="G93" s="1"/>
       <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
+      <c r="I93" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1"/>
-      <c r="M93" s="13"/>
-    </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="K93" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="M93" s="4"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="11"/>
+      <c r="Q93" s="11"/>
+      <c r="R93" s="11"/>
+      <c r="S93" s="11"/>
+      <c r="T93" s="11"/>
+      <c r="U93" s="11"/>
+      <c r="V93" s="11"/>
+      <c r="W93" s="11"/>
+      <c r="X93" s="11"/>
+      <c r="Y93" s="11"/>
+      <c r="Z93" s="11"/>
+    </row>
+    <row r="94" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="C94" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D94" s="13"/>
+        <v>199</v>
+      </c>
+      <c r="D94" s="2"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G94" s="13"/>
+        <v>214</v>
+      </c>
+      <c r="G94" s="1"/>
       <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
+      <c r="I94" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="13"/>
-    </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="K94" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="M94" s="4"/>
+      <c r="O94" s="11"/>
+      <c r="P94" s="11"/>
+      <c r="Q94" s="11"/>
+      <c r="R94" s="11"/>
+      <c r="S94" s="11"/>
+      <c r="T94" s="11"/>
+      <c r="U94" s="11"/>
+      <c r="V94" s="11"/>
+      <c r="W94" s="11"/>
+      <c r="X94" s="11"/>
+      <c r="Y94" s="11"/>
+      <c r="Z94" s="11"/>
+    </row>
+    <row r="95" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="C95" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D95" s="13"/>
+        <v>200</v>
+      </c>
+      <c r="D95" s="2"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M95" s="4"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="11"/>
+      <c r="Q95" s="11"/>
+      <c r="R95" s="11"/>
+      <c r="S95" s="11"/>
+      <c r="T95" s="11"/>
+      <c r="U95" s="11"/>
+      <c r="V95" s="11"/>
+      <c r="W95" s="11"/>
+      <c r="X95" s="11"/>
+      <c r="Y95" s="11"/>
+      <c r="Z95" s="11"/>
+    </row>
+    <row r="96" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="G95" s="13"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
-      <c r="M95" s="13"/>
-    </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-      <c r="C96" s="1" t="s">
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="M96" s="4"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="11"/>
+      <c r="Q96" s="11"/>
+      <c r="R96" s="11"/>
+      <c r="S96" s="11"/>
+      <c r="T96" s="11"/>
+      <c r="U96" s="11"/>
+      <c r="V96" s="11"/>
+      <c r="W96" s="11"/>
+      <c r="X96" s="11"/>
+      <c r="Y96" s="11"/>
+      <c r="Z96" s="11"/>
+    </row>
+    <row r="97" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D96" s="13"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
-      <c r="M96" s="13"/>
-    </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-      <c r="C97" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D97" s="13"/>
+      <c r="D97" s="2"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-      <c r="G97" s="13"/>
+      <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="13"/>
-    </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
+      <c r="K97" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M97" s="4"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11"/>
+      <c r="Q97" s="11"/>
+      <c r="R97" s="11"/>
+      <c r="S97" s="11"/>
+      <c r="T97" s="11"/>
+      <c r="U97" s="11"/>
+      <c r="V97" s="11"/>
+      <c r="W97" s="11"/>
+      <c r="X97" s="11"/>
+      <c r="Y97" s="11"/>
+      <c r="Z97" s="11"/>
+    </row>
+    <row r="98" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="C98" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D98" s="13"/>
+        <v>203</v>
+      </c>
+      <c r="D98" s="2"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-      <c r="G98" s="13"/>
+      <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="13"/>
-    </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
+      <c r="K98" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M98" s="4"/>
+      <c r="O98" s="11"/>
+      <c r="P98" s="11"/>
+      <c r="Q98" s="11"/>
+      <c r="R98" s="11"/>
+      <c r="S98" s="11"/>
+      <c r="T98" s="11"/>
+      <c r="U98" s="11"/>
+      <c r="V98" s="11"/>
+      <c r="W98" s="11"/>
+      <c r="X98" s="11"/>
+      <c r="Y98" s="11"/>
+      <c r="Z98" s="11"/>
+    </row>
+    <row r="99" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="C99" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D99" s="13"/>
+        <v>204</v>
+      </c>
+      <c r="D99" s="2"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="13"/>
-    </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
+      <c r="K99" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M99" s="4"/>
+      <c r="O99" s="11"/>
+      <c r="P99" s="11"/>
+      <c r="Q99" s="11"/>
+      <c r="R99" s="11"/>
+      <c r="S99" s="11"/>
+      <c r="T99" s="11"/>
+      <c r="U99" s="11"/>
+      <c r="V99" s="11"/>
+      <c r="W99" s="11"/>
+      <c r="X99" s="11"/>
+      <c r="Y99" s="11"/>
+      <c r="Z99" s="11"/>
+    </row>
+    <row r="100" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="C100" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D100" s="13"/>
+        <v>205</v>
+      </c>
+      <c r="D100" s="2"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="13"/>
-    </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="13"/>
+      <c r="K100" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M100" s="4"/>
+      <c r="O100" s="11"/>
+      <c r="P100" s="11"/>
+      <c r="Q100" s="11"/>
+      <c r="R100" s="11"/>
+      <c r="S100" s="11"/>
+      <c r="T100" s="11"/>
+      <c r="U100" s="11"/>
+      <c r="V100" s="11"/>
+      <c r="W100" s="11"/>
+      <c r="X100" s="11"/>
+      <c r="Y100" s="11"/>
+      <c r="Z100" s="11"/>
+    </row>
+    <row r="101" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D101" s="4"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-      <c r="M101" s="13"/>
-    </row>
-    <row r="107" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="108" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="19"/>
-      <c r="G108" s="19"/>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="19"/>
-      <c r="K108" s="19"/>
-      <c r="L108" s="19"/>
-      <c r="M108" s="20"/>
-    </row>
-    <row r="109" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="8" t="s">
+      <c r="K101" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="M101" s="4"/>
+      <c r="O101" s="11"/>
+      <c r="P101" s="11"/>
+      <c r="Q101" s="11"/>
+      <c r="R101" s="11"/>
+      <c r="S101" s="11"/>
+      <c r="T101" s="11"/>
+      <c r="U101" s="11"/>
+      <c r="V101" s="11"/>
+      <c r="W101" s="11"/>
+      <c r="X101" s="11"/>
+      <c r="Y101" s="11"/>
+      <c r="Z101" s="11"/>
+    </row>
+    <row r="102" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="O102" s="11"/>
+      <c r="P102" s="11"/>
+      <c r="Q102" s="11"/>
+      <c r="R102" s="11"/>
+      <c r="S102" s="11"/>
+      <c r="T102" s="11"/>
+      <c r="U102" s="11"/>
+      <c r="V102" s="11"/>
+      <c r="W102" s="11"/>
+      <c r="X102" s="11"/>
+      <c r="Y102" s="11"/>
+      <c r="Z102" s="11"/>
+    </row>
+    <row r="103" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="O103" s="11"/>
+      <c r="P103" s="11"/>
+      <c r="Q103" s="11"/>
+      <c r="R103" s="11"/>
+      <c r="S103" s="11"/>
+      <c r="T103" s="11"/>
+      <c r="U103" s="11"/>
+      <c r="V103" s="11"/>
+      <c r="W103" s="11"/>
+      <c r="X103" s="11"/>
+      <c r="Y103" s="11"/>
+      <c r="Z103" s="11"/>
+    </row>
+    <row r="104" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O104" s="11"/>
+      <c r="P104" s="11"/>
+      <c r="Q104" s="11"/>
+      <c r="R104" s="11"/>
+      <c r="S104" s="11"/>
+      <c r="T104" s="11"/>
+      <c r="U104" s="11"/>
+      <c r="V104" s="11"/>
+      <c r="W104" s="11"/>
+      <c r="X104" s="11"/>
+      <c r="Y104" s="11"/>
+      <c r="Z104" s="11"/>
+    </row>
+    <row r="105" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="O105" s="11"/>
+      <c r="P105" s="11"/>
+      <c r="Q105" s="11"/>
+      <c r="R105" s="11"/>
+      <c r="S105" s="11"/>
+      <c r="T105" s="11"/>
+      <c r="U105" s="11"/>
+      <c r="V105" s="11"/>
+      <c r="W105" s="11"/>
+      <c r="X105" s="11"/>
+      <c r="Y105" s="11"/>
+      <c r="Z105" s="11"/>
+    </row>
+    <row r="106" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B106" s="19" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="107" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B107" s="20" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="108" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B108" s="20" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="109" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B109" s="20" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="110" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B110" s="20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="111" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B111" s="20" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="112" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B112" s="20" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B113" s="20"/>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B114" s="20"/>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B115" s="20"/>
+    </row>
+    <row r="116" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="21"/>
+    </row>
+    <row r="122" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="C123" s="23"/>
+      <c r="D123" s="23"/>
+      <c r="E123" s="23"/>
+      <c r="F123" s="23"/>
+      <c r="G123" s="23"/>
+      <c r="H123" s="23"/>
+      <c r="I123" s="23"/>
+      <c r="J123" s="23"/>
+      <c r="K123" s="23"/>
+      <c r="L123" s="23"/>
+      <c r="M123" s="24"/>
+    </row>
+    <row r="124" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9" t="s">
+      <c r="C124" s="9"/>
+      <c r="D124" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E109" s="8" t="s">
+      <c r="E124" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9" t="s">
+      <c r="F124" s="9"/>
+      <c r="G124" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="H109" s="9" t="s">
+      <c r="H124" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K124" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L124" s="9"/>
+      <c r="M124" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7"/>
+      <c r="J125" s="7"/>
+      <c r="K125" s="7"/>
+      <c r="L125" s="7"/>
+      <c r="M125" s="7"/>
+    </row>
+    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B126" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I126" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="I109" s="9"/>
-      <c r="J109" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="K109" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="L109" s="9"/>
-      <c r="M109" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
-      <c r="K110" s="7"/>
-      <c r="L110" s="7"/>
-      <c r="M110" s="7"/>
-    </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B111" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="J111" s="1"/>
-      <c r="K111" s="1"/>
-      <c r="L111" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="M111" s="4"/>
-    </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B112" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E112" t="s">
-        <v>232</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
-      <c r="L112" t="s">
-        <v>235</v>
-      </c>
-      <c r="M112" s="4"/>
-    </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B113" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="M113" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B114" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
-      <c r="K114" s="1"/>
-      <c r="L114" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="M114" s="4"/>
-    </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B115" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
-      <c r="K115" s="1"/>
-      <c r="L115" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="M115" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B116" s="1"/>
-      <c r="C116" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
-      <c r="L116" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="M116" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B117" s="1"/>
-      <c r="C117" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
-      <c r="K117" s="1"/>
-      <c r="L117" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="M117" s="1"/>
-    </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B118" s="1"/>
-      <c r="C118" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
-      <c r="K118" s="1"/>
-      <c r="L118" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="M118" s="1"/>
-    </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B119" s="1"/>
-      <c r="C119" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
-      <c r="K119" s="1"/>
-      <c r="L119" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="M119" s="1"/>
-    </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B120" s="1"/>
-      <c r="C120" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
-      <c r="K120" s="1"/>
-      <c r="L120" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="M120" s="1"/>
-    </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B121" s="1"/>
-      <c r="C121" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
-      <c r="K121" s="1"/>
-      <c r="L121" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="M121" s="1"/>
-    </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B122" s="1"/>
-      <c r="C122" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
-      <c r="K122" s="1"/>
-      <c r="L122" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="M122" s="1"/>
-    </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B123" s="1"/>
-      <c r="C123" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
-      <c r="K123" s="1"/>
-      <c r="L123" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="M123" s="1"/>
-    </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B124" s="1"/>
-      <c r="C124" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
-      <c r="K124" s="1"/>
-      <c r="L124" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="M124" s="1"/>
-    </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
-      <c r="K125" s="1"/>
-      <c r="L125" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="M125" s="1"/>
-    </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
-      <c r="L126" s="1"/>
-      <c r="M126" s="1"/>
+      <c r="L126" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M126" s="4"/>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B127" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E127" t="s">
+        <v>226</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" t="s">
+        <v>229</v>
+      </c>
+      <c r="M127" s="4"/>
+    </row>
+    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B128" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M128" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B129" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M129" s="4"/>
+    </row>
+    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B130" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M130" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B131" s="1"/>
+      <c r="C131" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="M131" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B132" s="1"/>
+      <c r="C132" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M132" s="1"/>
+    </row>
+    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B133" s="1"/>
+      <c r="C133" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M133" s="1"/>
+    </row>
+    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B134" s="1"/>
+      <c r="C134" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M134" s="1"/>
+    </row>
+    <row r="135" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B135" s="1"/>
+      <c r="C135" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M135" s="1"/>
+    </row>
+    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B136" s="1"/>
+      <c r="C136" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="M136" s="1"/>
+    </row>
+    <row r="137" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B137" s="1"/>
+      <c r="C137" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M137" s="1"/>
+    </row>
+    <row r="138" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B138" s="1"/>
+      <c r="C138" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="M138" s="1"/>
+    </row>
+    <row r="139" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B139" s="1"/>
+      <c r="C139" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="M139" s="1"/>
+    </row>
+    <row r="140" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="M140" s="1"/>
+    </row>
+    <row r="141" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B108:M108"/>
     <mergeCell ref="B25:M25"/>
     <mergeCell ref="B59:M59"/>
-    <mergeCell ref="B83:M83"/>
+    <mergeCell ref="B84:M84"/>
+    <mergeCell ref="B123:M123"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasKonrad\Documents\GitHub\Maturaprojekt\Endgültiges\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D50B4A0-9567-481B-994C-AF2732C711DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59446C56-8AC8-4745-9B5C-88DA02B094E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="5325" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1479,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:Z141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3004,7 +3004,7 @@
       <c r="C71" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E71" s="1" t="s">

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\Endgültiges\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasKonrad\Documents\GitHub\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59446C56-8AC8-4745-9B5C-88DA02B094E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31E0642-058A-4DAB-B93E-5DBDBB10EAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
+    <workbookView xWindow="-28920" yWindow="1590" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="306">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -655,9 +655,6 @@
     <t>p2014</t>
   </si>
   <si>
-    <t>p2015</t>
-  </si>
-  <si>
     <t>a2001</t>
   </si>
   <si>
@@ -937,7 +934,25 @@
     <t>Solar-aufbau befest. Vorne_2 (oberer Teil)</t>
   </si>
   <si>
-    <t>spiegelteil p2014</t>
+    <t>BG vorne ausziehbar schelle</t>
+  </si>
+  <si>
+    <t>BG hinten ausziehbar schelle</t>
+  </si>
+  <si>
+    <t>Solarpanel mit befestigung</t>
+  </si>
+  <si>
+    <t>m6x60_1</t>
+  </si>
+  <si>
+    <t>m6x25_1</t>
+  </si>
+  <si>
+    <t>m6x20_1</t>
+  </si>
+  <si>
+    <t>Spiegel-BG a2006</t>
   </si>
 </sst>
 </file>
@@ -1479,8 +1494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:Z141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1826,7 +1841,7 @@
         <v>111</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>116</v>
@@ -1895,7 +1910,7 @@
         <v>85</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="1" t="s">
@@ -1939,7 +1954,7 @@
         <v>86</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="1" t="s">
@@ -1983,7 +1998,7 @@
         <v>113</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="1" t="s">
@@ -2330,7 +2345,7 @@
         <v>113</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>46</v>
@@ -2466,7 +2481,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>46</v>
@@ -2518,7 +2533,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>46</v>
@@ -2602,10 +2617,10 @@
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>46</v>
@@ -2681,7 +2696,7 @@
         <v>111</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9" t="s">
@@ -3219,7 +3234,7 @@
     <row r="83" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="84" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C84" s="23"/>
       <c r="D84" s="23"/>
@@ -3249,7 +3264,7 @@
         <v>111</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9" t="s">
@@ -3279,28 +3294,28 @@
     </row>
     <row r="87" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>192</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J87" s="4"/>
       <c r="K87" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>192</v>
@@ -3321,28 +3336,28 @@
     </row>
     <row r="88" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>193</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J88" s="4"/>
       <c r="K88" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>193</v>
@@ -3363,28 +3378,28 @@
     </row>
     <row r="89" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>194</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J89" s="4"/>
       <c r="K89" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>194</v>
@@ -3405,28 +3420,28 @@
     </row>
     <row r="90" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J90" s="4"/>
       <c r="K90" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>195</v>
@@ -3447,28 +3462,28 @@
     </row>
     <row r="91" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J91" s="4"/>
       <c r="K91" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>196</v>
@@ -3489,24 +3504,28 @@
     </row>
     <row r="92" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>197</v>
       </c>
       <c r="D92" s="2"/>
-      <c r="E92" s="1"/>
+      <c r="E92" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="F92" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
+        <v>211</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="H92" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="I92" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J92" s="1"/>
+        <v>211</v>
+      </c>
+      <c r="J92" s="4"/>
       <c r="K92" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>197</v>
@@ -3527,24 +3546,28 @@
     </row>
     <row r="93" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>198</v>
       </c>
       <c r="D93" s="2"/>
-      <c r="E93" s="1"/>
+      <c r="E93" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="F93" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
+        <v>212</v>
+      </c>
+      <c r="G93" s="2"/>
+      <c r="H93" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="I93" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="J93" s="1"/>
+        <v>212</v>
+      </c>
+      <c r="J93" s="4"/>
       <c r="K93" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>198</v>
@@ -3565,24 +3588,28 @@
     </row>
     <row r="94" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>199</v>
       </c>
       <c r="D94" s="2"/>
-      <c r="E94" s="1"/>
+      <c r="E94" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="F94" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
+        <v>213</v>
+      </c>
+      <c r="G94" s="2"/>
+      <c r="H94" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="I94" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="J94" s="1"/>
+        <v>213</v>
+      </c>
+      <c r="J94" s="4"/>
       <c r="K94" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L94" s="1" t="s">
         <v>199</v>
@@ -3603,24 +3630,28 @@
     </row>
     <row r="95" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D95" s="2"/>
-      <c r="E95" s="1"/>
+      <c r="E95" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="F95" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
+        <v>214</v>
+      </c>
+      <c r="G95" s="2"/>
+      <c r="H95" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="I95" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J95" s="1"/>
+        <v>214</v>
+      </c>
+      <c r="J95" s="4"/>
       <c r="K95" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>200</v>
@@ -3641,7 +3672,7 @@
     </row>
     <row r="96" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>201</v>
@@ -3649,16 +3680,16 @@
       <c r="D96" s="2"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J96" s="1"/>
       <c r="K96" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>201</v>
@@ -3679,7 +3710,7 @@
     </row>
     <row r="97" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>202</v>
@@ -3692,7 +3723,7 @@
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>202</v>
@@ -3713,7 +3744,7 @@
     </row>
     <row r="98" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>203</v>
@@ -3726,7 +3757,7 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L98" s="1" t="s">
         <v>203</v>
@@ -3747,7 +3778,7 @@
     </row>
     <row r="99" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>204</v>
@@ -3760,7 +3791,7 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>204</v>
@@ -3780,9 +3811,7 @@
       <c r="Z99" s="11"/>
     </row>
     <row r="100" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B100" s="1" t="s">
-        <v>299</v>
-      </c>
+      <c r="B100" s="1"/>
       <c r="C100" s="1" t="s">
         <v>205</v>
       </c>
@@ -3794,7 +3823,7 @@
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L100" s="1" t="s">
         <v>205</v>
@@ -3814,26 +3843,18 @@
       <c r="Z100" s="11"/>
     </row>
     <row r="101" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B101" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D101" s="4"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="13"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
-      <c r="K101" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="L101" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="M101" s="4"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="13"/>
       <c r="O101" s="11"/>
       <c r="P101" s="11"/>
       <c r="Q101" s="11"/>
@@ -3903,7 +3924,7 @@
     </row>
     <row r="105" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O105" s="11"/>
       <c r="P105" s="11"/>
@@ -3920,47 +3941,53 @@
     </row>
     <row r="106" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B106" s="19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="107" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B107" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="108" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B108" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="109" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B109" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="110" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B110" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="111" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B111" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="112" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B112" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B113" s="20"/>
+      <c r="B113" s="20" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B114" s="20"/>
+      <c r="B114" s="20" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B115" s="20"/>
+      <c r="B115" s="20" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="116" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="21"/>
@@ -3968,7 +3995,7 @@
     <row r="122" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="123" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B123" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C123" s="23"/>
       <c r="D123" s="23"/>
@@ -3998,7 +4025,7 @@
         <v>111</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9" t="s">
@@ -4028,83 +4055,83 @@
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="D126" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E126" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E126" s="1" t="s">
+      <c r="F126" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F126" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="G126" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M126" s="4"/>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="D127" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E127" t="s">
         <v>225</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E127" t="s">
+      <c r="F127" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="G127" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G127" s="4" t="s">
-        <v>228</v>
-      </c>
       <c r="H127" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
       <c r="L127" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M127" s="4"/>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="D128" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E128" s="1" t="s">
+      <c r="F128" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>46</v>
@@ -4114,7 +4141,7 @@
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
       <c r="L128" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M128" s="2" t="s">
         <v>46</v>
@@ -4122,19 +4149,19 @@
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="D129" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E129" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D129" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E129" s="1" t="s">
+      <c r="F129" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>46</v>
@@ -4144,23 +4171,23 @@
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
       <c r="L129" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M129" s="4"/>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
@@ -4168,7 +4195,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M130" s="4" t="s">
         <v>188</v>
@@ -4177,12 +4204,12 @@
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="C131" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
@@ -4190,7 +4217,7 @@
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
       <c r="L131" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M131" s="4" t="s">
         <v>188</v>
@@ -4199,12 +4226,12 @@
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
@@ -4212,19 +4239,19 @@
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M132" s="1"/>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
@@ -4232,19 +4259,19 @@
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M133" s="1"/>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
       <c r="C134" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
@@ -4252,19 +4279,19 @@
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M134" s="1"/>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B135" s="1"/>
       <c r="C135" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -4272,19 +4299,19 @@
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
       <c r="L135" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M135" s="1"/>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="C136" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
@@ -4292,19 +4319,19 @@
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
       <c r="L136" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M136" s="1"/>
     </row>
     <row r="137" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
       <c r="C137" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -4312,19 +4339,19 @@
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
       <c r="L137" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M137" s="1"/>
     </row>
     <row r="138" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="C138" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
@@ -4332,19 +4359,19 @@
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M138" s="1"/>
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
       <c r="C139" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
@@ -4352,7 +4379,7 @@
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
       <c r="L139" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M139" s="1"/>
     </row>
@@ -4368,7 +4395,7 @@
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
       <c r="L140" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M140" s="1"/>
     </row>

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasKonrad\Documents\GitHub\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31E0642-058A-4DAB-B93E-5DBDBB10EAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B38FB8B-DFBA-4A5D-B8FA-D3790F42253B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1590" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="306">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -1495,7 +1495,7 @@
   <dimension ref="B3:Z141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3811,7 +3811,9 @@
       <c r="Z99" s="11"/>
     </row>
     <row r="100" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
+      <c r="B100" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="C100" s="1" t="s">
         <v>205</v>
       </c>

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasKonrad\Documents\GitHub\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B38FB8B-DFBA-4A5D-B8FA-D3790F42253B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7E5428-BCB0-423B-B6F9-2B4E3E6339AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1590" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="307">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -904,9 +904,6 @@
     <t>Solar-aufbau befest. Hinten_2 (oberer Teil)</t>
   </si>
   <si>
-    <t>Richtige Dateinamen</t>
-  </si>
-  <si>
     <t>gleitbuchse1</t>
   </si>
   <si>
@@ -953,6 +950,12 @@
   </si>
   <si>
     <t>Spiegel-BG a2006</t>
+  </si>
+  <si>
+    <t>abdeckung_rohr</t>
+  </si>
+  <si>
+    <t>Zusätzliche Dateinamen</t>
   </si>
 </sst>
 </file>
@@ -1495,7 +1498,7 @@
   <dimension ref="B3:Z141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3511,14 +3514,14 @@
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>211</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>211</v>
@@ -3553,14 +3556,14 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>212</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>212</v>
@@ -3595,14 +3598,14 @@
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>213</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>213</v>
@@ -3637,14 +3640,14 @@
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>214</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>214</v>
@@ -3778,7 +3781,7 @@
     </row>
     <row r="99" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>204</v>
@@ -3791,7 +3794,7 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>204</v>
@@ -3812,7 +3815,7 @@
     </row>
     <row r="100" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>205</v>
@@ -3825,7 +3828,7 @@
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L100" s="1" t="s">
         <v>205</v>
@@ -3926,7 +3929,7 @@
     </row>
     <row r="105" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="18" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="O105" s="11"/>
       <c r="P105" s="11"/>
@@ -3943,56 +3946,58 @@
     </row>
     <row r="106" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B106" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="107" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B107" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="108" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B108" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="109" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B109" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="110" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B110" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="111" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B111" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="112" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B112" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="116" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="21"/>
+      <c r="B116" s="21" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="122" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="123" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasKonrad\Documents\GitHub\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7E5428-BCB0-423B-B6F9-2B4E3E6339AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AEF7E9-8941-40F5-AAFE-27C7768EA370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1590" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasKonrad\Documents\GitHub\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AEF7E9-8941-40F5-AAFE-27C7768EA370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB265F4-365A-400F-ABE9-63F63C77BF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
+    <workbookView xWindow="-28920" yWindow="1590" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="312">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -956,6 +956,21 @@
   </si>
   <si>
     <t>Zusätzliche Dateinamen</t>
+  </si>
+  <si>
+    <t>versteifung schräg</t>
+  </si>
+  <si>
+    <t>p2015</t>
+  </si>
+  <si>
+    <t>feder</t>
+  </si>
+  <si>
+    <t>bolzen_2</t>
+  </si>
+  <si>
+    <t>sicherung_2</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1048,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1115,19 +1130,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1170,8 +1172,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1181,6 +1181,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1497,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:Z141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1802,20 +1804,20 @@
       <c r="W24" s="11"/>
     </row>
     <row r="25" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="24"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="22"/>
       <c r="Q25" s="15"/>
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
@@ -2668,20 +2670,20 @@
     </row>
     <row r="58" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="23"/>
-      <c r="M59" s="24"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="22"/>
     </row>
     <row r="60" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
@@ -3236,20 +3238,20 @@
     </row>
     <row r="83" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="84" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="23"/>
-      <c r="J84" s="23"/>
-      <c r="K84" s="23"/>
-      <c r="L84" s="23"/>
-      <c r="M84" s="24"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="21"/>
+      <c r="M84" s="22"/>
     </row>
     <row r="85" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
@@ -3848,18 +3850,26 @@
       <c r="Z100" s="11"/>
     </row>
     <row r="101" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="13"/>
+      <c r="B101" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D101" s="2"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-      <c r="M101" s="13"/>
+      <c r="K101" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="M101" s="4"/>
       <c r="O101" s="11"/>
       <c r="P101" s="11"/>
       <c r="Q101" s="11"/>
@@ -3876,7 +3886,7 @@
     <row r="102" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
+      <c r="D102" s="13"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -3885,7 +3895,7 @@
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
+      <c r="M102" s="13"/>
       <c r="O102" s="11"/>
       <c r="P102" s="11"/>
       <c r="Q102" s="11"/>
@@ -3899,7 +3909,7 @@
       <c r="Y102" s="11"/>
       <c r="Z102" s="11"/>
     </row>
-    <row r="103" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O103" s="11"/>
       <c r="P103" s="11"/>
       <c r="Q103" s="11"/>
@@ -3914,6 +3924,9 @@
       <c r="Z103" s="11"/>
     </row>
     <row r="104" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="18" t="s">
+        <v>306</v>
+      </c>
       <c r="O104" s="11"/>
       <c r="P104" s="11"/>
       <c r="Q104" s="11"/>
@@ -3927,9 +3940,9 @@
       <c r="Y104" s="11"/>
       <c r="Z104" s="11"/>
     </row>
-    <row r="105" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="18" t="s">
-        <v>306</v>
+    <row r="105" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B105" s="19" t="s">
+        <v>289</v>
       </c>
       <c r="O105" s="11"/>
       <c r="P105" s="11"/>
@@ -3946,75 +3959,85 @@
     </row>
     <row r="106" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B106" s="19" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="107" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B107" s="20" t="s">
-        <v>290</v>
+      <c r="B107" s="19" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="108" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B108" s="20" t="s">
-        <v>291</v>
+      <c r="B108" s="19" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="109" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B109" s="20" t="s">
-        <v>292</v>
+      <c r="B109" s="19" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="110" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B110" s="20" t="s">
-        <v>293</v>
+      <c r="B110" s="19" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="111" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B111" s="20" t="s">
-        <v>294</v>
+      <c r="B111" s="19" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="112" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B112" s="20" t="s">
-        <v>295</v>
+      <c r="B112" s="19" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B113" s="20" t="s">
-        <v>301</v>
+      <c r="B113" s="19" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B114" s="20" t="s">
-        <v>302</v>
+      <c r="B114" s="19" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B115" s="20" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="116" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="21" t="s">
+      <c r="B115" s="19" t="s">
         <v>305</v>
+      </c>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B116" s="23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B117" s="23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="24" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="122" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="123" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="22" t="s">
+      <c r="B123" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="C123" s="23"/>
-      <c r="D123" s="23"/>
-      <c r="E123" s="23"/>
-      <c r="F123" s="23"/>
-      <c r="G123" s="23"/>
-      <c r="H123" s="23"/>
-      <c r="I123" s="23"/>
-      <c r="J123" s="23"/>
-      <c r="K123" s="23"/>
-      <c r="L123" s="23"/>
-      <c r="M123" s="24"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="21"/>
+      <c r="I123" s="21"/>
+      <c r="J123" s="21"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="21"/>
+      <c r="M123" s="22"/>
     </row>
     <row r="124" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasKonrad\Documents\GitHub\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB265F4-365A-400F-ABE9-63F63C77BF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A44353-4898-42FF-BBA8-025487BF2439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1590" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="314">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -971,6 +971,12 @@
   </si>
   <si>
     <t>sicherung_2</t>
+  </si>
+  <si>
+    <t>bolzen_3</t>
+  </si>
+  <si>
+    <t>sicherung_3</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1054,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1147,6 +1153,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1170,8 +1189,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1181,8 +1201,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1499,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:Z141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1804,20 +1823,20 @@
       <c r="W24" s="11"/>
     </row>
     <row r="25" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="23"/>
       <c r="Q25" s="15"/>
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
@@ -2670,20 +2689,20 @@
     </row>
     <row r="58" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="21"/>
-      <c r="M59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="23"/>
     </row>
     <row r="60" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
@@ -3238,20 +3257,20 @@
     </row>
     <row r="83" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="84" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="20" t="s">
+      <c r="B84" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="21"/>
-      <c r="I84" s="21"/>
-      <c r="J84" s="21"/>
-      <c r="K84" s="21"/>
-      <c r="L84" s="21"/>
-      <c r="M84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="23"/>
     </row>
     <row r="85" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
@@ -3924,7 +3943,7 @@
       <c r="Z103" s="11"/>
     </row>
     <row r="104" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="18" t="s">
+      <c r="B104" s="24" t="s">
         <v>306</v>
       </c>
       <c r="O104" s="11"/>
@@ -3941,7 +3960,7 @@
       <c r="Z104" s="11"/>
     </row>
     <row r="105" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B105" s="19" t="s">
+      <c r="B105" s="24" t="s">
         <v>289</v>
       </c>
       <c r="O105" s="11"/>
@@ -3958,86 +3977,101 @@
       <c r="Z105" s="11"/>
     </row>
     <row r="106" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B106" s="19" t="s">
+      <c r="B106" s="18" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="107" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B107" s="19" t="s">
+      <c r="B107" s="18" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="108" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B108" s="19" t="s">
+      <c r="B108" s="18" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="109" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B109" s="19" t="s">
+      <c r="B109" s="18" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="110" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B110" s="19" t="s">
+      <c r="B110" s="18" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="111" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B111" s="19" t="s">
+      <c r="B111" s="18" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="112" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B112" s="19" t="s">
+      <c r="B112" s="18" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B113" s="19" t="s">
+      <c r="B113" s="18" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B114" s="19" t="s">
+      <c r="B114" s="18" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B115" s="19" t="s">
+      <c r="B115" s="18" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B116" s="23" t="s">
+      <c r="B116" s="19" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B117" s="23" t="s">
+      <c r="B117" s="19" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="118" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="24" t="s">
+    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B118" s="19" t="s">
         <v>311</v>
+      </c>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B119" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B120" s="19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="121" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="20" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="122" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="123" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="20" t="s">
+      <c r="B123" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="C123" s="21"/>
-      <c r="D123" s="21"/>
-      <c r="E123" s="21"/>
-      <c r="F123" s="21"/>
-      <c r="G123" s="21"/>
-      <c r="H123" s="21"/>
-      <c r="I123" s="21"/>
-      <c r="J123" s="21"/>
-      <c r="K123" s="21"/>
-      <c r="L123" s="21"/>
-      <c r="M123" s="22"/>
+      <c r="C123" s="22"/>
+      <c r="D123" s="22"/>
+      <c r="E123" s="22"/>
+      <c r="F123" s="22"/>
+      <c r="G123" s="22"/>
+      <c r="H123" s="22"/>
+      <c r="I123" s="22"/>
+      <c r="J123" s="22"/>
+      <c r="K123" s="22"/>
+      <c r="L123" s="22"/>
+      <c r="M123" s="23"/>
     </row>
     <row r="124" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasKonrad\Documents\GitHub\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A44353-4898-42FF-BBA8-025487BF2439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB22C62-0F2B-4E9F-83E4-C82818AF6DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1590" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
@@ -1192,6 +1192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1201,7 +1202,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1518,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:Z141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G115" sqref="G115"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1823,20 +1823,20 @@
       <c r="W24" s="11"/>
     </row>
     <row r="25" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="24"/>
       <c r="Q25" s="15"/>
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
@@ -2689,20 +2689,20 @@
     </row>
     <row r="58" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="24"/>
     </row>
     <row r="60" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
@@ -3257,20 +3257,20 @@
     </row>
     <row r="83" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="84" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="21" t="s">
+      <c r="B84" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="22"/>
-      <c r="K84" s="22"/>
-      <c r="L84" s="22"/>
-      <c r="M84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="23"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="23"/>
+      <c r="M84" s="24"/>
     </row>
     <row r="85" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
@@ -3943,7 +3943,7 @@
       <c r="Z103" s="11"/>
     </row>
     <row r="104" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="24" t="s">
+      <c r="B104" s="21" t="s">
         <v>306</v>
       </c>
       <c r="O104" s="11"/>
@@ -3960,7 +3960,7 @@
       <c r="Z104" s="11"/>
     </row>
     <row r="105" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B105" s="24" t="s">
+      <c r="B105" s="21" t="s">
         <v>289</v>
       </c>
       <c r="O105" s="11"/>
@@ -4058,20 +4058,20 @@
     </row>
     <row r="122" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="123" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="21" t="s">
+      <c r="B123" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="C123" s="22"/>
-      <c r="D123" s="22"/>
-      <c r="E123" s="22"/>
-      <c r="F123" s="22"/>
-      <c r="G123" s="22"/>
-      <c r="H123" s="22"/>
-      <c r="I123" s="22"/>
-      <c r="J123" s="22"/>
-      <c r="K123" s="22"/>
-      <c r="L123" s="22"/>
-      <c r="M123" s="23"/>
+      <c r="C123" s="23"/>
+      <c r="D123" s="23"/>
+      <c r="E123" s="23"/>
+      <c r="F123" s="23"/>
+      <c r="G123" s="23"/>
+      <c r="H123" s="23"/>
+      <c r="I123" s="23"/>
+      <c r="J123" s="23"/>
+      <c r="K123" s="23"/>
+      <c r="L123" s="23"/>
+      <c r="M123" s="24"/>
     </row>
     <row r="124" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasKonrad\Documents\GitHub\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB22C62-0F2B-4E9F-83E4-C82818AF6DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60754162-5216-4FCB-9C14-F697DA87ADBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1590" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="319">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -977,6 +977,21 @@
   </si>
   <si>
     <t>sicherung_3</t>
+  </si>
+  <si>
+    <t>Kunststoffteil verdrehbar</t>
+  </si>
+  <si>
+    <t>stange zum verdrehen</t>
+  </si>
+  <si>
+    <t>verschraubplatte drehen</t>
+  </si>
+  <si>
+    <t>drehbar halterung</t>
+  </si>
+  <si>
+    <t>verdrehung fixierung</t>
   </si>
 </sst>
 </file>
@@ -1518,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:Z141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4249,7 +4264,9 @@
       <c r="D130" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E130" s="1"/>
+      <c r="E130" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="F130" s="1" t="s">
         <v>239</v>
       </c>
@@ -4266,11 +4283,13 @@
       </c>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B131" s="1"/>
+      <c r="B131" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="C131" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D131" s="1"/>
+      <c r="D131" s="2"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1" t="s">
         <v>241</v>
@@ -4288,11 +4307,13 @@
       </c>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B132" s="1"/>
+      <c r="B132" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="C132" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D132" s="1"/>
+      <c r="D132" s="2"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1" t="s">
         <v>243</v>
@@ -4308,11 +4329,13 @@
       <c r="M132" s="1"/>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B133" s="1"/>
+      <c r="B133" s="1" t="s">
+        <v>316</v>
+      </c>
       <c r="C133" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D133" s="1"/>
+      <c r="D133" s="2"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1" t="s">
         <v>245</v>
@@ -4328,11 +4351,13 @@
       <c r="M133" s="1"/>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B134" s="1"/>
+      <c r="B134" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="C134" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D134" s="1"/>
+      <c r="D134" s="2"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1" t="s">
         <v>247</v>

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasKonrad\Documents\GitHub\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60754162-5216-4FCB-9C14-F697DA87ADBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C2454E-BC51-46FC-B497-3C7F67B99439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1590" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
+    <workbookView xWindow="28680" yWindow="-3105" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="327">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -992,6 +992,30 @@
   </si>
   <si>
     <t>verdrehung fixierung</t>
+  </si>
+  <si>
+    <t>klemme als auflager Teil 1</t>
+  </si>
+  <si>
+    <t>klemme als auflager Teil 2</t>
+  </si>
+  <si>
+    <t>drehbare halterung neu</t>
+  </si>
+  <si>
+    <t>führungsring Teil 1</t>
+  </si>
+  <si>
+    <t>führungsring Teil 2</t>
+  </si>
+  <si>
+    <t>Verbindung Führung</t>
+  </si>
+  <si>
+    <t>p3015</t>
+  </si>
+  <si>
+    <t>p3016</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1037,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1065,6 +1089,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1185,28 +1221,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1217,6 +1246,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1531,10 +1562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
-  <dimension ref="B3:Z141"/>
+  <dimension ref="B3:X141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E119" sqref="E119"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,61 +1608,30 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="14"/>
+      <c r="W6" s="10"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="Q9" s="15"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="10"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="Q10" s="15"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="10"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="Q11" s="15"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="10"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -1643,13 +1643,10 @@
       <c r="D12" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="10"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -1661,14 +1658,11 @@
       <c r="D13" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="12"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="10"/>
+      <c r="X13" s="9"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -1680,16 +1674,10 @@
       <c r="D14" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="10"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -1701,15 +1689,10 @@
       <c r="D15" t="s">
         <v>48</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="10"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -1721,16 +1704,12 @@
       <c r="D16" t="s">
         <v>49</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Q16" s="11"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="10"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>55</v>
       </c>
@@ -1740,15 +1719,12 @@
       <c r="D17" t="s">
         <v>53</v>
       </c>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Q17" s="11"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="10"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>56</v>
       </c>
@@ -1758,175 +1734,141 @@
       <c r="D18" t="s">
         <v>54</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="Q19" s="15"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Q18" s="11"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="10"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q19" s="11"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="10"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E20" s="3"/>
       <c r="F20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Q20" s="11"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E21" s="2"/>
       <c r="F21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Q21" s="11"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="10"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E22" s="4"/>
       <c r="F22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="Q23" s="15"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-    </row>
-    <row r="24" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N24" s="6"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-    </row>
-    <row r="25" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="22" t="s">
+      <c r="Q22" s="11"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="10"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q23" s="11"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="10"/>
+    </row>
+    <row r="24" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q24" s="11"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="10"/>
+    </row>
+    <row r="25" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="24"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-    </row>
-    <row r="26" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="8" t="s">
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="17"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="10"/>
+    </row>
+    <row r="26" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="K26" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="L26" s="9" t="s">
+      <c r="L26" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="M26" s="10" t="s">
+      <c r="M26" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Q26" s="11"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="10"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="10"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>83</v>
       </c>
@@ -1962,15 +1904,12 @@
       <c r="N28" t="s">
         <v>108</v>
       </c>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Q28" s="11"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="10"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>84</v>
       </c>
@@ -2006,15 +1945,12 @@
       <c r="N29" t="s">
         <v>108</v>
       </c>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Q29" s="11"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="10"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
@@ -2049,15 +1985,12 @@
       <c r="M30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Q30" s="11"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="10"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
@@ -2089,7 +2022,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>9</v>
       </c>
@@ -2119,7 +2052,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
@@ -2149,7 +2082,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>12</v>
       </c>
@@ -2181,7 +2114,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>93</v>
       </c>
@@ -2211,7 +2144,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>78</v>
       </c>
@@ -2241,7 +2174,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>106</v>
       </c>
@@ -2272,9 +2205,8 @@
       <c r="M37" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N37" s="6"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>30</v>
       </c>
@@ -2306,7 +2238,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2338,7 +2270,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2370,7 +2302,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>33</v>
       </c>
@@ -2402,7 +2334,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2426,7 +2358,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>35</v>
       </c>
@@ -2452,7 +2384,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2476,7 +2408,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>81</v>
       </c>
@@ -2502,7 +2434,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>97</v>
       </c>
@@ -2526,7 +2458,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>98</v>
       </c>
@@ -2552,7 +2484,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>100</v>
       </c>
@@ -2704,64 +2636,64 @@
     </row>
     <row r="58" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="23"/>
-      <c r="M59" s="24"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="17"/>
     </row>
     <row r="60" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9" t="s">
+      <c r="C60" s="7"/>
+      <c r="D60" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9" t="s">
+      <c r="F60" s="7"/>
+      <c r="G60" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H60" s="9" t="s">
+      <c r="H60" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9" t="s">
+      <c r="I60" s="7"/>
+      <c r="J60" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K60" s="8" t="s">
+      <c r="K60" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="L60" s="9"/>
-      <c r="M60" s="10" t="s">
+      <c r="L60" s="7"/>
+      <c r="M60" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
@@ -2784,7 +2716,7 @@
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="13"/>
+      <c r="J62" s="1"/>
       <c r="K62" s="1" t="s">
         <v>151</v>
       </c>
@@ -2816,7 +2748,7 @@
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="13"/>
+      <c r="J63" s="1"/>
       <c r="K63" s="1" t="s">
         <v>162</v>
       </c>
@@ -2848,7 +2780,7 @@
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="13"/>
+      <c r="J64" s="1"/>
       <c r="K64" s="1" t="s">
         <v>159</v>
       </c>
@@ -2880,7 +2812,7 @@
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="13"/>
+      <c r="J65" s="1"/>
       <c r="K65" s="1" t="s">
         <v>160</v>
       </c>
@@ -2912,7 +2844,7 @@
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="13"/>
+      <c r="J66" s="1"/>
       <c r="K66" s="1" t="s">
         <v>152</v>
       </c>
@@ -3095,7 +3027,7 @@
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="13"/>
+      <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -3121,7 +3053,7 @@
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="13"/>
+      <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -3147,7 +3079,7 @@
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="13"/>
+      <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -3216,7 +3148,7 @@
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="13"/>
+      <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -3234,104 +3166,90 @@
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="13" t="s">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="L78" s="13"/>
+      <c r="L78" s="1"/>
       <c r="M78" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D79" s="11"/>
-      <c r="M79" s="11"/>
-    </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D80" s="11"/>
       <c r="G80" t="s">
         <v>123</v>
       </c>
-      <c r="M80" s="11"/>
-    </row>
-    <row r="81" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="D81" s="11"/>
-      <c r="M81" s="11"/>
-    </row>
-    <row r="82" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="D82" s="11"/>
-      <c r="M82" s="11"/>
-    </row>
-    <row r="83" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="84" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="22" t="s">
+    </row>
+    <row r="83" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="23"/>
-      <c r="J84" s="23"/>
-      <c r="K84" s="23"/>
-      <c r="L84" s="23"/>
-      <c r="M84" s="24"/>
-    </row>
-    <row r="85" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="8" t="s">
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="16"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="17"/>
+    </row>
+    <row r="85" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9" t="s">
+      <c r="C85" s="7"/>
+      <c r="D85" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9" t="s">
+      <c r="F85" s="7"/>
+      <c r="G85" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H85" s="9" t="s">
+      <c r="H85" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="I85" s="9"/>
-      <c r="J85" s="9" t="s">
+      <c r="I85" s="7"/>
+      <c r="J85" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K85" s="8" t="s">
+      <c r="K85" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="L85" s="9"/>
-      <c r="M85" s="10" t="s">
+      <c r="L85" s="7"/>
+      <c r="M85" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="86" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
-      <c r="M86" s="7"/>
-    </row>
-    <row r="87" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>273</v>
       </c>
@@ -3360,20 +3278,8 @@
         <v>192</v>
       </c>
       <c r="M87" s="4"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
-      <c r="R87" s="17"/>
-      <c r="S87" s="17"/>
-      <c r="T87" s="17"/>
-      <c r="U87" s="17"/>
-      <c r="V87" s="17"/>
-      <c r="W87" s="17"/>
-      <c r="X87" s="17"/>
-      <c r="Y87" s="17"/>
-      <c r="Z87" s="17"/>
-    </row>
-    <row r="88" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>274</v>
       </c>
@@ -3402,20 +3308,8 @@
         <v>193</v>
       </c>
       <c r="M88" s="4"/>
-      <c r="O88" s="11"/>
-      <c r="P88" s="11"/>
-      <c r="Q88" s="11"/>
-      <c r="R88" s="11"/>
-      <c r="S88" s="11"/>
-      <c r="T88" s="11"/>
-      <c r="U88" s="11"/>
-      <c r="V88" s="11"/>
-      <c r="W88" s="11"/>
-      <c r="X88" s="11"/>
-      <c r="Y88" s="11"/>
-      <c r="Z88" s="11"/>
-    </row>
-    <row r="89" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>276</v>
       </c>
@@ -3444,20 +3338,8 @@
         <v>194</v>
       </c>
       <c r="M89" s="4"/>
-      <c r="O89" s="11"/>
-      <c r="P89" s="11"/>
-      <c r="Q89" s="11"/>
-      <c r="R89" s="11"/>
-      <c r="S89" s="11"/>
-      <c r="T89" s="11"/>
-      <c r="U89" s="11"/>
-      <c r="V89" s="11"/>
-      <c r="W89" s="11"/>
-      <c r="X89" s="11"/>
-      <c r="Y89" s="11"/>
-      <c r="Z89" s="11"/>
-    </row>
-    <row r="90" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>278</v>
       </c>
@@ -3486,20 +3368,8 @@
         <v>195</v>
       </c>
       <c r="M90" s="4"/>
-      <c r="O90" s="11"/>
-      <c r="P90" s="11"/>
-      <c r="Q90" s="11"/>
-      <c r="R90" s="11"/>
-      <c r="S90" s="11"/>
-      <c r="T90" s="11"/>
-      <c r="U90" s="11"/>
-      <c r="V90" s="11"/>
-      <c r="W90" s="11"/>
-      <c r="X90" s="11"/>
-      <c r="Y90" s="11"/>
-      <c r="Z90" s="11"/>
-    </row>
-    <row r="91" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>280</v>
       </c>
@@ -3528,20 +3398,8 @@
         <v>196</v>
       </c>
       <c r="M91" s="4"/>
-      <c r="O91" s="11"/>
-      <c r="P91" s="11"/>
-      <c r="Q91" s="11"/>
-      <c r="R91" s="11"/>
-      <c r="S91" s="11"/>
-      <c r="T91" s="11"/>
-      <c r="U91" s="11"/>
-      <c r="V91" s="11"/>
-      <c r="W91" s="11"/>
-      <c r="X91" s="11"/>
-      <c r="Y91" s="11"/>
-      <c r="Z91" s="11"/>
-    </row>
-    <row r="92" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>282</v>
       </c>
@@ -3570,20 +3428,8 @@
         <v>197</v>
       </c>
       <c r="M92" s="4"/>
-      <c r="O92" s="11"/>
-      <c r="P92" s="11"/>
-      <c r="Q92" s="11"/>
-      <c r="R92" s="11"/>
-      <c r="S92" s="11"/>
-      <c r="T92" s="11"/>
-      <c r="U92" s="11"/>
-      <c r="V92" s="11"/>
-      <c r="W92" s="11"/>
-      <c r="X92" s="11"/>
-      <c r="Y92" s="11"/>
-      <c r="Z92" s="11"/>
-    </row>
-    <row r="93" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>283</v>
       </c>
@@ -3612,20 +3458,8 @@
         <v>198</v>
       </c>
       <c r="M93" s="4"/>
-      <c r="O93" s="11"/>
-      <c r="P93" s="11"/>
-      <c r="Q93" s="11"/>
-      <c r="R93" s="11"/>
-      <c r="S93" s="11"/>
-      <c r="T93" s="11"/>
-      <c r="U93" s="11"/>
-      <c r="V93" s="11"/>
-      <c r="W93" s="11"/>
-      <c r="X93" s="11"/>
-      <c r="Y93" s="11"/>
-      <c r="Z93" s="11"/>
-    </row>
-    <row r="94" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>284</v>
       </c>
@@ -3654,20 +3488,8 @@
         <v>199</v>
       </c>
       <c r="M94" s="4"/>
-      <c r="O94" s="11"/>
-      <c r="P94" s="11"/>
-      <c r="Q94" s="11"/>
-      <c r="R94" s="11"/>
-      <c r="S94" s="11"/>
-      <c r="T94" s="11"/>
-      <c r="U94" s="11"/>
-      <c r="V94" s="11"/>
-      <c r="W94" s="11"/>
-      <c r="X94" s="11"/>
-      <c r="Y94" s="11"/>
-      <c r="Z94" s="11"/>
-    </row>
-    <row r="95" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>285</v>
       </c>
@@ -3696,20 +3518,8 @@
         <v>200</v>
       </c>
       <c r="M95" s="4"/>
-      <c r="O95" s="11"/>
-      <c r="P95" s="11"/>
-      <c r="Q95" s="11"/>
-      <c r="R95" s="11"/>
-      <c r="S95" s="11"/>
-      <c r="T95" s="11"/>
-      <c r="U95" s="11"/>
-      <c r="V95" s="11"/>
-      <c r="W95" s="11"/>
-      <c r="X95" s="11"/>
-      <c r="Y95" s="11"/>
-      <c r="Z95" s="11"/>
-    </row>
-    <row r="96" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>286</v>
       </c>
@@ -3734,20 +3544,8 @@
         <v>201</v>
       </c>
       <c r="M96" s="4"/>
-      <c r="O96" s="11"/>
-      <c r="P96" s="11"/>
-      <c r="Q96" s="11"/>
-      <c r="R96" s="11"/>
-      <c r="S96" s="11"/>
-      <c r="T96" s="11"/>
-      <c r="U96" s="11"/>
-      <c r="V96" s="11"/>
-      <c r="W96" s="11"/>
-      <c r="X96" s="11"/>
-      <c r="Y96" s="11"/>
-      <c r="Z96" s="11"/>
-    </row>
-    <row r="97" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>287</v>
       </c>
@@ -3768,20 +3566,8 @@
         <v>202</v>
       </c>
       <c r="M97" s="4"/>
-      <c r="O97" s="11"/>
-      <c r="P97" s="11"/>
-      <c r="Q97" s="11"/>
-      <c r="R97" s="11"/>
-      <c r="S97" s="11"/>
-      <c r="T97" s="11"/>
-      <c r="U97" s="11"/>
-      <c r="V97" s="11"/>
-      <c r="W97" s="11"/>
-      <c r="X97" s="11"/>
-      <c r="Y97" s="11"/>
-      <c r="Z97" s="11"/>
-    </row>
-    <row r="98" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>288</v>
       </c>
@@ -3802,20 +3588,8 @@
         <v>203</v>
       </c>
       <c r="M98" s="4"/>
-      <c r="O98" s="11"/>
-      <c r="P98" s="11"/>
-      <c r="Q98" s="11"/>
-      <c r="R98" s="11"/>
-      <c r="S98" s="11"/>
-      <c r="T98" s="11"/>
-      <c r="U98" s="11"/>
-      <c r="V98" s="11"/>
-      <c r="W98" s="11"/>
-      <c r="X98" s="11"/>
-      <c r="Y98" s="11"/>
-      <c r="Z98" s="11"/>
-    </row>
-    <row r="99" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>296</v>
       </c>
@@ -3836,20 +3610,8 @@
         <v>204</v>
       </c>
       <c r="M99" s="4"/>
-      <c r="O99" s="11"/>
-      <c r="P99" s="11"/>
-      <c r="Q99" s="11"/>
-      <c r="R99" s="11"/>
-      <c r="S99" s="11"/>
-      <c r="T99" s="11"/>
-      <c r="U99" s="11"/>
-      <c r="V99" s="11"/>
-      <c r="W99" s="11"/>
-      <c r="X99" s="11"/>
-      <c r="Y99" s="11"/>
-      <c r="Z99" s="11"/>
-    </row>
-    <row r="100" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>297</v>
       </c>
@@ -3870,20 +3632,8 @@
         <v>205</v>
       </c>
       <c r="M100" s="4"/>
-      <c r="O100" s="11"/>
-      <c r="P100" s="11"/>
-      <c r="Q100" s="11"/>
-      <c r="R100" s="11"/>
-      <c r="S100" s="11"/>
-      <c r="T100" s="11"/>
-      <c r="U100" s="11"/>
-      <c r="V100" s="11"/>
-      <c r="W100" s="11"/>
-      <c r="X100" s="11"/>
-      <c r="Y100" s="11"/>
-      <c r="Z100" s="11"/>
-    </row>
-    <row r="101" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>307</v>
       </c>
@@ -3904,23 +3654,11 @@
         <v>308</v>
       </c>
       <c r="M101" s="4"/>
-      <c r="O101" s="11"/>
-      <c r="P101" s="11"/>
-      <c r="Q101" s="11"/>
-      <c r="R101" s="11"/>
-      <c r="S101" s="11"/>
-      <c r="T101" s="11"/>
-      <c r="U101" s="11"/>
-      <c r="V101" s="11"/>
-      <c r="W101" s="11"/>
-      <c r="X101" s="11"/>
-      <c r="Y101" s="11"/>
-      <c r="Z101" s="11"/>
-    </row>
-    <row r="102" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="13"/>
+      <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -3929,208 +3667,159 @@
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
-      <c r="M102" s="13"/>
-      <c r="O102" s="11"/>
-      <c r="P102" s="11"/>
-      <c r="Q102" s="11"/>
-      <c r="R102" s="11"/>
-      <c r="S102" s="11"/>
-      <c r="T102" s="11"/>
-      <c r="U102" s="11"/>
-      <c r="V102" s="11"/>
-      <c r="W102" s="11"/>
-      <c r="X102" s="11"/>
-      <c r="Y102" s="11"/>
-      <c r="Z102" s="11"/>
-    </row>
-    <row r="103" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O103" s="11"/>
-      <c r="P103" s="11"/>
-      <c r="Q103" s="11"/>
-      <c r="R103" s="11"/>
-      <c r="S103" s="11"/>
-      <c r="T103" s="11"/>
-      <c r="U103" s="11"/>
-      <c r="V103" s="11"/>
-      <c r="W103" s="11"/>
-      <c r="X103" s="11"/>
-      <c r="Y103" s="11"/>
-      <c r="Z103" s="11"/>
-    </row>
-    <row r="104" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="21" t="s">
+      <c r="M102" s="1"/>
+    </row>
+    <row r="103" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="104" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="O104" s="11"/>
-      <c r="P104" s="11"/>
-      <c r="Q104" s="11"/>
-      <c r="R104" s="11"/>
-      <c r="S104" s="11"/>
-      <c r="T104" s="11"/>
-      <c r="U104" s="11"/>
-      <c r="V104" s="11"/>
-      <c r="W104" s="11"/>
-      <c r="X104" s="11"/>
-      <c r="Y104" s="11"/>
-      <c r="Z104" s="11"/>
-    </row>
-    <row r="105" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B105" s="21" t="s">
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B105" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="O105" s="11"/>
-      <c r="P105" s="11"/>
-      <c r="Q105" s="11"/>
-      <c r="R105" s="11"/>
-      <c r="S105" s="11"/>
-      <c r="T105" s="11"/>
-      <c r="U105" s="11"/>
-      <c r="V105" s="11"/>
-      <c r="W105" s="11"/>
-      <c r="X105" s="11"/>
-      <c r="Y105" s="11"/>
-      <c r="Z105" s="11"/>
-    </row>
-    <row r="106" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B106" s="18" t="s">
+    </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B106" s="12" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="107" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B107" s="18" t="s">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B107" s="12" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="108" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B108" s="18" t="s">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B108" s="12" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="109" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B109" s="18" t="s">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B109" s="12" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="110" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B110" s="18" t="s">
+    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B110" s="12" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="111" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B111" s="18" t="s">
+    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B111" s="12" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="112" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B112" s="18" t="s">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B112" s="12" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B113" s="18" t="s">
+      <c r="B113" s="12" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B114" s="18" t="s">
+      <c r="B114" s="12" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B115" s="18" t="s">
+      <c r="B115" s="12" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B116" s="19" t="s">
+      <c r="B116" s="12" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B117" s="19" t="s">
+      <c r="B117" s="12" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B118" s="19" t="s">
+      <c r="B118" s="12" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B119" s="19" t="s">
+      <c r="B119" s="12" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B120" s="19" t="s">
+      <c r="B120" s="12" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="121" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="20" t="s">
+      <c r="B121" s="13" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="122" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="123" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="22" t="s">
+      <c r="B123" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="C123" s="23"/>
-      <c r="D123" s="23"/>
-      <c r="E123" s="23"/>
-      <c r="F123" s="23"/>
-      <c r="G123" s="23"/>
-      <c r="H123" s="23"/>
-      <c r="I123" s="23"/>
-      <c r="J123" s="23"/>
-      <c r="K123" s="23"/>
-      <c r="L123" s="23"/>
-      <c r="M123" s="24"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="16"/>
+      <c r="H123" s="16"/>
+      <c r="I123" s="16"/>
+      <c r="J123" s="16"/>
+      <c r="K123" s="16"/>
+      <c r="L123" s="16"/>
+      <c r="M123" s="17"/>
     </row>
     <row r="124" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9" t="s">
+      <c r="C124" s="7"/>
+      <c r="D124" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E124" s="8" t="s">
+      <c r="E124" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9" t="s">
+      <c r="F124" s="7"/>
+      <c r="G124" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H124" s="9" t="s">
+      <c r="H124" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="I124" s="9"/>
-      <c r="J124" s="9" t="s">
+      <c r="I124" s="7"/>
+      <c r="J124" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K124" s="8" t="s">
+      <c r="K124" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="L124" s="9"/>
-      <c r="M124" s="10" t="s">
+      <c r="L124" s="7"/>
+      <c r="M124" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="7"/>
-      <c r="I125" s="7"/>
-      <c r="J125" s="7"/>
-      <c r="K125" s="7"/>
-      <c r="L125" s="7"/>
-      <c r="M125" s="7"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="5"/>
+      <c r="M125" s="5"/>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
@@ -4270,7 +3959,7 @@
       <c r="F130" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G130" s="1"/>
+      <c r="G130" s="18"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
@@ -4289,12 +3978,14 @@
       <c r="C131" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D131" s="2"/>
-      <c r="E131" s="1"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="1" t="s">
+        <v>321</v>
+      </c>
       <c r="F131" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G131" s="1"/>
+      <c r="G131" s="2"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
@@ -4313,7 +4004,7 @@
       <c r="C132" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D132" s="2"/>
+      <c r="D132" s="18"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1" t="s">
         <v>243</v>
@@ -4335,7 +4026,7 @@
       <c r="C133" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D133" s="2"/>
+      <c r="D133" s="18"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1" t="s">
         <v>245</v>
@@ -4357,7 +4048,7 @@
       <c r="C134" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D134" s="2"/>
+      <c r="D134" s="18"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1" t="s">
         <v>247</v>
@@ -4373,11 +4064,13 @@
       <c r="M134" s="1"/>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B135" s="1"/>
+      <c r="B135" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="C135" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D135" s="1"/>
+      <c r="D135" s="19"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1" t="s">
         <v>249</v>
@@ -4393,11 +4086,13 @@
       <c r="M135" s="1"/>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B136" s="1"/>
+      <c r="B136" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="C136" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D136" s="1"/>
+      <c r="D136" s="19"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1" t="s">
         <v>251</v>
@@ -4413,11 +4108,13 @@
       <c r="M136" s="1"/>
     </row>
     <row r="137" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B137" s="1"/>
+      <c r="B137" s="1" t="s">
+        <v>322</v>
+      </c>
       <c r="C137" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D137" s="1"/>
+      <c r="D137" s="2"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1" t="s">
         <v>253</v>
@@ -4433,11 +4130,13 @@
       <c r="M137" s="1"/>
     </row>
     <row r="138" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B138" s="1"/>
+      <c r="B138" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="C138" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D138" s="1"/>
+      <c r="D138" s="2"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1" t="s">
         <v>255</v>
@@ -4453,11 +4152,13 @@
       <c r="M138" s="1"/>
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B139" s="1"/>
+      <c r="B139" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="C139" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D139" s="1"/>
+      <c r="D139" s="2"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1" t="s">
         <v>257</v>
@@ -4473,9 +4174,13 @@
       <c r="M139" s="1"/>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
+      <c r="B140" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D140" s="2"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
@@ -4490,7 +4195,9 @@
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
+      <c r="C141" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasKonrad\Documents\GitHub\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C2454E-BC51-46FC-B497-3C7F67B99439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A8998C-6020-4C3C-8998-5A52991809CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3105" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="328">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -1006,9 +1006,6 @@
     <t>führungsring Teil 1</t>
   </si>
   <si>
-    <t>führungsring Teil 2</t>
-  </si>
-  <si>
     <t>Verbindung Führung</t>
   </si>
   <si>
@@ -1016,6 +1013,12 @@
   </si>
   <si>
     <t>p3016</t>
+  </si>
+  <si>
+    <t>führungsring</t>
+  </si>
+  <si>
+    <t>Windgenerator halterung drehen</t>
   </si>
 </sst>
 </file>
@@ -1237,6 +1240,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1246,8 +1251,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1565,7 +1568,7 @@
   <dimension ref="B3:X141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D145" sqref="D145"/>
+      <selection activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1789,20 +1792,20 @@
       <c r="T24" s="10"/>
     </row>
     <row r="25" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="19"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
@@ -2636,20 +2639,20 @@
     </row>
     <row r="58" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="17"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="19"/>
     </row>
     <row r="60" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="6" t="s">
@@ -3190,20 +3193,20 @@
     </row>
     <row r="83" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="84" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="16"/>
-      <c r="L84" s="16"/>
-      <c r="M84" s="17"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="19"/>
     </row>
     <row r="85" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="6" t="s">
@@ -3762,20 +3765,20 @@
     </row>
     <row r="122" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="123" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="15" t="s">
+      <c r="B123" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="C123" s="16"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="16"/>
-      <c r="F123" s="16"/>
-      <c r="G123" s="16"/>
-      <c r="H123" s="16"/>
-      <c r="I123" s="16"/>
-      <c r="J123" s="16"/>
-      <c r="K123" s="16"/>
-      <c r="L123" s="16"/>
-      <c r="M123" s="17"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="18"/>
+      <c r="H123" s="18"/>
+      <c r="I123" s="18"/>
+      <c r="J123" s="18"/>
+      <c r="K123" s="18"/>
+      <c r="L123" s="18"/>
+      <c r="M123" s="19"/>
     </row>
     <row r="124" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B124" s="6" t="s">
@@ -3959,7 +3962,7 @@
       <c r="F130" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G130" s="18"/>
+      <c r="G130" s="15"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
@@ -3978,7 +3981,7 @@
       <c r="C131" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D131" s="18"/>
+      <c r="D131" s="15"/>
       <c r="E131" s="1" t="s">
         <v>321</v>
       </c>
@@ -4004,7 +4007,7 @@
       <c r="C132" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D132" s="18"/>
+      <c r="D132" s="15"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1" t="s">
         <v>243</v>
@@ -4026,7 +4029,7 @@
       <c r="C133" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D133" s="18"/>
+      <c r="D133" s="15"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1" t="s">
         <v>245</v>
@@ -4048,7 +4051,7 @@
       <c r="C134" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D134" s="18"/>
+      <c r="D134" s="15"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1" t="s">
         <v>247</v>
@@ -4070,7 +4073,7 @@
       <c r="C135" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D135" s="19"/>
+      <c r="D135" s="16"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1" t="s">
         <v>249</v>
@@ -4092,7 +4095,7 @@
       <c r="C136" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D136" s="19"/>
+      <c r="D136" s="16"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1" t="s">
         <v>251</v>
@@ -4114,7 +4117,7 @@
       <c r="C137" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D137" s="2"/>
+      <c r="D137" s="15"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1" t="s">
         <v>253</v>
@@ -4131,7 +4134,7 @@
     </row>
     <row r="138" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>254</v>
@@ -4153,7 +4156,7 @@
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>256</v>
@@ -4178,7 +4181,7 @@
         <v>315</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="1"/>
@@ -4194,11 +4197,13 @@
       <c r="M140" s="1"/>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B141" s="1"/>
+      <c r="B141" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="C141" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D141" s="1"/>
+        <v>325</v>
+      </c>
+      <c r="D141" s="2"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasKonrad\Documents\GitHub\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A8998C-6020-4C3C-8998-5A52991809CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B59BF38-E3E0-49BE-AF81-5232D98073AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
+    <workbookView xWindow="28680" yWindow="-3105" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="333">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -1006,19 +1006,34 @@
     <t>führungsring Teil 1</t>
   </si>
   <si>
-    <t>Verbindung Führung</t>
-  </si>
-  <si>
     <t>p3015</t>
   </si>
   <si>
     <t>p3016</t>
   </si>
   <si>
-    <t>führungsring</t>
-  </si>
-  <si>
     <t>Windgenerator halterung drehen</t>
+  </si>
+  <si>
+    <t>führung oben</t>
+  </si>
+  <si>
+    <t>Verbindung Führung oben</t>
+  </si>
+  <si>
+    <t>stange-verbindung</t>
+  </si>
+  <si>
+    <t>p3017</t>
+  </si>
+  <si>
+    <t>p3018</t>
+  </si>
+  <si>
+    <t>p3019</t>
+  </si>
+  <si>
+    <t>Drehgriff</t>
   </si>
 </sst>
 </file>
@@ -1565,10 +1580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
-  <dimension ref="B3:X141"/>
+  <dimension ref="B3:X144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E148" sqref="E148"/>
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4156,7 +4171,7 @@
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>256</v>
@@ -4178,10 +4193,10 @@
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="1"/>
@@ -4198,10 +4213,10 @@
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="1"/>
@@ -4213,6 +4228,56 @@
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
+    </row>
+    <row r="142" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B142" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+    </row>
+    <row r="143" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B143" s="1"/>
+      <c r="C143" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+    </row>
+    <row r="144" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B144" s="1"/>
+      <c r="C144" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasKonrad\Documents\GitHub\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B59BF38-E3E0-49BE-AF81-5232D98073AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AD04A6-D216-49CE-9AFC-9A70F4C149F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-3105" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasKonrad\Documents\GitHub\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AD04A6-D216-49CE-9AFC-9A70F4C149F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73DF7A2-954F-401C-BE88-29CD9F65AD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-3105" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="342">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -1034,6 +1034,33 @@
   </si>
   <si>
     <t>Drehgriff</t>
+  </si>
+  <si>
+    <t>p0016_S_K_L</t>
+  </si>
+  <si>
+    <t>Längsverbinder lang BB</t>
+  </si>
+  <si>
+    <t>Längsverbinder kurz BB</t>
+  </si>
+  <si>
+    <t>p0017_S_K_L</t>
+  </si>
+  <si>
+    <t>p0015_S_K_L</t>
+  </si>
+  <si>
+    <t>p0014_S_K_L</t>
+  </si>
+  <si>
+    <t>p0012_S_K_L</t>
+  </si>
+  <si>
+    <t>Querverbinder außen</t>
+  </si>
+  <si>
+    <t>p0013_S_K_L</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1235,11 +1262,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1264,6 +1311,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1582,8 +1636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:X144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,7 +1652,7 @@
     <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
     <col min="13" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.28515625" customWidth="1"/>
@@ -2652,114 +2706,135 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K54" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L54" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K55" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K56" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K57" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K58" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L58" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
     <row r="59" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="17" t="s">
+      <c r="K59" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="19"/>
-    </row>
-    <row r="60" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="6" t="s">
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="22"/>
+    </row>
+    <row r="61" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7" t="s">
+      <c r="C61" s="7"/>
+      <c r="D61" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E61" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7" t="s">
+      <c r="F61" s="7"/>
+      <c r="G61" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="H61" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7" t="s">
+      <c r="I61" s="7"/>
+      <c r="J61" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K60" s="6" t="s">
+      <c r="K61" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="L60" s="7"/>
-      <c r="M60" s="8" t="s">
+      <c r="L61" s="7"/>
+      <c r="M61" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-    </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>46</v>
@@ -2768,10 +2843,10 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M63" s="3" t="s">
         <v>46</v>
@@ -2779,19 +2854,19 @@
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>46</v>
@@ -2800,10 +2875,10 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M64" s="3" t="s">
         <v>46</v>
@@ -2811,19 +2886,19 @@
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>46</v>
@@ -2832,10 +2907,10 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M65" s="3" t="s">
         <v>46</v>
@@ -2843,19 +2918,19 @@
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>46</v>
@@ -2864,10 +2939,10 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>46</v>
@@ -2875,19 +2950,19 @@
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>46</v>
@@ -2896,10 +2971,10 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M67" s="3" t="s">
         <v>46</v>
@@ -2907,19 +2982,19 @@
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>46</v>
@@ -2928,10 +3003,10 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="M68" s="3" t="s">
         <v>46</v>
@@ -2939,19 +3014,19 @@
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>46</v>
@@ -2963,7 +3038,7 @@
         <v>166</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M69" s="3" t="s">
         <v>46</v>
@@ -2971,19 +3046,19 @@
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>46</v>
@@ -2995,7 +3070,7 @@
         <v>166</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M70" s="3" t="s">
         <v>46</v>
@@ -3003,19 +3078,19 @@
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D71" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>46</v>
@@ -3024,10 +3099,10 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="M71" s="3" t="s">
         <v>46</v>
@@ -3035,25 +3110,31 @@
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>46</v>
@@ -3061,10 +3142,10 @@
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>46</v>
@@ -3076,21 +3157,21 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="M73" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="M73" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>46</v>
@@ -3102,21 +3183,21 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="M74" s="4" t="s">
-        <v>188</v>
+        <v>180</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>46</v>
@@ -3128,10 +3209,10 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M75" s="4" t="s">
         <v>188</v>
@@ -3139,10 +3220,10 @@
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>46</v>
@@ -3154,19 +3235,25 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>46</v>
+        <v>182</v>
+      </c>
+      <c r="M76" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="B77" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -3174,10 +3261,10 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M77" s="3" t="s">
         <v>46</v>
@@ -3194,10 +3281,30 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="L78" s="1"/>
-      <c r="M78" s="4" t="s">
+      <c r="L79" s="1"/>
+      <c r="M79" s="4" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4282,7 +4389,7 @@
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B25:M25"/>
-    <mergeCell ref="B59:M59"/>
+    <mergeCell ref="B60:M60"/>
     <mergeCell ref="B84:M84"/>
     <mergeCell ref="B123:M123"/>
   </mergeCells>

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasKonrad\Documents\GitHub\Maturaprojekt\Endgültiges\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_Diplo\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73DF7A2-954F-401C-BE88-29CD9F65AD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8B4800-B8D6-4030-9D60-9644E206EB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3105" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1150,7 +1150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1262,31 +1262,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1311,13 +1291,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1636,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:X144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2090,7 +2063,7 @@
       <c r="L31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="M31" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2120,7 +2093,7 @@
       <c r="L32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="M32" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2150,7 +2123,7 @@
       <c r="L33" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="M33" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2182,7 +2155,7 @@
       <c r="L34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="M34" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2212,7 +2185,7 @@
       <c r="L35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="M35" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2242,7 +2215,7 @@
       <c r="L36" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="M36" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2402,7 +2375,7 @@
       <c r="L41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="M41" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2426,7 +2399,7 @@
       <c r="L42" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="M42" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2452,7 +2425,7 @@
       <c r="L43" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="M43" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2476,7 +2449,7 @@
       <c r="L44" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="M44" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2502,7 +2475,7 @@
       <c r="L45" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="M45" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2526,7 +2499,7 @@
       <c r="L46" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="M46" s="3" t="s">
+      <c r="M46" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2552,7 +2525,7 @@
       <c r="L47" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="M47" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2578,7 +2551,7 @@
       <c r="L48" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="M48" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2604,7 +2577,7 @@
       <c r="L49" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="M49" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2628,7 +2601,7 @@
       <c r="L50" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="M50" s="3" t="s">
+      <c r="M50" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2654,7 +2627,7 @@
       <c r="L51" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="M51" s="3" t="s">
+      <c r="M51" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2682,7 +2655,7 @@
       <c r="L52" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="M52" s="3" t="s">
+      <c r="M52" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2707,16 +2680,16 @@
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K54" s="20" t="s">
+      <c r="K54" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L54" s="20" t="s">
+      <c r="L54" s="1" t="s">
         <v>333</v>
       </c>
       <c r="M54" s="3"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K55" s="20" t="s">
+      <c r="K55" s="1" t="s">
         <v>334</v>
       </c>
       <c r="L55" s="1" t="s">
@@ -2725,7 +2698,7 @@
       <c r="M55" s="3"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K56" s="20" t="s">
+      <c r="K56" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L56" s="1" t="s">
@@ -2734,7 +2707,7 @@
       <c r="M56" s="3"/>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K57" s="20" t="s">
+      <c r="K57" s="1" t="s">
         <v>335</v>
       </c>
       <c r="L57" s="1" t="s">
@@ -2743,16 +2716,16 @@
       <c r="M57" s="3"/>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K58" s="20" t="s">
+      <c r="K58" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L58" s="20" t="s">
+      <c r="L58" s="1" t="s">
         <v>339</v>
       </c>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K59" s="20" t="s">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K59" s="1" t="s">
         <v>340</v>
       </c>
       <c r="L59" s="1" t="s">
@@ -2760,113 +2733,82 @@
       </c>
       <c r="M59" s="3"/>
     </row>
-    <row r="60" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="17" t="s">
+    <row r="60" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="22"/>
-    </row>
-    <row r="61" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="6" t="s">
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="19"/>
+    </row>
+    <row r="62" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7" t="s">
+      <c r="C62" s="7"/>
+      <c r="D62" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E62" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7" t="s">
+      <c r="F62" s="7"/>
+      <c r="G62" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H61" s="7" t="s">
+      <c r="H62" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7" t="s">
+      <c r="I62" s="7"/>
+      <c r="J62" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K61" s="6" t="s">
+      <c r="K62" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="L61" s="7"/>
-      <c r="M61" s="8" t="s">
+      <c r="L62" s="7"/>
+      <c r="M62" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-    </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="M63" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>46</v>
@@ -2875,30 +2817,30 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="L64" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="M64" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="C65" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>46</v>
@@ -2907,30 +2849,30 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="L65" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="M65" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="C66" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>46</v>
@@ -2939,30 +2881,30 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="L66" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="C67" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>46</v>
@@ -2971,30 +2913,30 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="L67" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="M67" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="C68" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>46</v>
@@ -3003,30 +2945,30 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="L68" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="M68" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B69" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="C69" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>46</v>
@@ -3035,30 +2977,33 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O69" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="L69" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="M69" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B70" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="C70" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>46</v>
@@ -3070,27 +3015,27 @@
         <v>166</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="M70" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>46</v>
@@ -3102,27 +3047,27 @@
         <v>166</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="M71" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D72" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>46</v>
@@ -3131,47 +3076,53 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
+      <c r="E73" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M73" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>46</v>
@@ -3183,21 +3134,21 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="M74" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>46</v>
@@ -3209,21 +3160,21 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="M75" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>46</v>
@@ -3235,21 +3186,21 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M76" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>46</v>
@@ -3261,19 +3212,25 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="M77" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
+        <v>182</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -3281,16 +3238,16 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M78" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3301,16 +3258,31 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="L79" s="1"/>
-      <c r="M79" s="4" t="s">
+      <c r="L80" s="1"/>
+      <c r="M80" s="4" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G80" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="83" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4389,7 +4361,7 @@
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B25:M25"/>
-    <mergeCell ref="B60:M60"/>
+    <mergeCell ref="B61:M61"/>
     <mergeCell ref="B84:M84"/>
     <mergeCell ref="B123:M123"/>
   </mergeCells>

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_Diplo\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8B4800-B8D6-4030-9D60-9644E206EB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C1C445-7ED6-499E-9BAD-6AF104EDF390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_Diplo\Maturaprojekt\Endgültiges\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasKonrad\Documents\GitHub\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C1C445-7ED6-499E-9BAD-6AF104EDF390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469A169F-B7A7-4286-844B-605AE9367AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
+    <workbookView xWindow="28680" yWindow="-5340" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="344">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -1061,6 +1061,12 @@
   </si>
   <si>
     <t>p0013_S_K_L</t>
+  </si>
+  <si>
+    <t>Halteblech Laser&amp; Kantteil</t>
+  </si>
+  <si>
+    <t>p3001_s_k_l</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1293,6 +1299,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1609,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:X144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,7 +1945,7 @@
       <c r="I28" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="J28" s="4"/>
+      <c r="J28" s="2"/>
       <c r="K28" s="1" t="s">
         <v>0</v>
       </c>
@@ -1979,7 +1986,7 @@
       <c r="I29" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="J29" s="4"/>
+      <c r="J29" s="2"/>
       <c r="K29" s="1" t="s">
         <v>1</v>
       </c>
@@ -4110,11 +4117,10 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
-      <c r="K132" s="1"/>
       <c r="L132" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="M132" s="1"/>
+      <c r="M132" s="20"/>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
@@ -4132,11 +4138,13 @@
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
-      <c r="K133" s="1"/>
+      <c r="K133" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="L133" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="M133" s="1"/>
+        <v>343</v>
+      </c>
+      <c r="M133" s="2"/>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasKonrad\Documents\GitHub\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469A169F-B7A7-4286-844B-605AE9367AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C03A66E-1A6D-4F5D-BC09-69653B0CF583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5340" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1272,7 +1272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1299,7 +1299,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1616,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:X144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3950,7 +3949,7 @@
       <c r="I126" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="J126" s="1"/>
+      <c r="J126" s="2"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1" t="s">
         <v>222</v>
@@ -4120,7 +4119,7 @@
       <c r="L132" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="M132" s="20"/>
+      <c r="M132" s="1"/>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">

--- a/Endgültiges/Solarhalterung_Teilenummern.xlsx
+++ b/Endgültiges/Solarhalterung_Teilenummern.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasKonrad\Documents\GitHub\Maturaprojekt\Endgültiges\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_Diplo\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C03A66E-1A6D-4F5D-BC09-69653B0CF583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2007D36E-F2C2-4D1F-9E15-7AFADE57CCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1272,7 +1272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1299,6 +1299,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1615,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:X144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D56" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2704,6 +2705,11 @@
       <c r="M55" s="3"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
       <c r="K56" s="1" t="s">
         <v>36</v>
       </c>
@@ -2713,6 +2719,9 @@
       <c r="M56" s="3"/>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
       <c r="K57" s="1" t="s">
         <v>335</v>
       </c>
@@ -2722,6 +2731,7 @@
       <c r="M57" s="3"/>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G58" s="20"/>
       <c r="K58" s="1" t="s">
         <v>31</v>
       </c>
@@ -2731,6 +2741,7 @@
       <c r="M58" s="3"/>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G59" s="20"/>
       <c r="K59" s="1" t="s">
         <v>340</v>
       </c>
